--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -5,12 +5,12 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuta/research/technical_debt/GitHub/TechnicalDebtResearch/Data/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{398AB668-76A0-CB4F-91D6-8AD5DD9A436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{202AD525-1B3C-384E-ABE5-F7299A2B173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_C++" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1249" uniqueCount="628">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1281" uniqueCount="663">
   <si>
     <t>Issue</t>
   </si>
@@ -1912,6 +1912,380 @@
   <si>
     <t>[Content]
 [Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ネットワークアドレス処理のクリーンアップ
+[Class]機能の改善</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]冗長な設定値チェックを削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジョウチョウナ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">セッテイチ </t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]JSONのテストの追加
+[Class]テストの追加</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Code Style</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]命名規則の変更
+[Class]命名規則の変更</t>
+    <rPh sb="9" eb="13">
+      <t xml:space="preserve">メイメイキソク </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t xml:space="preserve">メイメイキソクノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]NOT_IMPLEMENTEDをNOT_REACHEDに置き換える
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストでファイルパスに標準APIを使用する
+[Class]テストの改善</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ヒョウジュン </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]non-POD static membersの監査と修正
+[Class]機能の修正</t>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">カンサ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]getRawSlices()呼び出しの監査
+[Class]機能の改善</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">カンサ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ライブラリのメモリ不足エラーの監査
+[Class]機能の追加</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">カンサ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの修正
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロジェクト管理
+[Class]プロジェクト管理</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">カンリ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Design？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Requirement</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンパイラの要件
+[Class]要件の定義</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ヨウケン </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ヨウケン </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コメントを一貫性のあるものに
+[Class]コメントの規則</t>
+    <rPh sb="14" eb="17">
+      <t xml:space="preserve">イッカンセイノ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">キソク </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]全てのファイルにライセンスヘッダを追加
+[Class]ヘッダの追加</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">スベテノ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ssl: openssl supportを削除しboringsslを追加
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]chromium-stableが変更されたことを確認
+[Class]機能の改善</t>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]空でない文字列が必要
+[Class]機能の修正</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">カラ </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">モジレツ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]protobuf.bzlの使用を削除
+[Class]不要な依存関係の削除</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t xml:space="preserve">イソンカンケイ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Network::ConnectionEventのクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]さまざまな箇所のポインタを修正
+[Class]機能の修正</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">カショノ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]namespaceの修正
+[Class]機能の修正</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]依存関係の明示
+[Class]依存関係の改善</t>
+    <rPh sb="9" eb="13">
+      <t xml:space="preserve">イソンカンケイ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">メイジ </t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単体テストの追加
+[Class]テストの追加</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">タンタイ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RpcChannelを廃止
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの設定を変更
+[Class]テストの変更</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]coverity scanのセットアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TestEnvironmentをa single pass variable substitutionに切り替え
+[Class]機能の改善</t>
+    <rPh sb="73" eb="75">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gRPC&lt;-&gt;JSON transcoder filterのフォローアップ
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]clang-format 5.0にアップグレード
+[Class]コードの改善</t>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TCP_NODELAYを設定するとエラーが発生
+[Class]バグの修正</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">セッテイスルト </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2879,8 +3253,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A620" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F623"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2915,8 +3289,11 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>628</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -2926,8 +3303,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>628</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -2937,8 +3317,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>628</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -2948,8 +3331,11 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>631</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -2959,8 +3345,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>633</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -2970,8 +3359,11 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>628</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
@@ -2981,8 +3373,11 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>628</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -2992,8 +3387,11 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>631</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -3003,8 +3401,11 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>628</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -3014,8 +3415,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>631</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -3025,8 +3429,14 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>628</v>
+      </c>
+      <c r="E12" t="s">
+        <v>642</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -3036,8 +3446,11 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>643</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>627</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -3047,8 +3460,11 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>633</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -3058,8 +3474,11 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>628</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -3069,8 +3488,11 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>628</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -3080,8 +3502,11 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>628</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -3091,8 +3516,11 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>628</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -3102,8 +3530,11 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>628</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>627</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -3113,8 +3544,11 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>628</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -3124,8 +3558,11 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>628</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -3135,8 +3572,11 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>628</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -3146,8 +3586,11 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>628</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -3157,8 +3600,11 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>631</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -3168,8 +3614,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>628</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>627</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -3179,8 +3628,11 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>631</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -3190,8 +3642,11 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>628</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -3201,8 +3656,11 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>628</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -3212,8 +3670,14 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D29" t="s">
+        <v>631</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -3223,8 +3687,11 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="s">
+        <v>628</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -3234,8 +3701,11 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>628</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{202AD525-1B3C-384E-ABE5-F7299A2B173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E5CCC088-265C-9F44-B9E2-7777D58D5E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1281" uniqueCount="663">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1313" uniqueCount="695">
   <si>
     <t>Issue</t>
   </si>
@@ -2286,6 +2286,302 @@
     <rPh sb="43" eb="45">
       <t xml:space="preserve">シュウセイ </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]1.4.0 deprecationのクリーンアップ
+[Class]コードの改善</t>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]サブスクリプションのリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの警告をクリーンにする
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ケイコク </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]absl common librariesを採用
+[Class]コードの改善</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">サイヨウ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの改善
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]起動メッセージのログレベル
+[Class]機能の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キドウメッセージノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Envoyインラインヘッダが値の追加をサポートしていない
+[Class]機能の改善</t>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">アタイノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v2に変換
+[Class]コードの改善</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ヘンカン </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]AccessLog::RequestInfoを適切なnamespaceに移動
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードの移動
+[Class]コードの移動</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DockerHubのレジストリ移行
+[Class]レジストリの移行</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]catch data-plane-api compat regressionsテストの追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フィルターコードとファイルアクセスログを分離
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]service descriptorsの検証
+[Class]機能の改善</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]absl thread annotationsの使用
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]MainCommonTestが中断される
+[Class]テストの改善</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">チュウダンサレル </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]git_sha_rewriterをBazel native approachに置き換える
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スレッドの機能改善
+[Class]機能の改善</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]main_common_testがIPv6で壊れている
+[Class]テストの修正</t>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">コワレテイル </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]absl::optionalの採用
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Abseil互換性ガイドラインに違反
+[Class]他のツールへの対応</t>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">ゴカンセイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">イハン </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">タノツール </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>他のツールの問題でなくプロジェクトの問題なのでDesignかも</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">タノツールノモンダイデナク </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">モンダイナノデ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]重み付けの問題
+[Class]機能の改善</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">オモミヅケノ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ヘルスステータスを配信する機能の追加
+[Class]機能の追加</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ハイシンスルキノウノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gcovr 3.4の依存関係
+[Class]依存関係の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]coverity scan mightがなくなったため他のツールに変更しないといけない
+[Class]他のツールへの対応</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v1サポートの削除
+[Class]サポートの削除</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]NVLOG compile defineの削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cluster_namesなしでapi_config_sourceをサポート
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]1.6.0 deprecationのクリーンアップ
+[Class]コードの改善</t>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]deprecated とマークされた機能を削除
+[Class]不要な機能の削除</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3253,8 +3549,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3715,8 +4011,11 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="s">
+        <v>628</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -3726,8 +4025,11 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>628</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -3737,8 +4039,11 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" t="s">
+        <v>631</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>627</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -3748,8 +4053,11 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>628</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -3759,8 +4067,11 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>631</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -3770,8 +4081,11 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" t="s">
+        <v>628</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -3781,8 +4095,11 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
+      <c r="C38" t="s">
+        <v>628</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -3792,8 +4109,11 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
+      <c r="C39" t="s">
+        <v>628</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>627</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -3803,8 +4123,11 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>628</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -3814,8 +4137,11 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
+      <c r="C41" t="s">
+        <v>628</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -3825,8 +4151,11 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" t="s">
+        <v>628</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -3836,8 +4165,11 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>631</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>627</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -3847,8 +4179,11 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
+      <c r="C44" t="s">
+        <v>628</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -3858,8 +4193,11 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
+      <c r="C45" t="s">
+        <v>628</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>627</v>
+        <v>676</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -3869,8 +4207,11 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
+      <c r="C46" t="s">
+        <v>628</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>627</v>
+        <v>677</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -3880,8 +4221,11 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
+      <c r="C47" t="s">
+        <v>631</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>627</v>
+        <v>678</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -3891,8 +4235,11 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
+      <c r="C48" t="s">
+        <v>628</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -3902,8 +4249,11 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
+      <c r="C49" t="s">
+        <v>628</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -3913,8 +4263,11 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
+      <c r="C50" t="s">
+        <v>631</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>627</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -3924,8 +4277,11 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>628</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>627</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -3935,8 +4291,17 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>683</v>
+      </c>
+      <c r="D52" t="s">
+        <v>628</v>
+      </c>
+      <c r="E52" t="s">
+        <v>685</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>627</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -3946,8 +4311,11 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>628</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>627</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -3957,8 +4325,11 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>628</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>627</v>
+        <v>687</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -3968,8 +4339,11 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>628</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>627</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -3979,8 +4353,11 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>683</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>627</v>
+        <v>689</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -3990,8 +4367,11 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>628</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>627</v>
+        <v>690</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -4001,8 +4381,11 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>628</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>627</v>
+        <v>691</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -4012,8 +4395,11 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>628</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>627</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -4023,8 +4409,11 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>628</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -4034,8 +4423,11 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>628</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>627</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E5CCC088-265C-9F44-B9E2-7777D58D5E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F1C43DAF-CF49-D843-B5EB-D784BA03F35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1313" uniqueCount="695">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1353" uniqueCount="723">
   <si>
     <t>Issue</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>https://github.com/envoyproxy/envoy/issues/2903</t>
-  </si>
-  <si>
-    <t>https://github.com/envoyproxy/envoy/issues/2904</t>
   </si>
   <si>
     <t>https://github.com/envoyproxy/envoy/issues/2910</t>
@@ -2580,8 +2577,296 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>[Content]deprecated とマークされた機能を削除
-[Class]不要な機能の削除</t>
+    <t>[Content]非推奨な機能を削除
+[Class]非推奨な機能の削除</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/envoyproxy/envoy/issues/2904</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]core codeが拡張機能に依存できるかどうか
+[Class]機能の改善</t>
+    <rPh sb="17" eb="34">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]config/registration boilerplateを減らす
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pluggable health checkersを許可する
+[Class]機能の改善</t>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストをrepo reporgと互換性を持たせる
+[Class]テストの改善</t>
+    <rPh sb="25" eb="28">
+      <t xml:space="preserve">ゴカンセイ </t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">モタセル </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログパスのカバレッジが失われている
+[Class]機能の改善</t>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">ウシナワレテイル </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨となったgRPC beta Python APIへの対応
+[Class]非推奨なAPIへの対応</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t xml:space="preserve">ヒスイショウナ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの改善
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TcpProxyコードは拡張機能にあるべきではない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]http: websocketの改善
+[Class]機能の改善</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]decode()の動作が異なる
+[Class]関数の改善</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ドウサガコトナル </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tracer proto factory関数の追加
+[Class]関数の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nclude/ header documentationとimplementationの競合
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Address::Instanceの実装
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単数系と複数形の命名規則
+[Class]命名規則の問題</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">タンスウケイ </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">フクスウケイ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">メイメイ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">キソク </t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t xml:space="preserve">メイメイキソク </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]XFF headerの重要な変更
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HttpIntegrationTestメソッドの改善
+[Class]テストのメソッドの改善</t>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エンドポイントの変更可能なメタデータをサポート
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]format regressionテストの追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]syscall API wrappersの改善
+[Class]機能の改善</t>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]QueryParamsはreal classでないといけない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]検証されていないユーザー定義ヘッダが危険
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの追加
+[Class]テストの追加</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]timer_implの改善
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの追加
+[Class]テストの追加</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CIステージの追加
+[Class]テストの追加</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RequestInfoの名前変更
+[Class]クラス名変更</t>
+    <rPh sb="21" eb="25">
+      <t xml:space="preserve">ナマエヘンコウ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの修正
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]STRICT_DNSとEDSの動作
+[Class]機能の改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3549,8 +3834,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3569,13 +3854,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E1" t="s">
         <v>624</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42">
@@ -3586,10 +3871,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -3600,10 +3885,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -3614,10 +3899,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -3628,10 +3913,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>630</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -3642,10 +3927,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>632</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -3656,10 +3941,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
@@ -3670,10 +3955,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -3684,10 +3969,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -3698,10 +3983,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -3712,10 +3997,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -3726,13 +4011,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -3743,10 +4028,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>642</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -3757,10 +4042,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -3771,10 +4056,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -3785,10 +4070,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -3799,10 +4084,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -3813,10 +4098,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -3827,10 +4112,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -3841,10 +4126,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -3855,10 +4140,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -3869,10 +4154,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -3883,10 +4168,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -3897,10 +4182,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -3911,10 +4196,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -3925,10 +4210,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -3939,10 +4224,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -3953,10 +4238,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -3967,13 +4252,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D29" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -3984,10 +4269,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -3998,10 +4283,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -4012,10 +4297,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -4026,10 +4311,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -4040,10 +4325,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -4054,10 +4339,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -4068,10 +4353,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -4082,10 +4367,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -4096,10 +4381,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -4110,10 +4395,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -4124,10 +4409,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -4138,10 +4423,10 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -4152,10 +4437,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -4166,10 +4451,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -4180,10 +4465,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -4194,10 +4479,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -4208,10 +4493,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -4222,10 +4507,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -4236,10 +4521,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -4250,10 +4535,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -4264,10 +4549,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -4278,10 +4563,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -4292,16 +4577,16 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
+        <v>682</v>
+      </c>
+      <c r="D52" t="s">
+        <v>627</v>
+      </c>
+      <c r="E52" t="s">
+        <v>684</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="D52" t="s">
-        <v>628</v>
-      </c>
-      <c r="E52" t="s">
-        <v>685</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -4312,10 +4597,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -4326,10 +4611,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -4340,10 +4625,10 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -4354,10 +4639,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -4368,10 +4653,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -4382,10 +4667,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -4396,10 +4681,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -4410,10 +4695,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -4424,10 +4709,10 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -4437,8 +4722,11 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>627</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -4448,8 +4736,11 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>627</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -4459,8 +4750,11 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>627</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -4468,10 +4762,13 @@
         <v>2904</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>694</v>
+      </c>
+      <c r="C65" t="s">
+        <v>627</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -4479,10 +4776,13 @@
         <v>2910</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>627</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>627</v>
+        <v>695</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -4490,10 +4790,13 @@
         <v>2911</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>627</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>627</v>
+        <v>696</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -4501,10 +4804,13 @@
         <v>2933</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>627</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -4512,10 +4818,13 @@
         <v>2935</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>630</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -4523,10 +4832,13 @@
         <v>3012</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>627</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -4534,10 +4846,13 @@
         <v>3138</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>682</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -4545,10 +4860,13 @@
         <v>3238</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>630</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -4556,10 +4874,13 @@
         <v>3281</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>627</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -4567,10 +4888,13 @@
         <v>3301</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>627</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -4578,10 +4902,13 @@
         <v>3442</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>627</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -4589,10 +4916,13 @@
         <v>3459</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>627</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -4600,10 +4930,13 @@
         <v>3500</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>627</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>627</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -4611,10 +4944,13 @@
         <v>3529</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>627</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -4622,10 +4958,13 @@
         <v>3584</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>632</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -4633,10 +4972,13 @@
         <v>3611</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>627</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>627</v>
+        <v>709</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -4644,10 +4986,13 @@
         <v>3713</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>627</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -4655,10 +5000,13 @@
         <v>3714</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>627</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -4666,10 +5014,13 @@
         <v>3715</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>627</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -4677,10 +5028,13 @@
         <v>3716</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>627</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -4688,10 +5042,13 @@
         <v>3717</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>627</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -4699,10 +5056,13 @@
         <v>3718</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>627</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -4710,10 +5070,13 @@
         <v>3809</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>630</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>627</v>
+        <v>710</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -4721,10 +5084,13 @@
         <v>3810</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>627</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -4732,10 +5098,13 @@
         <v>3812</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>630</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>627</v>
+        <v>712</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -4743,10 +5112,13 @@
         <v>3819</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>627</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>627</v>
+        <v>713</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -4754,10 +5126,13 @@
         <v>4142</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>627</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>627</v>
+        <v>714</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -4765,10 +5140,13 @@
         <v>4268</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>627</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>627</v>
+        <v>715</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -4776,10 +5154,13 @@
         <v>4302</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>630</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>627</v>
+        <v>716</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -4787,10 +5168,13 @@
         <v>4332</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>627</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>627</v>
+        <v>717</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -4798,10 +5182,13 @@
         <v>4349</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>630</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>627</v>
+        <v>718</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -4809,10 +5196,13 @@
         <v>4393</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>630</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>627</v>
+        <v>719</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -4820,10 +5210,13 @@
         <v>4500</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>627</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>627</v>
+        <v>720</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -4831,10 +5224,13 @@
         <v>4572</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="C98" t="s">
+        <v>630</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>627</v>
+        <v>721</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -4842,10 +5238,13 @@
         <v>4590</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>627</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>627</v>
+        <v>722</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -4853,10 +5252,13 @@
         <v>4605</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C100" t="s">
+        <v>627</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
@@ -4864,10 +5266,13 @@
         <v>4606</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="C101" t="s">
+        <v>627</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>627</v>
+        <v>693</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -4875,10 +5280,10 @@
         <v>4616</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -4886,10 +5291,10 @@
         <v>4617</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -4897,10 +5302,10 @@
         <v>4618</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -4908,10 +5313,10 @@
         <v>4619</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -4919,10 +5324,10 @@
         <v>4620</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -4930,10 +5335,10 @@
         <v>4621</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -4941,10 +5346,10 @@
         <v>4622</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -4952,10 +5357,10 @@
         <v>4623</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -4963,10 +5368,10 @@
         <v>4635</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -4974,10 +5379,10 @@
         <v>4643</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -4985,10 +5390,10 @@
         <v>4705</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -4996,10 +5401,10 @@
         <v>4706</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -5007,10 +5412,10 @@
         <v>4744</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -5018,10 +5423,10 @@
         <v>4830</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -5029,10 +5434,10 @@
         <v>5077</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -5040,10 +5445,10 @@
         <v>5138</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -5051,10 +5456,10 @@
         <v>5155</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -5062,10 +5467,10 @@
         <v>5277</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -5073,10 +5478,10 @@
         <v>5355</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -5084,10 +5489,10 @@
         <v>5376</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">
@@ -5095,10 +5500,10 @@
         <v>5377</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -5106,10 +5511,10 @@
         <v>5378</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -5117,10 +5522,10 @@
         <v>5379</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -5128,10 +5533,10 @@
         <v>5380</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -5139,10 +5544,10 @@
         <v>5381</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -5150,10 +5555,10 @@
         <v>5382</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -5161,10 +5566,10 @@
         <v>5390</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -5172,10 +5577,10 @@
         <v>5391</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -5183,10 +5588,10 @@
         <v>5453</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -5194,10 +5599,10 @@
         <v>5461</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -5205,10 +5610,10 @@
         <v>5477</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -5216,10 +5621,10 @@
         <v>5505</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -5227,10 +5632,10 @@
         <v>5558</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -5238,10 +5643,10 @@
         <v>5570</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -5249,10 +5654,10 @@
         <v>5585</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -5260,10 +5665,10 @@
         <v>5587</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -5271,10 +5676,10 @@
         <v>5607</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -5282,10 +5687,10 @@
         <v>5624</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -5293,10 +5698,10 @@
         <v>5638</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -5304,10 +5709,10 @@
         <v>5686</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -5315,10 +5720,10 @@
         <v>5730</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -5326,10 +5731,10 @@
         <v>5734</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -5337,10 +5742,10 @@
         <v>5762</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -5348,10 +5753,10 @@
         <v>5792</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -5359,10 +5764,10 @@
         <v>5817</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -5370,10 +5775,10 @@
         <v>5820</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -5381,10 +5786,10 @@
         <v>5834</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -5392,10 +5797,10 @@
         <v>5842</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -5403,10 +5808,10 @@
         <v>5856</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -5414,10 +5819,10 @@
         <v>6003</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -5425,10 +5830,10 @@
         <v>6098</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -5436,10 +5841,10 @@
         <v>6288</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -5447,10 +5852,10 @@
         <v>6307</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -5458,10 +5863,10 @@
         <v>6319</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -5469,10 +5874,10 @@
         <v>6362</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -5480,10 +5885,10 @@
         <v>6405</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -5491,10 +5896,10 @@
         <v>6465</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -5502,10 +5907,10 @@
         <v>6494</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -5513,10 +5918,10 @@
         <v>6581</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -5524,10 +5929,10 @@
         <v>6588</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -5535,10 +5940,10 @@
         <v>6616</v>
       </c>
       <c r="B162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -5546,10 +5951,10 @@
         <v>6622</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -5557,10 +5962,10 @@
         <v>6634</v>
       </c>
       <c r="B164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -5568,10 +5973,10 @@
         <v>6736</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -5579,10 +5984,10 @@
         <v>6774</v>
       </c>
       <c r="B166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -5590,10 +5995,10 @@
         <v>6896</v>
       </c>
       <c r="B167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -5601,10 +6006,10 @@
         <v>6953</v>
       </c>
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -5612,10 +6017,10 @@
         <v>7020</v>
       </c>
       <c r="B169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -5623,10 +6028,10 @@
         <v>7035</v>
       </c>
       <c r="B170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -5634,10 +6039,10 @@
         <v>7080</v>
       </c>
       <c r="B171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -5645,10 +6050,10 @@
         <v>7109</v>
       </c>
       <c r="B172" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -5656,10 +6061,10 @@
         <v>7116</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -5667,10 +6072,10 @@
         <v>7120</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -5678,10 +6083,10 @@
         <v>7158</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -5689,10 +6094,10 @@
         <v>7215</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -5700,10 +6105,10 @@
         <v>7216</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -5711,10 +6116,10 @@
         <v>7241</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -5722,10 +6127,10 @@
         <v>7314</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -5733,10 +6138,10 @@
         <v>7336</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -5744,10 +6149,10 @@
         <v>7342</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -5755,10 +6160,10 @@
         <v>7547</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -5766,10 +6171,10 @@
         <v>7548</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -5777,10 +6182,10 @@
         <v>7793</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -5788,10 +6193,10 @@
         <v>8013</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -5799,10 +6204,10 @@
         <v>8050</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -5810,10 +6215,10 @@
         <v>8056</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -5821,10 +6226,10 @@
         <v>8092</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -5832,10 +6237,10 @@
         <v>8184</v>
       </c>
       <c r="B189" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -5843,10 +6248,10 @@
         <v>8225</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -5854,10 +6259,10 @@
         <v>8253</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -5865,10 +6270,10 @@
         <v>8284</v>
       </c>
       <c r="B192" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -5876,10 +6281,10 @@
         <v>8419</v>
       </c>
       <c r="B193" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -5887,10 +6292,10 @@
         <v>8481</v>
       </c>
       <c r="B194" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -5898,10 +6303,10 @@
         <v>8561</v>
       </c>
       <c r="B195" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -5909,10 +6314,10 @@
         <v>8567</v>
       </c>
       <c r="B196" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -5920,10 +6325,10 @@
         <v>8575</v>
       </c>
       <c r="B197" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -5931,10 +6336,10 @@
         <v>8594</v>
       </c>
       <c r="B198" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -5942,10 +6347,10 @@
         <v>8618</v>
       </c>
       <c r="B199" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -5953,10 +6358,10 @@
         <v>8717</v>
       </c>
       <c r="B200" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
@@ -5964,10 +6369,10 @@
         <v>8720</v>
       </c>
       <c r="B201" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -5975,10 +6380,10 @@
         <v>8756</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -5986,10 +6391,10 @@
         <v>8770</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -5997,10 +6402,10 @@
         <v>8841</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -6008,10 +6413,10 @@
         <v>8842</v>
       </c>
       <c r="B205" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="42">
@@ -6019,10 +6424,10 @@
         <v>8843</v>
       </c>
       <c r="B206" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -6030,10 +6435,10 @@
         <v>8844</v>
       </c>
       <c r="B207" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -6041,10 +6446,10 @@
         <v>8845</v>
       </c>
       <c r="B208" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="42">
@@ -6052,10 +6457,10 @@
         <v>8875</v>
       </c>
       <c r="B209" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -6063,10 +6468,10 @@
         <v>8876</v>
       </c>
       <c r="B210" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -6074,10 +6479,10 @@
         <v>8892</v>
       </c>
       <c r="B211" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -6085,10 +6490,10 @@
         <v>8901</v>
       </c>
       <c r="B212" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -6096,10 +6501,10 @@
         <v>8992</v>
       </c>
       <c r="B213" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="42">
@@ -6107,10 +6512,10 @@
         <v>8993</v>
       </c>
       <c r="B214" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -6118,10 +6523,10 @@
         <v>9025</v>
       </c>
       <c r="B215" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="42">
@@ -6129,10 +6534,10 @@
         <v>9161</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -6140,10 +6545,10 @@
         <v>9328</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42">
@@ -6151,10 +6556,10 @@
         <v>9539</v>
       </c>
       <c r="B218" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -6162,10 +6567,10 @@
         <v>9540</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -6173,10 +6578,10 @@
         <v>9541</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
@@ -6184,10 +6589,10 @@
         <v>9568</v>
       </c>
       <c r="B221" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="42">
@@ -6195,10 +6600,10 @@
         <v>9623</v>
       </c>
       <c r="B222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="42">
@@ -6206,10 +6611,10 @@
         <v>9709</v>
       </c>
       <c r="B223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="42">
@@ -6217,10 +6622,10 @@
         <v>9712</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="42">
@@ -6228,10 +6633,10 @@
         <v>9749</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="42">
@@ -6239,10 +6644,10 @@
         <v>9881</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42">
@@ -6250,10 +6655,10 @@
         <v>10088</v>
       </c>
       <c r="B227" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="42">
@@ -6261,10 +6666,10 @@
         <v>10111</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="42">
@@ -6272,10 +6677,10 @@
         <v>10318</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="42">
@@ -6283,10 +6688,10 @@
         <v>10332</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="42">
@@ -6294,10 +6699,10 @@
         <v>10340</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42">
@@ -6305,10 +6710,10 @@
         <v>10343</v>
       </c>
       <c r="B232" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="42">
@@ -6316,10 +6721,10 @@
         <v>10366</v>
       </c>
       <c r="B233" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="42">
@@ -6327,10 +6732,10 @@
         <v>10516</v>
       </c>
       <c r="B234" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="42">
@@ -6338,10 +6743,10 @@
         <v>10535</v>
       </c>
       <c r="B235" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="42">
@@ -6349,10 +6754,10 @@
         <v>10576</v>
       </c>
       <c r="B236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="42">
@@ -6360,10 +6765,10 @@
         <v>10701</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="42">
@@ -6371,10 +6776,10 @@
         <v>10809</v>
       </c>
       <c r="B238" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="42">
@@ -6382,10 +6787,10 @@
         <v>10843</v>
       </c>
       <c r="B239" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="42">
@@ -6393,10 +6798,10 @@
         <v>10857</v>
       </c>
       <c r="B240" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="42">
@@ -6404,10 +6809,10 @@
         <v>10868</v>
       </c>
       <c r="B241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="42">
@@ -6415,10 +6820,10 @@
         <v>10917</v>
       </c>
       <c r="B242" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="42">
@@ -6426,10 +6831,10 @@
         <v>11202</v>
       </c>
       <c r="B243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="42">
@@ -6437,10 +6842,10 @@
         <v>11528</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="42">
@@ -6448,10 +6853,10 @@
         <v>11535</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="42">
@@ -6459,10 +6864,10 @@
         <v>11553</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="42">
@@ -6470,10 +6875,10 @@
         <v>11655</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="42">
@@ -6481,10 +6886,10 @@
         <v>11665</v>
       </c>
       <c r="B248" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="42">
@@ -6492,10 +6897,10 @@
         <v>11691</v>
       </c>
       <c r="B249" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="42">
@@ -6503,10 +6908,10 @@
         <v>11825</v>
       </c>
       <c r="B250" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="42">
@@ -6514,10 +6919,10 @@
         <v>11932</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="42">
@@ -6525,10 +6930,10 @@
         <v>11933</v>
       </c>
       <c r="B252" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="42">
@@ -6536,10 +6941,10 @@
         <v>11934</v>
       </c>
       <c r="B253" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="42">
@@ -6547,10 +6952,10 @@
         <v>11935</v>
       </c>
       <c r="B254" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="42">
@@ -6558,10 +6963,10 @@
         <v>11979</v>
       </c>
       <c r="B255" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="42">
@@ -6569,10 +6974,10 @@
         <v>11981</v>
       </c>
       <c r="B256" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="42">
@@ -6580,10 +6985,10 @@
         <v>11989</v>
       </c>
       <c r="B257" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="42">
@@ -6591,10 +6996,10 @@
         <v>11990</v>
       </c>
       <c r="B258" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="42">
@@ -6602,10 +7007,10 @@
         <v>11992</v>
       </c>
       <c r="B259" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="42">
@@ -6613,10 +7018,10 @@
         <v>11994</v>
       </c>
       <c r="B260" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="42">
@@ -6624,10 +7029,10 @@
         <v>11995</v>
       </c>
       <c r="B261" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="42">
@@ -6635,10 +7040,10 @@
         <v>11996</v>
       </c>
       <c r="B262" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="42">
@@ -6646,10 +7051,10 @@
         <v>11998</v>
       </c>
       <c r="B263" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="42">
@@ -6657,10 +7062,10 @@
         <v>11999</v>
       </c>
       <c r="B264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="42">
@@ -6668,10 +7073,10 @@
         <v>12003</v>
       </c>
       <c r="B265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="42">
@@ -6679,10 +7084,10 @@
         <v>12004</v>
       </c>
       <c r="B266" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="42">
@@ -6690,10 +7095,10 @@
         <v>12005</v>
       </c>
       <c r="B267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="42">
@@ -6701,10 +7106,10 @@
         <v>12006</v>
       </c>
       <c r="B268" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="42">
@@ -6712,10 +7117,10 @@
         <v>12007</v>
       </c>
       <c r="B269" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="42">
@@ -6723,10 +7128,10 @@
         <v>12008</v>
       </c>
       <c r="B270" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="42">
@@ -6734,10 +7139,10 @@
         <v>12084</v>
       </c>
       <c r="B271" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="42">
@@ -6745,10 +7150,10 @@
         <v>12297</v>
       </c>
       <c r="B272" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="42">
@@ -6756,10 +7161,10 @@
         <v>12314</v>
       </c>
       <c r="B273" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="42">
@@ -6767,10 +7172,10 @@
         <v>12341</v>
       </c>
       <c r="B274" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="42">
@@ -6778,10 +7183,10 @@
         <v>12354</v>
       </c>
       <c r="B275" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="42">
@@ -6789,10 +7194,10 @@
         <v>12469</v>
       </c>
       <c r="B276" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="42">
@@ -6800,10 +7205,10 @@
         <v>12750</v>
       </c>
       <c r="B277" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="42">
@@ -6811,10 +7216,10 @@
         <v>12752</v>
       </c>
       <c r="B278" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="42">
@@ -6822,10 +7227,10 @@
         <v>12840</v>
       </c>
       <c r="B279" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="42">
@@ -6833,10 +7238,10 @@
         <v>13032</v>
       </c>
       <c r="B280" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="42">
@@ -6844,10 +7249,10 @@
         <v>13033</v>
       </c>
       <c r="B281" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="42">
@@ -6855,10 +7260,10 @@
         <v>13034</v>
       </c>
       <c r="B282" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="42">
@@ -6866,10 +7271,10 @@
         <v>13321</v>
       </c>
       <c r="B283" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="42">
@@ -6877,10 +7282,10 @@
         <v>13445</v>
       </c>
       <c r="B284" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="42">
@@ -6888,10 +7293,10 @@
         <v>13446</v>
       </c>
       <c r="B285" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="42">
@@ -6899,10 +7304,10 @@
         <v>13537</v>
       </c>
       <c r="B286" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="42">
@@ -6910,10 +7315,10 @@
         <v>13952</v>
       </c>
       <c r="B287" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="42">
@@ -6921,10 +7326,10 @@
         <v>14133</v>
       </c>
       <c r="B288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="42">
@@ -6932,10 +7337,10 @@
         <v>14307</v>
       </c>
       <c r="B289" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="42">
@@ -6943,10 +7348,10 @@
         <v>14454</v>
       </c>
       <c r="B290" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="42">
@@ -6954,10 +7359,10 @@
         <v>14639</v>
       </c>
       <c r="B291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="42">
@@ -6965,10 +7370,10 @@
         <v>14640</v>
       </c>
       <c r="B292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="42">
@@ -6976,10 +7381,10 @@
         <v>14641</v>
       </c>
       <c r="B293" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="42">
@@ -6987,10 +7392,10 @@
         <v>14642</v>
       </c>
       <c r="B294" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="42">
@@ -6998,10 +7403,10 @@
         <v>14643</v>
       </c>
       <c r="B295" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="42">
@@ -7009,10 +7414,10 @@
         <v>14644</v>
       </c>
       <c r="B296" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="42">
@@ -7020,10 +7425,10 @@
         <v>14645</v>
       </c>
       <c r="B297" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="42">
@@ -7031,10 +7436,10 @@
         <v>14646</v>
       </c>
       <c r="B298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="42">
@@ -7042,10 +7447,10 @@
         <v>14647</v>
       </c>
       <c r="B299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42">
@@ -7053,10 +7458,10 @@
         <v>14648</v>
       </c>
       <c r="B300" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42">
@@ -7064,10 +7469,10 @@
         <v>14649</v>
       </c>
       <c r="B301" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="42">
@@ -7075,10 +7480,10 @@
         <v>14650</v>
       </c>
       <c r="B302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="42">
@@ -7086,10 +7491,10 @@
         <v>14651</v>
       </c>
       <c r="B303" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="42">
@@ -7097,10 +7502,10 @@
         <v>14894</v>
       </c>
       <c r="B304" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="42">
@@ -7108,10 +7513,10 @@
         <v>15081</v>
       </c>
       <c r="B305" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="42">
@@ -7119,10 +7524,10 @@
         <v>15126</v>
       </c>
       <c r="B306" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="42">
@@ -7130,10 +7535,10 @@
         <v>15232</v>
       </c>
       <c r="B307" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="42">
@@ -7141,10 +7546,10 @@
         <v>15239</v>
       </c>
       <c r="B308" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="42">
@@ -7152,10 +7557,10 @@
         <v>15320</v>
       </c>
       <c r="B309" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="42">
@@ -7163,10 +7568,10 @@
         <v>15336</v>
       </c>
       <c r="B310" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="42">
@@ -7174,10 +7579,10 @@
         <v>15403</v>
       </c>
       <c r="B311" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="42">
@@ -7185,10 +7590,10 @@
         <v>15456</v>
       </c>
       <c r="B312" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="42">
@@ -7196,10 +7601,10 @@
         <v>15654</v>
       </c>
       <c r="B313" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="42">
@@ -7207,10 +7612,10 @@
         <v>16002</v>
       </c>
       <c r="B314" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="42">
@@ -7218,10 +7623,10 @@
         <v>16003</v>
       </c>
       <c r="B315" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="42">
@@ -7229,10 +7634,10 @@
         <v>16004</v>
       </c>
       <c r="B316" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="42">
@@ -7240,10 +7645,10 @@
         <v>16005</v>
       </c>
       <c r="B317" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="42">
@@ -7251,10 +7656,10 @@
         <v>16006</v>
       </c>
       <c r="B318" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="42">
@@ -7262,10 +7667,10 @@
         <v>16007</v>
       </c>
       <c r="B319" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="42">
@@ -7273,10 +7678,10 @@
         <v>16008</v>
       </c>
       <c r="B320" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="42">
@@ -7284,10 +7689,10 @@
         <v>16009</v>
       </c>
       <c r="B321" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="42">
@@ -7295,10 +7700,10 @@
         <v>16010</v>
       </c>
       <c r="B322" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="42">
@@ -7306,10 +7711,10 @@
         <v>16011</v>
       </c>
       <c r="B323" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="42">
@@ -7317,10 +7722,10 @@
         <v>16012</v>
       </c>
       <c r="B324" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="42">
@@ -7328,10 +7733,10 @@
         <v>16013</v>
       </c>
       <c r="B325" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="42">
@@ -7339,10 +7744,10 @@
         <v>16014</v>
       </c>
       <c r="B326" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="42">
@@ -7350,10 +7755,10 @@
         <v>16015</v>
       </c>
       <c r="B327" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="42">
@@ -7361,10 +7766,10 @@
         <v>16016</v>
       </c>
       <c r="B328" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42">
@@ -7372,10 +7777,10 @@
         <v>16018</v>
       </c>
       <c r="B329" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42">
@@ -7383,10 +7788,10 @@
         <v>16432</v>
       </c>
       <c r="B330" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42">
@@ -7394,10 +7799,10 @@
         <v>16579</v>
       </c>
       <c r="B331" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="42">
@@ -7405,10 +7810,10 @@
         <v>16642</v>
       </c>
       <c r="B332" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="42">
@@ -7416,10 +7821,10 @@
         <v>16757</v>
       </c>
       <c r="B333" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="42">
@@ -7427,10 +7832,10 @@
         <v>17168</v>
       </c>
       <c r="B334" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="42">
@@ -7438,10 +7843,10 @@
         <v>17229</v>
       </c>
       <c r="B335" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="42">
@@ -7449,10 +7854,10 @@
         <v>17264</v>
       </c>
       <c r="B336" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="42">
@@ -7460,10 +7865,10 @@
         <v>17323</v>
       </c>
       <c r="B337" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="42">
@@ -7471,10 +7876,10 @@
         <v>17324</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="42">
@@ -7482,10 +7887,10 @@
         <v>17325</v>
       </c>
       <c r="B339" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="42">
@@ -7493,10 +7898,10 @@
         <v>17326</v>
       </c>
       <c r="B340" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="42">
@@ -7504,10 +7909,10 @@
         <v>17382</v>
       </c>
       <c r="B341" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="42">
@@ -7515,10 +7920,10 @@
         <v>17487</v>
       </c>
       <c r="B342" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="42">
@@ -7526,10 +7931,10 @@
         <v>17687</v>
       </c>
       <c r="B343" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="42">
@@ -7537,10 +7942,10 @@
         <v>17703</v>
       </c>
       <c r="B344" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="42">
@@ -7548,10 +7953,10 @@
         <v>17956</v>
       </c>
       <c r="B345" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="42">
@@ -7559,10 +7964,10 @@
         <v>17971</v>
       </c>
       <c r="B346" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="42">
@@ -7570,10 +7975,10 @@
         <v>18432</v>
       </c>
       <c r="B347" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="42">
@@ -7581,10 +7986,10 @@
         <v>18433</v>
       </c>
       <c r="B348" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="42">
@@ -7592,10 +7997,10 @@
         <v>18434</v>
       </c>
       <c r="B349" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="42">
@@ -7603,10 +8008,10 @@
         <v>18435</v>
       </c>
       <c r="B350" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="42">
@@ -7614,10 +8019,10 @@
         <v>18436</v>
       </c>
       <c r="B351" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42">
@@ -7625,10 +8030,10 @@
         <v>18437</v>
       </c>
       <c r="B352" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="42">
@@ -7636,10 +8041,10 @@
         <v>18438</v>
       </c>
       <c r="B353" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="42">
@@ -7647,10 +8052,10 @@
         <v>18439</v>
       </c>
       <c r="B354" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="42">
@@ -7658,10 +8063,10 @@
         <v>18440</v>
       </c>
       <c r="B355" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="42">
@@ -7669,10 +8074,10 @@
         <v>18441</v>
       </c>
       <c r="B356" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="42">
@@ -7680,10 +8085,10 @@
         <v>18442</v>
       </c>
       <c r="B357" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="42">
@@ -7691,10 +8096,10 @@
         <v>18443</v>
       </c>
       <c r="B358" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="42">
@@ -7702,10 +8107,10 @@
         <v>18444</v>
       </c>
       <c r="B359" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="42">
@@ -7713,10 +8118,10 @@
         <v>18445</v>
       </c>
       <c r="B360" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="42">
@@ -7724,10 +8129,10 @@
         <v>18446</v>
       </c>
       <c r="B361" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="42">
@@ -7735,10 +8140,10 @@
         <v>18447</v>
       </c>
       <c r="B362" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="42">
@@ -7746,10 +8151,10 @@
         <v>18448</v>
       </c>
       <c r="B363" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="42">
@@ -7757,10 +8162,10 @@
         <v>18449</v>
       </c>
       <c r="B364" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="42">
@@ -7768,10 +8173,10 @@
         <v>18450</v>
       </c>
       <c r="B365" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="42">
@@ -7779,10 +8184,10 @@
         <v>18451</v>
       </c>
       <c r="B366" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="42">
@@ -7790,10 +8195,10 @@
         <v>18551</v>
       </c>
       <c r="B367" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="42">
@@ -7801,10 +8206,10 @@
         <v>19172</v>
       </c>
       <c r="B368" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="42">
@@ -7812,10 +8217,10 @@
         <v>19228</v>
       </c>
       <c r="B369" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="42">
@@ -7823,10 +8228,10 @@
         <v>19324</v>
       </c>
       <c r="B370" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="42">
@@ -7834,10 +8239,10 @@
         <v>538</v>
       </c>
       <c r="B371" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="42">
@@ -7845,10 +8250,10 @@
         <v>540</v>
       </c>
       <c r="B372" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="42">
@@ -7856,10 +8261,10 @@
         <v>961</v>
       </c>
       <c r="B373" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="42">
@@ -7867,10 +8272,10 @@
         <v>962</v>
       </c>
       <c r="B374" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="42">
@@ -7878,10 +8283,10 @@
         <v>1025</v>
       </c>
       <c r="B375" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="42">
@@ -7889,10 +8294,10 @@
         <v>1030</v>
       </c>
       <c r="B376" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="42">
@@ -7900,10 +8305,10 @@
         <v>1077</v>
       </c>
       <c r="B377" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="42">
@@ -7911,10 +8316,10 @@
         <v>1099</v>
       </c>
       <c r="B378" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="42">
@@ -7922,10 +8327,10 @@
         <v>1411</v>
       </c>
       <c r="B379" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="42">
@@ -7933,10 +8338,10 @@
         <v>1438</v>
       </c>
       <c r="B380" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="42">
@@ -7944,10 +8349,10 @@
         <v>1518</v>
       </c>
       <c r="B381" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="42">
@@ -7955,10 +8360,10 @@
         <v>1606</v>
       </c>
       <c r="B382" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="42">
@@ -7966,10 +8371,10 @@
         <v>1747</v>
       </c>
       <c r="B383" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="42">
@@ -7977,10 +8382,10 @@
         <v>1751</v>
       </c>
       <c r="B384" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="42">
@@ -7988,10 +8393,10 @@
         <v>1931</v>
       </c>
       <c r="B385" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="42">
@@ -7999,10 +8404,10 @@
         <v>1976</v>
       </c>
       <c r="B386" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="42">
@@ -8010,10 +8415,10 @@
         <v>1983</v>
       </c>
       <c r="B387" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="42">
@@ -8021,10 +8426,10 @@
         <v>1997</v>
       </c>
       <c r="B388" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="42">
@@ -8032,10 +8437,10 @@
         <v>2013</v>
       </c>
       <c r="B389" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="42">
@@ -8043,10 +8448,10 @@
         <v>2035</v>
       </c>
       <c r="B390" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="42">
@@ -8054,10 +8459,10 @@
         <v>2174</v>
       </c>
       <c r="B391" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="42">
@@ -8065,10 +8470,10 @@
         <v>2298</v>
       </c>
       <c r="B392" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="42">
@@ -8076,10 +8481,10 @@
         <v>2931</v>
       </c>
       <c r="B393" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="42">
@@ -8087,10 +8492,10 @@
         <v>2932</v>
       </c>
       <c r="B394" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="42">
@@ -8098,10 +8503,10 @@
         <v>2933</v>
       </c>
       <c r="B395" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="42">
@@ -8109,10 +8514,10 @@
         <v>2934</v>
       </c>
       <c r="B396" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="42">
@@ -8120,10 +8525,10 @@
         <v>2935</v>
       </c>
       <c r="B397" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="42">
@@ -8131,10 +8536,10 @@
         <v>2936</v>
       </c>
       <c r="B398" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="42">
@@ -8142,10 +8547,10 @@
         <v>2937</v>
       </c>
       <c r="B399" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="42">
@@ -8153,10 +8558,10 @@
         <v>2938</v>
       </c>
       <c r="B400" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="42">
@@ -8164,10 +8569,10 @@
         <v>2939</v>
       </c>
       <c r="B401" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="42">
@@ -8175,10 +8580,10 @@
         <v>2940</v>
       </c>
       <c r="B402" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="42">
@@ -8186,10 +8591,10 @@
         <v>2941</v>
       </c>
       <c r="B403" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="42">
@@ -8197,10 +8602,10 @@
         <v>2942</v>
       </c>
       <c r="B404" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="42">
@@ -8208,10 +8613,10 @@
         <v>2943</v>
       </c>
       <c r="B405" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="42">
@@ -8219,10 +8624,10 @@
         <v>2944</v>
       </c>
       <c r="B406" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="42">
@@ -8230,10 +8635,10 @@
         <v>2945</v>
       </c>
       <c r="B407" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="42">
@@ -8241,10 +8646,10 @@
         <v>2946</v>
       </c>
       <c r="B408" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="42">
@@ -8252,10 +8657,10 @@
         <v>2947</v>
       </c>
       <c r="B409" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="42">
@@ -8263,10 +8668,10 @@
         <v>2948</v>
       </c>
       <c r="B410" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="42">
@@ -8274,10 +8679,10 @@
         <v>2949</v>
       </c>
       <c r="B411" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="42">
@@ -8285,10 +8690,10 @@
         <v>2950</v>
       </c>
       <c r="B412" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="42">
@@ -8296,10 +8701,10 @@
         <v>2954</v>
       </c>
       <c r="B413" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="42">
@@ -8307,10 +8712,10 @@
         <v>3031</v>
       </c>
       <c r="B414" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="42">
@@ -8318,10 +8723,10 @@
         <v>3033</v>
       </c>
       <c r="B415" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="42">
@@ -8329,10 +8734,10 @@
         <v>3034</v>
       </c>
       <c r="B416" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="42">
@@ -8340,10 +8745,10 @@
         <v>3045</v>
       </c>
       <c r="B417" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="42">
@@ -8351,10 +8756,10 @@
         <v>3312</v>
       </c>
       <c r="B418" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="42">
@@ -8362,10 +8767,10 @@
         <v>3324</v>
       </c>
       <c r="B419" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="42">
@@ -8373,10 +8778,10 @@
         <v>3484</v>
       </c>
       <c r="B420" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="42">
@@ -8384,10 +8789,10 @@
         <v>3521</v>
       </c>
       <c r="B421" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="42">
@@ -8395,10 +8800,10 @@
         <v>3565</v>
       </c>
       <c r="B422" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="42">
@@ -8406,10 +8811,10 @@
         <v>3582</v>
       </c>
       <c r="B423" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="42">
@@ -8417,10 +8822,10 @@
         <v>3595</v>
       </c>
       <c r="B424" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="42">
@@ -8428,10 +8833,10 @@
         <v>4050</v>
       </c>
       <c r="B425" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="42">
@@ -8439,10 +8844,10 @@
         <v>4074</v>
       </c>
       <c r="B426" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="42">
@@ -8450,10 +8855,10 @@
         <v>4209</v>
       </c>
       <c r="B427" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="42">
@@ -8461,10 +8866,10 @@
         <v>4212</v>
       </c>
       <c r="B428" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="42">
@@ -8472,10 +8877,10 @@
         <v>4322</v>
       </c>
       <c r="B429" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="42">
@@ -8483,10 +8888,10 @@
         <v>4326</v>
       </c>
       <c r="B430" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="42">
@@ -8494,10 +8899,10 @@
         <v>4330</v>
       </c>
       <c r="B431" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="42">
@@ -8505,10 +8910,10 @@
         <v>4342</v>
       </c>
       <c r="B432" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="42">
@@ -8516,10 +8921,10 @@
         <v>4368</v>
       </c>
       <c r="B433" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="42">
@@ -8527,10 +8932,10 @@
         <v>4382</v>
       </c>
       <c r="B434" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="42">
@@ -8538,10 +8943,10 @@
         <v>4536</v>
       </c>
       <c r="B435" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="42">
@@ -8549,10 +8954,10 @@
         <v>4583</v>
       </c>
       <c r="B436" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="42">
@@ -8560,10 +8965,10 @@
         <v>4707</v>
       </c>
       <c r="B437" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="42">
@@ -8571,10 +8976,10 @@
         <v>4735</v>
       </c>
       <c r="B438" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="42">
@@ -8582,10 +8987,10 @@
         <v>5081</v>
       </c>
       <c r="B439" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="42">
@@ -8593,10 +8998,10 @@
         <v>5119</v>
       </c>
       <c r="B440" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="42">
@@ -8604,10 +9009,10 @@
         <v>5211</v>
       </c>
       <c r="B441" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="42">
@@ -8615,10 +9020,10 @@
         <v>5267</v>
       </c>
       <c r="B442" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="42">
@@ -8626,10 +9031,10 @@
         <v>5350</v>
       </c>
       <c r="B443" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="42">
@@ -8637,10 +9042,10 @@
         <v>5380</v>
       </c>
       <c r="B444" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="42">
@@ -8648,10 +9053,10 @@
         <v>5466</v>
       </c>
       <c r="B445" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="42">
@@ -8659,10 +9064,10 @@
         <v>5507</v>
       </c>
       <c r="B446" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="42">
@@ -8670,10 +9075,10 @@
         <v>5565</v>
       </c>
       <c r="B447" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="42">
@@ -8681,10 +9086,10 @@
         <v>5682</v>
       </c>
       <c r="B448" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="42">
@@ -8692,10 +9097,10 @@
         <v>5696</v>
       </c>
       <c r="B449" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="42">
@@ -8703,10 +9108,10 @@
         <v>5698</v>
       </c>
       <c r="B450" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="42">
@@ -8714,10 +9119,10 @@
         <v>5710</v>
       </c>
       <c r="B451" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="42">
@@ -8725,10 +9130,10 @@
         <v>5943</v>
       </c>
       <c r="B452" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="42">
@@ -8736,10 +9141,10 @@
         <v>5962</v>
       </c>
       <c r="B453" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="42">
@@ -8747,10 +9152,10 @@
         <v>5999</v>
       </c>
       <c r="B454" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="42">
@@ -8758,10 +9163,10 @@
         <v>6000</v>
       </c>
       <c r="B455" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="42">
@@ -8769,10 +9174,10 @@
         <v>6001</v>
       </c>
       <c r="B456" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="42">
@@ -8780,10 +9185,10 @@
         <v>6144</v>
       </c>
       <c r="B457" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="42">
@@ -8791,10 +9196,10 @@
         <v>6185</v>
       </c>
       <c r="B458" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="42">
@@ -8802,10 +9207,10 @@
         <v>6192</v>
       </c>
       <c r="B459" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="42">
@@ -8813,10 +9218,10 @@
         <v>6193</v>
       </c>
       <c r="B460" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="42">
@@ -8824,10 +9229,10 @@
         <v>6210</v>
       </c>
       <c r="B461" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="42">
@@ -8835,10 +9240,10 @@
         <v>6236</v>
       </c>
       <c r="B462" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="42">
@@ -8846,10 +9251,10 @@
         <v>6238</v>
       </c>
       <c r="B463" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="42">
@@ -8857,10 +9262,10 @@
         <v>6252</v>
       </c>
       <c r="B464" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="42">
@@ -8868,10 +9273,10 @@
         <v>6362</v>
       </c>
       <c r="B465" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="42">
@@ -8879,10 +9284,10 @@
         <v>6475</v>
       </c>
       <c r="B466" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="42">
@@ -8890,10 +9295,10 @@
         <v>6538</v>
       </c>
       <c r="B467" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="42">
@@ -8901,10 +9306,10 @@
         <v>6550</v>
       </c>
       <c r="B468" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="42">
@@ -8912,10 +9317,10 @@
         <v>6674</v>
       </c>
       <c r="B469" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="42">
@@ -8923,10 +9328,10 @@
         <v>6836</v>
       </c>
       <c r="B470" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="42">
@@ -8934,10 +9339,10 @@
         <v>6893</v>
       </c>
       <c r="B471" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="42">
@@ -8945,10 +9350,10 @@
         <v>6894</v>
       </c>
       <c r="B472" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="42">
@@ -8956,10 +9361,10 @@
         <v>6990</v>
       </c>
       <c r="B473" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="42">
@@ -8967,10 +9372,10 @@
         <v>7334</v>
       </c>
       <c r="B474" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="42">
@@ -8978,10 +9383,10 @@
         <v>7347</v>
       </c>
       <c r="B475" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="42">
@@ -8989,10 +9394,10 @@
         <v>7646</v>
       </c>
       <c r="B476" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="42">
@@ -9000,10 +9405,10 @@
         <v>7753</v>
       </c>
       <c r="B477" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="42">
@@ -9011,10 +9416,10 @@
         <v>7913</v>
       </c>
       <c r="B478" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="42">
@@ -9022,10 +9427,10 @@
         <v>7943</v>
       </c>
       <c r="B479" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="42">
@@ -9033,10 +9438,10 @@
         <v>7960</v>
       </c>
       <c r="B480" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="42">
@@ -9044,10 +9449,10 @@
         <v>8574</v>
       </c>
       <c r="B481" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="42">
@@ -9055,10 +9460,10 @@
         <v>8580</v>
       </c>
       <c r="B482" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="42">
@@ -9066,10 +9471,10 @@
         <v>8604</v>
       </c>
       <c r="B483" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="42">
@@ -9077,10 +9482,10 @@
         <v>8608</v>
       </c>
       <c r="B484" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="42">
@@ -9088,10 +9493,10 @@
         <v>8610</v>
       </c>
       <c r="B485" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="42">
@@ -9099,10 +9504,10 @@
         <v>8845</v>
       </c>
       <c r="B486" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="42">
@@ -9110,10 +9515,10 @@
         <v>9038</v>
       </c>
       <c r="B487" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="42">
@@ -9121,10 +9526,10 @@
         <v>9152</v>
       </c>
       <c r="B488" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="42">
@@ -9132,10 +9537,10 @@
         <v>9580</v>
       </c>
       <c r="B489" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="42">
@@ -9143,10 +9548,10 @@
         <v>9729</v>
       </c>
       <c r="B490" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="42">
@@ -9154,10 +9559,10 @@
         <v>9812</v>
       </c>
       <c r="B491" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="42">
@@ -9165,10 +9570,10 @@
         <v>9813</v>
       </c>
       <c r="B492" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="42">
@@ -9176,10 +9581,10 @@
         <v>9824</v>
       </c>
       <c r="B493" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="42">
@@ -9187,10 +9592,10 @@
         <v>41</v>
       </c>
       <c r="B494" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="42">
@@ -9198,10 +9603,10 @@
         <v>769</v>
       </c>
       <c r="B495" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="42">
@@ -9209,10 +9614,10 @@
         <v>891</v>
       </c>
       <c r="B496" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="42">
@@ -9220,10 +9625,10 @@
         <v>1137</v>
       </c>
       <c r="B497" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="42">
@@ -9231,10 +9636,10 @@
         <v>1257</v>
       </c>
       <c r="B498" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="42">
@@ -9242,10 +9647,10 @@
         <v>1347</v>
       </c>
       <c r="B499" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="42">
@@ -9253,10 +9658,10 @@
         <v>1595</v>
       </c>
       <c r="B500" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="42">
@@ -9264,10 +9669,10 @@
         <v>1633</v>
       </c>
       <c r="B501" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="42">
@@ -9275,10 +9680,10 @@
         <v>1648</v>
       </c>
       <c r="B502" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="42">
@@ -9286,10 +9691,10 @@
         <v>1650</v>
       </c>
       <c r="B503" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="42">
@@ -9297,10 +9702,10 @@
         <v>1808</v>
       </c>
       <c r="B504" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="42">
@@ -9308,10 +9713,10 @@
         <v>1829</v>
       </c>
       <c r="B505" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="42">
@@ -9319,10 +9724,10 @@
         <v>1914</v>
       </c>
       <c r="B506" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="42">
@@ -9330,10 +9735,10 @@
         <v>1958</v>
       </c>
       <c r="B507" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="42">
@@ -9341,10 +9746,10 @@
         <v>1967</v>
       </c>
       <c r="B508" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="42">
@@ -9352,10 +9757,10 @@
         <v>1976</v>
       </c>
       <c r="B509" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="42">
@@ -9363,10 +9768,10 @@
         <v>2048</v>
       </c>
       <c r="B510" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="42">
@@ -9374,10 +9779,10 @@
         <v>2135</v>
       </c>
       <c r="B511" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="42">
@@ -9385,10 +9790,10 @@
         <v>2153</v>
       </c>
       <c r="B512" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="42">
@@ -9396,10 +9801,10 @@
         <v>2192</v>
       </c>
       <c r="B513" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="42">
@@ -9407,10 +9812,10 @@
         <v>2217</v>
       </c>
       <c r="B514" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="42">
@@ -9418,10 +9823,10 @@
         <v>2242</v>
       </c>
       <c r="B515" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="42">
@@ -9429,10 +9834,10 @@
         <v>2243</v>
       </c>
       <c r="B516" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="42">
@@ -9440,10 +9845,10 @@
         <v>2317</v>
       </c>
       <c r="B517" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="42">
@@ -9451,10 +9856,10 @@
         <v>2318</v>
       </c>
       <c r="B518" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="42">
@@ -9462,10 +9867,10 @@
         <v>2321</v>
       </c>
       <c r="B519" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="42">
@@ -9473,10 +9878,10 @@
         <v>2323</v>
       </c>
       <c r="B520" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="42">
@@ -9484,10 +9889,10 @@
         <v>2404</v>
       </c>
       <c r="B521" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="42">
@@ -9495,10 +9900,10 @@
         <v>2461</v>
       </c>
       <c r="B522" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="42">
@@ -9506,10 +9911,10 @@
         <v>2550</v>
       </c>
       <c r="B523" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="42">
@@ -9517,10 +9922,10 @@
         <v>2552</v>
       </c>
       <c r="B524" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="42">
@@ -9528,10 +9933,10 @@
         <v>2684</v>
       </c>
       <c r="B525" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="42">
@@ -9539,10 +9944,10 @@
         <v>2685</v>
       </c>
       <c r="B526" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="42">
@@ -9550,10 +9955,10 @@
         <v>2688</v>
       </c>
       <c r="B527" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="42">
@@ -9561,10 +9966,10 @@
         <v>2689</v>
       </c>
       <c r="B528" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="42">
@@ -9572,10 +9977,10 @@
         <v>2690</v>
       </c>
       <c r="B529" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="42">
@@ -9583,10 +9988,10 @@
         <v>2694</v>
       </c>
       <c r="B530" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="42">
@@ -9594,10 +9999,10 @@
         <v>2713</v>
       </c>
       <c r="B531" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="42">
@@ -9605,10 +10010,10 @@
         <v>2714</v>
       </c>
       <c r="B532" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="42">
@@ -9616,10 +10021,10 @@
         <v>2715</v>
       </c>
       <c r="B533" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="42">
@@ -9627,10 +10032,10 @@
         <v>2716</v>
       </c>
       <c r="B534" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="42">
@@ -9638,10 +10043,10 @@
         <v>2717</v>
       </c>
       <c r="B535" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="42">
@@ -9649,10 +10054,10 @@
         <v>2718</v>
       </c>
       <c r="B536" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="42">
@@ -9660,10 +10065,10 @@
         <v>2719</v>
       </c>
       <c r="B537" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="42">
@@ -9671,10 +10076,10 @@
         <v>2720</v>
       </c>
       <c r="B538" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="42">
@@ -9682,10 +10087,10 @@
         <v>2727</v>
       </c>
       <c r="B539" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="42">
@@ -9693,10 +10098,10 @@
         <v>2766</v>
       </c>
       <c r="B540" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="42">
@@ -9704,10 +10109,10 @@
         <v>2853</v>
       </c>
       <c r="B541" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="42">
@@ -9715,10 +10120,10 @@
         <v>2863</v>
       </c>
       <c r="B542" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="42">
@@ -9726,10 +10131,10 @@
         <v>2898</v>
       </c>
       <c r="B543" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="42">
@@ -9737,10 +10142,10 @@
         <v>2911</v>
       </c>
       <c r="B544" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="42">
@@ -9748,10 +10153,10 @@
         <v>2916</v>
       </c>
       <c r="B545" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="42">
@@ -9759,10 +10164,10 @@
         <v>3029</v>
       </c>
       <c r="B546" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="42">
@@ -9770,10 +10175,10 @@
         <v>3030</v>
       </c>
       <c r="B547" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="42">
@@ -9781,10 +10186,10 @@
         <v>3304</v>
       </c>
       <c r="B548" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="42">
@@ -9792,10 +10197,10 @@
         <v>3310</v>
       </c>
       <c r="B549" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="42">
@@ -9803,10 +10208,10 @@
         <v>3322</v>
       </c>
       <c r="B550" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="42">
@@ -9814,10 +10219,10 @@
         <v>3333</v>
       </c>
       <c r="B551" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="42">
@@ -9825,10 +10230,10 @@
         <v>2413</v>
       </c>
       <c r="B552" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="42">
@@ -9836,10 +10241,10 @@
         <v>2815</v>
       </c>
       <c r="B553" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="42">
@@ -9847,10 +10252,10 @@
         <v>2834</v>
       </c>
       <c r="B554" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="42">
@@ -9858,10 +10263,10 @@
         <v>2839</v>
       </c>
       <c r="B555" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="42">
@@ -9869,10 +10274,10 @@
         <v>2990</v>
       </c>
       <c r="B556" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="42">
@@ -9880,10 +10285,10 @@
         <v>3079</v>
       </c>
       <c r="B557" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="42">
@@ -9891,10 +10296,10 @@
         <v>3092</v>
       </c>
       <c r="B558" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="42">
@@ -9902,10 +10307,10 @@
         <v>3433</v>
       </c>
       <c r="B559" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="42">
@@ -9913,10 +10318,10 @@
         <v>3467</v>
       </c>
       <c r="B560" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="42">
@@ -9924,10 +10329,10 @@
         <v>3474</v>
       </c>
       <c r="B561" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F561" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="42">
@@ -9935,10 +10340,10 @@
         <v>3502</v>
       </c>
       <c r="B562" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="42">
@@ -9946,10 +10351,10 @@
         <v>3511</v>
       </c>
       <c r="B563" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="42">
@@ -9957,10 +10362,10 @@
         <v>3550</v>
       </c>
       <c r="B564" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="42">
@@ -9968,10 +10373,10 @@
         <v>3556</v>
       </c>
       <c r="B565" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="42">
@@ -9979,10 +10384,10 @@
         <v>3656</v>
       </c>
       <c r="B566" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="42">
@@ -9990,10 +10395,10 @@
         <v>1689</v>
       </c>
       <c r="B567" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="42">
@@ -10001,10 +10406,10 @@
         <v>1845</v>
       </c>
       <c r="B568" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="42">
@@ -10012,10 +10417,10 @@
         <v>1846</v>
       </c>
       <c r="B569" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F569" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="42">
@@ -10023,10 +10428,10 @@
         <v>1855</v>
       </c>
       <c r="B570" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="42">
@@ -10034,10 +10439,10 @@
         <v>1863</v>
       </c>
       <c r="B571" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="42">
@@ -10045,10 +10450,10 @@
         <v>1868</v>
       </c>
       <c r="B572" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="42">
@@ -10056,10 +10461,10 @@
         <v>1876</v>
       </c>
       <c r="B573" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="42">
@@ -10067,10 +10472,10 @@
         <v>1937</v>
       </c>
       <c r="B574" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="42">
@@ -10078,10 +10483,10 @@
         <v>1989</v>
       </c>
       <c r="B575" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="42">
@@ -10089,10 +10494,10 @@
         <v>1991</v>
       </c>
       <c r="B576" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="42">
@@ -10100,10 +10505,10 @@
         <v>2019</v>
       </c>
       <c r="B577" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="42">
@@ -10111,10 +10516,10 @@
         <v>2022</v>
       </c>
       <c r="B578" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="42">
@@ -10122,10 +10527,10 @@
         <v>2049</v>
       </c>
       <c r="B579" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="42">
@@ -10133,10 +10538,10 @@
         <v>2072</v>
       </c>
       <c r="B580" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="42">
@@ -10144,10 +10549,10 @@
         <v>2168</v>
       </c>
       <c r="B581" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="42">
@@ -10155,10 +10560,10 @@
         <v>2178</v>
       </c>
       <c r="B582" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="42">
@@ -10166,10 +10571,10 @@
         <v>2188</v>
       </c>
       <c r="B583" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="42">
@@ -10177,10 +10582,10 @@
         <v>2205</v>
       </c>
       <c r="B584" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="42">
@@ -10188,10 +10593,10 @@
         <v>2232</v>
       </c>
       <c r="B585" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="42">
@@ -10199,10 +10604,10 @@
         <v>2245</v>
       </c>
       <c r="B586" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="42">
@@ -10210,10 +10615,10 @@
         <v>2255</v>
       </c>
       <c r="B587" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="42">
@@ -10221,10 +10626,10 @@
         <v>2391</v>
       </c>
       <c r="B588" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="42">
@@ -10232,10 +10637,10 @@
         <v>2985</v>
       </c>
       <c r="B589" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="42">
@@ -10243,10 +10648,10 @@
         <v>3459</v>
       </c>
       <c r="B590" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="42">
@@ -10254,10 +10659,10 @@
         <v>1057</v>
       </c>
       <c r="B591" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F591" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="42">
@@ -10265,10 +10670,10 @@
         <v>1102</v>
       </c>
       <c r="B592" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="42">
@@ -10276,10 +10681,10 @@
         <v>2193</v>
       </c>
       <c r="B593" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="42">
@@ -10287,10 +10692,10 @@
         <v>2962</v>
       </c>
       <c r="B594" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="42">
@@ -10298,10 +10703,10 @@
         <v>3344</v>
       </c>
       <c r="B595" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="42">
@@ -10309,10 +10714,10 @@
         <v>3478</v>
       </c>
       <c r="B596" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="42">
@@ -10320,10 +10725,10 @@
         <v>3550</v>
       </c>
       <c r="B597" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="42">
@@ -10331,10 +10736,10 @@
         <v>3565</v>
       </c>
       <c r="B598" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="42">
@@ -10342,10 +10747,10 @@
         <v>3572</v>
       </c>
       <c r="B599" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="600" spans="1:6" ht="42">
@@ -10353,10 +10758,10 @@
         <v>3686</v>
       </c>
       <c r="B600" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="42">
@@ -10364,10 +10769,10 @@
         <v>3750</v>
       </c>
       <c r="B601" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="42">
@@ -10375,10 +10780,10 @@
         <v>3802</v>
       </c>
       <c r="B602" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="42">
@@ -10386,10 +10791,10 @@
         <v>4003</v>
       </c>
       <c r="B603" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="42">
@@ -10397,10 +10802,10 @@
         <v>4004</v>
       </c>
       <c r="B604" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="42">
@@ -10408,10 +10813,10 @@
         <v>4012</v>
       </c>
       <c r="B605" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="606" spans="1:6" ht="42">
@@ -10419,10 +10824,10 @@
         <v>4285</v>
       </c>
       <c r="B606" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F606" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="607" spans="1:6" ht="42">
@@ -10430,10 +10835,10 @@
         <v>4286</v>
       </c>
       <c r="B607" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F607" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="608" spans="1:6" ht="42">
@@ -10441,10 +10846,10 @@
         <v>4292</v>
       </c>
       <c r="B608" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="42">
@@ -10452,10 +10857,10 @@
         <v>4338</v>
       </c>
       <c r="B609" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="610" spans="1:6" ht="42">
@@ -10463,10 +10868,10 @@
         <v>2690</v>
       </c>
       <c r="B610" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="611" spans="1:6" ht="42">
@@ -10474,10 +10879,10 @@
         <v>2892</v>
       </c>
       <c r="B611" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="42">
@@ -10485,10 +10890,10 @@
         <v>2987</v>
       </c>
       <c r="B612" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="42">
@@ -10496,10 +10901,10 @@
         <v>2991</v>
       </c>
       <c r="B613" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="614" spans="1:6" ht="42">
@@ -10507,10 +10912,10 @@
         <v>3016</v>
       </c>
       <c r="B614" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="615" spans="1:6" ht="42">
@@ -10518,10 +10923,10 @@
         <v>3114</v>
       </c>
       <c r="B615" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="616" spans="1:6" ht="42">
@@ -10529,10 +10934,10 @@
         <v>3121</v>
       </c>
       <c r="B616" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="42">
@@ -10540,10 +10945,10 @@
         <v>3132</v>
       </c>
       <c r="B617" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="42">
@@ -10551,10 +10956,10 @@
         <v>3140</v>
       </c>
       <c r="B618" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="42">
@@ -10562,10 +10967,10 @@
         <v>3567</v>
       </c>
       <c r="B619" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F619" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="620" spans="1:6" ht="42">
@@ -10573,10 +10978,10 @@
         <v>4635</v>
       </c>
       <c r="B620" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="42">
@@ -10584,10 +10989,10 @@
         <v>4731</v>
       </c>
       <c r="B621" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F621" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="42">
@@ -10595,10 +11000,10 @@
         <v>4737</v>
       </c>
       <c r="B622" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="42">
@@ -10606,10 +11011,10 @@
         <v>5705</v>
       </c>
       <c r="B623" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F1C43DAF-CF49-D843-B5EB-D784BA03F35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{817838F8-F1B6-D445-9F1F-A66A10F4D500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1353" uniqueCount="723">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1393" uniqueCount="750">
   <si>
     <t>Issue</t>
   </si>
@@ -349,9 +349,6 @@
   </si>
   <si>
     <t>https://github.com/envoyproxy/envoy/issues/4622</t>
-  </si>
-  <si>
-    <t>https://github.com/envoyproxy/envoy/issues/4623</t>
   </si>
   <si>
     <t>https://github.com/envoyproxy/envoy/issues/4635</t>
@@ -2867,6 +2864,219 @@
   <si>
     <t>[Content]STRICT_DNSとEDSの動作
 [Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v1.8.0 APIの廃止
+[Class]APIの廃止</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ハイシ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ハイシ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/envoyproxy/envoy/issues/4623</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのリファクタリング
+[Class]テストの改善</t>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]clusterInfo()を使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EnvoyからRapidJSONを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]braces for all control statementsのチェック，修正
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fmtlib/fmtとgabime/spdlogの依存関係をアップグレード
+[Class]依存関係のアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]buffer filter timeoutを非推奨とする
+[Class]機能を非推奨にする</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]header_formatter_test.ccを移行
+[Class]テストの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ext_authを移行
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]http-parserからllhttpに切り替える
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関数の無駄な操作の削除
+[Class]関数の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ムダナ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ソウサノ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]bind_to_port とuse_original_dstの廃止を取りやめ
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Thread safety assertionの問題
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ConditionalInitializerをabsl::Notificationに置き換え
+[Class]クラスの変更</t>
+    <rPh sb="67" eb="69">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラー メッセージをstd::cerrに出力する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gRPC 1.17.2へのアップグレードにはALTS コードの変更が必要
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Java proto オプションのフォーマット修正
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ファイルの分解
+[Class]ファイルの整理</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ブンカイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ドキュメント，テストをtyped_config (Any)に変換
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]load_balancer_implの型の問題
+[Class]機能の改善</t>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">カタノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gabime/spdlogの依存関係を1.3.0 にアップグレード
+[Class]依存関係のアップグレード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]absl::Timeの使用
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨のgoogletest namesを移行
+[Class]他のツールへの対応</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">タノツールヘノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの設定を変更
+[Class]テストの改善</t>
+    <rPh sb="26" eb="28">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの移動
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不十分なドキュメント
+[Class]ドキュメントの追加</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">フジュウブンナ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3834,8 +4044,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3854,13 +4064,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1" t="s">
         <v>623</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42">
@@ -3871,10 +4081,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -3885,10 +4095,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -3899,10 +4109,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -3913,10 +4123,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -3927,10 +4137,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -3941,10 +4151,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
@@ -3955,10 +4165,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -3969,10 +4179,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -3983,10 +4193,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -3997,10 +4207,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -4011,13 +4221,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -4028,10 +4238,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>641</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -4042,10 +4252,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -4056,10 +4266,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -4070,10 +4280,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -4084,10 +4294,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -4098,10 +4308,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -4112,10 +4322,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -4126,10 +4336,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -4140,10 +4350,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -4154,10 +4364,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -4168,10 +4378,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -4182,10 +4392,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -4196,10 +4406,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -4210,10 +4420,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -4224,10 +4434,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -4238,10 +4448,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -4252,13 +4462,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -4269,10 +4479,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -4283,10 +4493,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -4297,10 +4507,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -4311,10 +4521,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -4325,10 +4535,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -4339,10 +4549,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -4353,10 +4563,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -4367,10 +4577,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -4381,10 +4591,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -4395,10 +4605,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -4409,10 +4619,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -4423,10 +4633,10 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -4437,10 +4647,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -4451,10 +4661,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -4465,10 +4675,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -4479,10 +4689,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -4493,10 +4703,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -4507,10 +4717,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -4521,10 +4731,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -4535,10 +4745,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -4549,10 +4759,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -4563,10 +4773,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -4577,16 +4787,16 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
+        <v>681</v>
+      </c>
+      <c r="D52" t="s">
+        <v>626</v>
+      </c>
+      <c r="E52" t="s">
+        <v>683</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="D52" t="s">
-        <v>627</v>
-      </c>
-      <c r="E52" t="s">
-        <v>684</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -4597,10 +4807,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -4611,10 +4821,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -4625,10 +4835,10 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -4639,10 +4849,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -4653,10 +4863,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -4667,10 +4877,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -4681,10 +4891,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -4695,10 +4905,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -4709,10 +4919,10 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -4723,10 +4933,10 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -4737,10 +4947,10 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -4751,10 +4961,10 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -4762,13 +4972,13 @@
         <v>2904</v>
       </c>
       <c r="B65" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C65" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -4779,10 +4989,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -4793,10 +5003,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -4807,10 +5017,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -4821,10 +5031,10 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -4835,10 +5045,10 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -4849,10 +5059,10 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -4863,10 +5073,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -4877,10 +5087,10 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -4891,10 +5101,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -4905,10 +5115,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -4919,10 +5129,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -4933,10 +5143,10 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -4947,10 +5157,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -4961,10 +5171,10 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -4975,10 +5185,10 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -4989,10 +5199,10 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -5003,10 +5213,10 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -5017,10 +5227,10 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -5031,10 +5241,10 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -5045,10 +5255,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -5059,10 +5269,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -5073,10 +5283,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -5087,10 +5297,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -5101,10 +5311,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -5115,10 +5325,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -5129,10 +5339,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -5143,10 +5353,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -5157,10 +5367,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -5171,10 +5381,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -5185,10 +5395,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -5199,10 +5409,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -5213,10 +5423,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -5227,10 +5437,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -5241,10 +5451,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -5255,10 +5465,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
@@ -5269,10 +5479,10 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -5282,8 +5492,11 @@
       <c r="B102" t="s">
         <v>101</v>
       </c>
+      <c r="C102" t="s">
+        <v>626</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -5293,8 +5506,11 @@
       <c r="B103" t="s">
         <v>102</v>
       </c>
+      <c r="C103" t="s">
+        <v>626</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>626</v>
+        <v>722</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -5304,8 +5520,11 @@
       <c r="B104" t="s">
         <v>103</v>
       </c>
+      <c r="C104" t="s">
+        <v>626</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -5315,8 +5534,11 @@
       <c r="B105" t="s">
         <v>104</v>
       </c>
+      <c r="C105" t="s">
+        <v>626</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -5326,8 +5548,11 @@
       <c r="B106" t="s">
         <v>105</v>
       </c>
+      <c r="C106" t="s">
+        <v>626</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -5337,8 +5562,11 @@
       <c r="B107" t="s">
         <v>106</v>
       </c>
+      <c r="C107" t="s">
+        <v>626</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -5348,8 +5576,11 @@
       <c r="B108" t="s">
         <v>107</v>
       </c>
+      <c r="C108" t="s">
+        <v>626</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -5357,10 +5588,13 @@
         <v>4623</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>723</v>
+      </c>
+      <c r="C109" t="s">
+        <v>626</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -5368,10 +5602,13 @@
         <v>4635</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>629</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>626</v>
+        <v>724</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -5379,10 +5616,13 @@
         <v>4643</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>626</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>626</v>
+        <v>725</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -5390,10 +5630,13 @@
         <v>4705</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>626</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>626</v>
+        <v>726</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -5401,10 +5644,13 @@
         <v>4706</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>626</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>626</v>
+        <v>727</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -5412,10 +5658,13 @@
         <v>4744</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>626</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>626</v>
+        <v>728</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -5423,10 +5672,13 @@
         <v>4830</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>626</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>626</v>
+        <v>729</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -5434,10 +5686,13 @@
         <v>5077</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="C116" t="s">
+        <v>629</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>626</v>
+        <v>730</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -5445,10 +5700,13 @@
         <v>5138</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>626</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>626</v>
+        <v>731</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -5456,10 +5714,13 @@
         <v>5155</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
+        <v>626</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>626</v>
+        <v>732</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -5467,10 +5728,13 @@
         <v>5277</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C119" t="s">
+        <v>626</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>626</v>
+        <v>733</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -5478,10 +5742,13 @@
         <v>5355</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
+        <v>626</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>626</v>
+        <v>734</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -5489,10 +5756,13 @@
         <v>5376</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
+        <v>626</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">
@@ -5500,10 +5770,13 @@
         <v>5377</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
+        <v>626</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -5511,10 +5784,13 @@
         <v>5378</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>626</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -5522,10 +5798,13 @@
         <v>5379</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>626</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -5533,10 +5812,13 @@
         <v>5380</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>626</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -5544,10 +5826,13 @@
         <v>5381</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>626</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -5555,10 +5840,13 @@
         <v>5382</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="C127" t="s">
+        <v>626</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>626</v>
+        <v>692</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -5566,10 +5854,13 @@
         <v>5390</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>626</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>626</v>
+        <v>735</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -5577,10 +5868,13 @@
         <v>5391</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>626</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>626</v>
+        <v>736</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -5588,10 +5882,13 @@
         <v>5453</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
+        <v>626</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>626</v>
+        <v>737</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -5599,10 +5896,13 @@
         <v>5461</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C131" t="s">
+        <v>626</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>626</v>
+        <v>738</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -5610,10 +5910,13 @@
         <v>5477</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="C132" t="s">
+        <v>626</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>626</v>
+        <v>739</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -5621,10 +5924,13 @@
         <v>5505</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="C133" t="s">
+        <v>626</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>626</v>
+        <v>740</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -5632,10 +5938,13 @@
         <v>5558</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="C134" t="s">
+        <v>626</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>626</v>
+        <v>741</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -5643,10 +5952,13 @@
         <v>5570</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="C135" t="s">
+        <v>626</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>626</v>
+        <v>742</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -5654,10 +5966,13 @@
         <v>5585</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>626</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>626</v>
+        <v>743</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -5665,10 +5980,13 @@
         <v>5587</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="C137" t="s">
+        <v>626</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>626</v>
+        <v>744</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -5676,10 +5994,13 @@
         <v>5607</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="C138" t="s">
+        <v>681</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>626</v>
+        <v>745</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -5687,10 +6008,13 @@
         <v>5624</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="C139" t="s">
+        <v>629</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>626</v>
+        <v>746</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -5698,10 +6022,13 @@
         <v>5638</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="C140" t="s">
+        <v>629</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>626</v>
+        <v>747</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -5709,10 +6036,13 @@
         <v>5686</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="C141" t="s">
+        <v>748</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>626</v>
+        <v>749</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -5720,10 +6050,10 @@
         <v>5730</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -5731,10 +6061,10 @@
         <v>5734</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -5742,10 +6072,10 @@
         <v>5762</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -5753,10 +6083,10 @@
         <v>5792</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -5764,10 +6094,10 @@
         <v>5817</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -5775,10 +6105,10 @@
         <v>5820</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -5786,10 +6116,10 @@
         <v>5834</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -5797,10 +6127,10 @@
         <v>5842</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -5808,10 +6138,10 @@
         <v>5856</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -5819,10 +6149,10 @@
         <v>6003</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -5830,10 +6160,10 @@
         <v>6098</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -5841,10 +6171,10 @@
         <v>6288</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -5852,10 +6182,10 @@
         <v>6307</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -5863,10 +6193,10 @@
         <v>6319</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -5874,10 +6204,10 @@
         <v>6362</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -5885,10 +6215,10 @@
         <v>6405</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -5896,10 +6226,10 @@
         <v>6465</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -5907,10 +6237,10 @@
         <v>6494</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -5918,10 +6248,10 @@
         <v>6581</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -5929,10 +6259,10 @@
         <v>6588</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -5940,10 +6270,10 @@
         <v>6616</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -5951,10 +6281,10 @@
         <v>6622</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -5962,10 +6292,10 @@
         <v>6634</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -5973,10 +6303,10 @@
         <v>6736</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -5984,10 +6314,10 @@
         <v>6774</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -5995,10 +6325,10 @@
         <v>6896</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -6006,10 +6336,10 @@
         <v>6953</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -6017,10 +6347,10 @@
         <v>7020</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -6028,10 +6358,10 @@
         <v>7035</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -6039,10 +6369,10 @@
         <v>7080</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -6050,10 +6380,10 @@
         <v>7109</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -6061,10 +6391,10 @@
         <v>7116</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -6072,10 +6402,10 @@
         <v>7120</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -6083,10 +6413,10 @@
         <v>7158</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -6094,10 +6424,10 @@
         <v>7215</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -6105,10 +6435,10 @@
         <v>7216</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -6116,10 +6446,10 @@
         <v>7241</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -6127,10 +6457,10 @@
         <v>7314</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -6138,10 +6468,10 @@
         <v>7336</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -6149,10 +6479,10 @@
         <v>7342</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -6160,10 +6490,10 @@
         <v>7547</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -6171,10 +6501,10 @@
         <v>7548</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -6182,10 +6512,10 @@
         <v>7793</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -6193,10 +6523,10 @@
         <v>8013</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -6204,10 +6534,10 @@
         <v>8050</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -6215,10 +6545,10 @@
         <v>8056</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -6226,10 +6556,10 @@
         <v>8092</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -6237,10 +6567,10 @@
         <v>8184</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -6248,10 +6578,10 @@
         <v>8225</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -6259,10 +6589,10 @@
         <v>8253</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -6270,10 +6600,10 @@
         <v>8284</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -6281,10 +6611,10 @@
         <v>8419</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -6292,10 +6622,10 @@
         <v>8481</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -6303,10 +6633,10 @@
         <v>8561</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -6314,10 +6644,10 @@
         <v>8567</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -6325,10 +6655,10 @@
         <v>8575</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -6336,10 +6666,10 @@
         <v>8594</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -6347,10 +6677,10 @@
         <v>8618</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -6358,10 +6688,10 @@
         <v>8717</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
@@ -6369,10 +6699,10 @@
         <v>8720</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -6380,10 +6710,10 @@
         <v>8756</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -6391,10 +6721,10 @@
         <v>8770</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -6402,10 +6732,10 @@
         <v>8841</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -6413,10 +6743,10 @@
         <v>8842</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="42">
@@ -6424,10 +6754,10 @@
         <v>8843</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -6435,10 +6765,10 @@
         <v>8844</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -6446,10 +6776,10 @@
         <v>8845</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="42">
@@ -6457,10 +6787,10 @@
         <v>8875</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -6468,10 +6798,10 @@
         <v>8876</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -6479,10 +6809,10 @@
         <v>8892</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -6490,10 +6820,10 @@
         <v>8901</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -6501,10 +6831,10 @@
         <v>8992</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="42">
@@ -6512,10 +6842,10 @@
         <v>8993</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -6523,10 +6853,10 @@
         <v>9025</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="42">
@@ -6534,10 +6864,10 @@
         <v>9161</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -6545,10 +6875,10 @@
         <v>9328</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42">
@@ -6556,10 +6886,10 @@
         <v>9539</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -6567,10 +6897,10 @@
         <v>9540</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -6578,10 +6908,10 @@
         <v>9541</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
@@ -6589,10 +6919,10 @@
         <v>9568</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="42">
@@ -6600,10 +6930,10 @@
         <v>9623</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="42">
@@ -6611,10 +6941,10 @@
         <v>9709</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="42">
@@ -6622,10 +6952,10 @@
         <v>9712</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="42">
@@ -6633,10 +6963,10 @@
         <v>9749</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="42">
@@ -6644,10 +6974,10 @@
         <v>9881</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42">
@@ -6655,10 +6985,10 @@
         <v>10088</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="42">
@@ -6666,10 +6996,10 @@
         <v>10111</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="42">
@@ -6677,10 +7007,10 @@
         <v>10318</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="42">
@@ -6688,10 +7018,10 @@
         <v>10332</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="42">
@@ -6699,10 +7029,10 @@
         <v>10340</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42">
@@ -6710,10 +7040,10 @@
         <v>10343</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="42">
@@ -6721,10 +7051,10 @@
         <v>10366</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="42">
@@ -6732,10 +7062,10 @@
         <v>10516</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="42">
@@ -6743,10 +7073,10 @@
         <v>10535</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="42">
@@ -6754,10 +7084,10 @@
         <v>10576</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="42">
@@ -6765,10 +7095,10 @@
         <v>10701</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="42">
@@ -6776,10 +7106,10 @@
         <v>10809</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="42">
@@ -6787,10 +7117,10 @@
         <v>10843</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="42">
@@ -6798,10 +7128,10 @@
         <v>10857</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="42">
@@ -6809,10 +7139,10 @@
         <v>10868</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="42">
@@ -6820,10 +7150,10 @@
         <v>10917</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="42">
@@ -6831,10 +7161,10 @@
         <v>11202</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="42">
@@ -6842,10 +7172,10 @@
         <v>11528</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="42">
@@ -6853,10 +7183,10 @@
         <v>11535</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="42">
@@ -6864,10 +7194,10 @@
         <v>11553</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="42">
@@ -6875,10 +7205,10 @@
         <v>11655</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="42">
@@ -6886,10 +7216,10 @@
         <v>11665</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="42">
@@ -6897,10 +7227,10 @@
         <v>11691</v>
       </c>
       <c r="B249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="42">
@@ -6908,10 +7238,10 @@
         <v>11825</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="42">
@@ -6919,10 +7249,10 @@
         <v>11932</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="42">
@@ -6930,10 +7260,10 @@
         <v>11933</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="42">
@@ -6941,10 +7271,10 @@
         <v>11934</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="42">
@@ -6952,10 +7282,10 @@
         <v>11935</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="42">
@@ -6963,10 +7293,10 @@
         <v>11979</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="42">
@@ -6974,10 +7304,10 @@
         <v>11981</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="42">
@@ -6985,10 +7315,10 @@
         <v>11989</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="42">
@@ -6996,10 +7326,10 @@
         <v>11990</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="42">
@@ -7007,10 +7337,10 @@
         <v>11992</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="42">
@@ -7018,10 +7348,10 @@
         <v>11994</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="42">
@@ -7029,10 +7359,10 @@
         <v>11995</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="42">
@@ -7040,10 +7370,10 @@
         <v>11996</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="42">
@@ -7051,10 +7381,10 @@
         <v>11998</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="42">
@@ -7062,10 +7392,10 @@
         <v>11999</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="42">
@@ -7073,10 +7403,10 @@
         <v>12003</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="42">
@@ -7084,10 +7414,10 @@
         <v>12004</v>
       </c>
       <c r="B266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="42">
@@ -7095,10 +7425,10 @@
         <v>12005</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="42">
@@ -7106,10 +7436,10 @@
         <v>12006</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="42">
@@ -7117,10 +7447,10 @@
         <v>12007</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="42">
@@ -7128,10 +7458,10 @@
         <v>12008</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="42">
@@ -7139,10 +7469,10 @@
         <v>12084</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="42">
@@ -7150,10 +7480,10 @@
         <v>12297</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="42">
@@ -7161,10 +7491,10 @@
         <v>12314</v>
       </c>
       <c r="B273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="42">
@@ -7172,10 +7502,10 @@
         <v>12341</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="42">
@@ -7183,10 +7513,10 @@
         <v>12354</v>
       </c>
       <c r="B275" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="42">
@@ -7194,10 +7524,10 @@
         <v>12469</v>
       </c>
       <c r="B276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="42">
@@ -7205,10 +7535,10 @@
         <v>12750</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="42">
@@ -7216,10 +7546,10 @@
         <v>12752</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="42">
@@ -7227,10 +7557,10 @@
         <v>12840</v>
       </c>
       <c r="B279" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="42">
@@ -7238,10 +7568,10 @@
         <v>13032</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="42">
@@ -7249,10 +7579,10 @@
         <v>13033</v>
       </c>
       <c r="B281" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="42">
@@ -7260,10 +7590,10 @@
         <v>13034</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="42">
@@ -7271,10 +7601,10 @@
         <v>13321</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="42">
@@ -7282,10 +7612,10 @@
         <v>13445</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="42">
@@ -7293,10 +7623,10 @@
         <v>13446</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="42">
@@ -7304,10 +7634,10 @@
         <v>13537</v>
       </c>
       <c r="B286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="42">
@@ -7315,10 +7645,10 @@
         <v>13952</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="42">
@@ -7326,10 +7656,10 @@
         <v>14133</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="42">
@@ -7337,10 +7667,10 @@
         <v>14307</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="42">
@@ -7348,10 +7678,10 @@
         <v>14454</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="42">
@@ -7359,10 +7689,10 @@
         <v>14639</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="42">
@@ -7370,10 +7700,10 @@
         <v>14640</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="42">
@@ -7381,10 +7711,10 @@
         <v>14641</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="42">
@@ -7392,10 +7722,10 @@
         <v>14642</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="42">
@@ -7403,10 +7733,10 @@
         <v>14643</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="42">
@@ -7414,10 +7744,10 @@
         <v>14644</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="42">
@@ -7425,10 +7755,10 @@
         <v>14645</v>
       </c>
       <c r="B297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="42">
@@ -7436,10 +7766,10 @@
         <v>14646</v>
       </c>
       <c r="B298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="42">
@@ -7447,10 +7777,10 @@
         <v>14647</v>
       </c>
       <c r="B299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42">
@@ -7458,10 +7788,10 @@
         <v>14648</v>
       </c>
       <c r="B300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42">
@@ -7469,10 +7799,10 @@
         <v>14649</v>
       </c>
       <c r="B301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="42">
@@ -7480,10 +7810,10 @@
         <v>14650</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="42">
@@ -7491,10 +7821,10 @@
         <v>14651</v>
       </c>
       <c r="B303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="42">
@@ -7502,10 +7832,10 @@
         <v>14894</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="42">
@@ -7513,10 +7843,10 @@
         <v>15081</v>
       </c>
       <c r="B305" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="42">
@@ -7524,10 +7854,10 @@
         <v>15126</v>
       </c>
       <c r="B306" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="42">
@@ -7535,10 +7865,10 @@
         <v>15232</v>
       </c>
       <c r="B307" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="42">
@@ -7546,10 +7876,10 @@
         <v>15239</v>
       </c>
       <c r="B308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="42">
@@ -7557,10 +7887,10 @@
         <v>15320</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="42">
@@ -7568,10 +7898,10 @@
         <v>15336</v>
       </c>
       <c r="B310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="42">
@@ -7579,10 +7909,10 @@
         <v>15403</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="42">
@@ -7590,10 +7920,10 @@
         <v>15456</v>
       </c>
       <c r="B312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="42">
@@ -7601,10 +7931,10 @@
         <v>15654</v>
       </c>
       <c r="B313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="42">
@@ -7612,10 +7942,10 @@
         <v>16002</v>
       </c>
       <c r="B314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="42">
@@ -7623,10 +7953,10 @@
         <v>16003</v>
       </c>
       <c r="B315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="42">
@@ -7634,10 +7964,10 @@
         <v>16004</v>
       </c>
       <c r="B316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="42">
@@ -7645,10 +7975,10 @@
         <v>16005</v>
       </c>
       <c r="B317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="42">
@@ -7656,10 +7986,10 @@
         <v>16006</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="42">
@@ -7667,10 +7997,10 @@
         <v>16007</v>
       </c>
       <c r="B319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="42">
@@ -7678,10 +8008,10 @@
         <v>16008</v>
       </c>
       <c r="B320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="42">
@@ -7689,10 +8019,10 @@
         <v>16009</v>
       </c>
       <c r="B321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="42">
@@ -7700,10 +8030,10 @@
         <v>16010</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="42">
@@ -7711,10 +8041,10 @@
         <v>16011</v>
       </c>
       <c r="B323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="42">
@@ -7722,10 +8052,10 @@
         <v>16012</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="42">
@@ -7733,10 +8063,10 @@
         <v>16013</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="42">
@@ -7744,10 +8074,10 @@
         <v>16014</v>
       </c>
       <c r="B326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="42">
@@ -7755,10 +8085,10 @@
         <v>16015</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="42">
@@ -7766,10 +8096,10 @@
         <v>16016</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42">
@@ -7777,10 +8107,10 @@
         <v>16018</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42">
@@ -7788,10 +8118,10 @@
         <v>16432</v>
       </c>
       <c r="B330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42">
@@ -7799,10 +8129,10 @@
         <v>16579</v>
       </c>
       <c r="B331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="42">
@@ -7810,10 +8140,10 @@
         <v>16642</v>
       </c>
       <c r="B332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="42">
@@ -7821,10 +8151,10 @@
         <v>16757</v>
       </c>
       <c r="B333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="42">
@@ -7832,10 +8162,10 @@
         <v>17168</v>
       </c>
       <c r="B334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="42">
@@ -7843,10 +8173,10 @@
         <v>17229</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="42">
@@ -7854,10 +8184,10 @@
         <v>17264</v>
       </c>
       <c r="B336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="42">
@@ -7865,10 +8195,10 @@
         <v>17323</v>
       </c>
       <c r="B337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="42">
@@ -7876,10 +8206,10 @@
         <v>17324</v>
       </c>
       <c r="B338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="42">
@@ -7887,10 +8217,10 @@
         <v>17325</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="42">
@@ -7898,10 +8228,10 @@
         <v>17326</v>
       </c>
       <c r="B340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="42">
@@ -7909,10 +8239,10 @@
         <v>17382</v>
       </c>
       <c r="B341" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="42">
@@ -7920,10 +8250,10 @@
         <v>17487</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="42">
@@ -7931,10 +8261,10 @@
         <v>17687</v>
       </c>
       <c r="B343" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="42">
@@ -7942,10 +8272,10 @@
         <v>17703</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="42">
@@ -7953,10 +8283,10 @@
         <v>17956</v>
       </c>
       <c r="B345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="42">
@@ -7964,10 +8294,10 @@
         <v>17971</v>
       </c>
       <c r="B346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="42">
@@ -7975,10 +8305,10 @@
         <v>18432</v>
       </c>
       <c r="B347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="42">
@@ -7986,10 +8316,10 @@
         <v>18433</v>
       </c>
       <c r="B348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="42">
@@ -7997,10 +8327,10 @@
         <v>18434</v>
       </c>
       <c r="B349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="42">
@@ -8008,10 +8338,10 @@
         <v>18435</v>
       </c>
       <c r="B350" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="42">
@@ -8019,10 +8349,10 @@
         <v>18436</v>
       </c>
       <c r="B351" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42">
@@ -8030,10 +8360,10 @@
         <v>18437</v>
       </c>
       <c r="B352" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="42">
@@ -8041,10 +8371,10 @@
         <v>18438</v>
       </c>
       <c r="B353" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="42">
@@ -8052,10 +8382,10 @@
         <v>18439</v>
       </c>
       <c r="B354" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="42">
@@ -8063,10 +8393,10 @@
         <v>18440</v>
       </c>
       <c r="B355" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="42">
@@ -8074,10 +8404,10 @@
         <v>18441</v>
       </c>
       <c r="B356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="42">
@@ -8085,10 +8415,10 @@
         <v>18442</v>
       </c>
       <c r="B357" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="42">
@@ -8096,10 +8426,10 @@
         <v>18443</v>
       </c>
       <c r="B358" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="42">
@@ -8107,10 +8437,10 @@
         <v>18444</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="42">
@@ -8118,10 +8448,10 @@
         <v>18445</v>
       </c>
       <c r="B360" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="42">
@@ -8129,10 +8459,10 @@
         <v>18446</v>
       </c>
       <c r="B361" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="42">
@@ -8140,10 +8470,10 @@
         <v>18447</v>
       </c>
       <c r="B362" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="42">
@@ -8151,10 +8481,10 @@
         <v>18448</v>
       </c>
       <c r="B363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="42">
@@ -8162,10 +8492,10 @@
         <v>18449</v>
       </c>
       <c r="B364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="42">
@@ -8173,10 +8503,10 @@
         <v>18450</v>
       </c>
       <c r="B365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="42">
@@ -8184,10 +8514,10 @@
         <v>18451</v>
       </c>
       <c r="B366" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="42">
@@ -8195,10 +8525,10 @@
         <v>18551</v>
       </c>
       <c r="B367" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="42">
@@ -8206,10 +8536,10 @@
         <v>19172</v>
       </c>
       <c r="B368" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="42">
@@ -8217,10 +8547,10 @@
         <v>19228</v>
       </c>
       <c r="B369" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="42">
@@ -8228,10 +8558,10 @@
         <v>19324</v>
       </c>
       <c r="B370" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="42">
@@ -8239,10 +8569,10 @@
         <v>538</v>
       </c>
       <c r="B371" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="42">
@@ -8250,10 +8580,10 @@
         <v>540</v>
       </c>
       <c r="B372" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="42">
@@ -8261,10 +8591,10 @@
         <v>961</v>
       </c>
       <c r="B373" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="42">
@@ -8272,10 +8602,10 @@
         <v>962</v>
       </c>
       <c r="B374" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="42">
@@ -8283,10 +8613,10 @@
         <v>1025</v>
       </c>
       <c r="B375" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="42">
@@ -8294,10 +8624,10 @@
         <v>1030</v>
       </c>
       <c r="B376" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="42">
@@ -8305,10 +8635,10 @@
         <v>1077</v>
       </c>
       <c r="B377" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="42">
@@ -8316,10 +8646,10 @@
         <v>1099</v>
       </c>
       <c r="B378" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="42">
@@ -8327,10 +8657,10 @@
         <v>1411</v>
       </c>
       <c r="B379" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="42">
@@ -8338,10 +8668,10 @@
         <v>1438</v>
       </c>
       <c r="B380" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="42">
@@ -8349,10 +8679,10 @@
         <v>1518</v>
       </c>
       <c r="B381" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="42">
@@ -8360,10 +8690,10 @@
         <v>1606</v>
       </c>
       <c r="B382" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="42">
@@ -8371,10 +8701,10 @@
         <v>1747</v>
       </c>
       <c r="B383" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="42">
@@ -8382,10 +8712,10 @@
         <v>1751</v>
       </c>
       <c r="B384" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="42">
@@ -8393,10 +8723,10 @@
         <v>1931</v>
       </c>
       <c r="B385" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="42">
@@ -8404,10 +8734,10 @@
         <v>1976</v>
       </c>
       <c r="B386" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="42">
@@ -8415,10 +8745,10 @@
         <v>1983</v>
       </c>
       <c r="B387" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="42">
@@ -8426,10 +8756,10 @@
         <v>1997</v>
       </c>
       <c r="B388" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="42">
@@ -8437,10 +8767,10 @@
         <v>2013</v>
       </c>
       <c r="B389" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="42">
@@ -8448,10 +8778,10 @@
         <v>2035</v>
       </c>
       <c r="B390" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="42">
@@ -8459,10 +8789,10 @@
         <v>2174</v>
       </c>
       <c r="B391" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="42">
@@ -8470,10 +8800,10 @@
         <v>2298</v>
       </c>
       <c r="B392" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="42">
@@ -8481,10 +8811,10 @@
         <v>2931</v>
       </c>
       <c r="B393" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="42">
@@ -8492,10 +8822,10 @@
         <v>2932</v>
       </c>
       <c r="B394" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="42">
@@ -8503,10 +8833,10 @@
         <v>2933</v>
       </c>
       <c r="B395" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="42">
@@ -8514,10 +8844,10 @@
         <v>2934</v>
       </c>
       <c r="B396" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="42">
@@ -8525,10 +8855,10 @@
         <v>2935</v>
       </c>
       <c r="B397" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="42">
@@ -8536,10 +8866,10 @@
         <v>2936</v>
       </c>
       <c r="B398" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="42">
@@ -8547,10 +8877,10 @@
         <v>2937</v>
       </c>
       <c r="B399" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="42">
@@ -8558,10 +8888,10 @@
         <v>2938</v>
       </c>
       <c r="B400" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="42">
@@ -8569,10 +8899,10 @@
         <v>2939</v>
       </c>
       <c r="B401" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="42">
@@ -8580,10 +8910,10 @@
         <v>2940</v>
       </c>
       <c r="B402" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="42">
@@ -8591,10 +8921,10 @@
         <v>2941</v>
       </c>
       <c r="B403" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="42">
@@ -8602,10 +8932,10 @@
         <v>2942</v>
       </c>
       <c r="B404" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="42">
@@ -8613,10 +8943,10 @@
         <v>2943</v>
       </c>
       <c r="B405" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="42">
@@ -8624,10 +8954,10 @@
         <v>2944</v>
       </c>
       <c r="B406" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="42">
@@ -8635,10 +8965,10 @@
         <v>2945</v>
       </c>
       <c r="B407" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="42">
@@ -8646,10 +8976,10 @@
         <v>2946</v>
       </c>
       <c r="B408" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="42">
@@ -8657,10 +8987,10 @@
         <v>2947</v>
       </c>
       <c r="B409" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="42">
@@ -8668,10 +8998,10 @@
         <v>2948</v>
       </c>
       <c r="B410" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="42">
@@ -8679,10 +9009,10 @@
         <v>2949</v>
       </c>
       <c r="B411" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="42">
@@ -8690,10 +9020,10 @@
         <v>2950</v>
       </c>
       <c r="B412" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="42">
@@ -8701,10 +9031,10 @@
         <v>2954</v>
       </c>
       <c r="B413" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="42">
@@ -8712,10 +9042,10 @@
         <v>3031</v>
       </c>
       <c r="B414" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="42">
@@ -8723,10 +9053,10 @@
         <v>3033</v>
       </c>
       <c r="B415" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="42">
@@ -8734,10 +9064,10 @@
         <v>3034</v>
       </c>
       <c r="B416" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="42">
@@ -8745,10 +9075,10 @@
         <v>3045</v>
       </c>
       <c r="B417" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="42">
@@ -8756,10 +9086,10 @@
         <v>3312</v>
       </c>
       <c r="B418" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="42">
@@ -8767,10 +9097,10 @@
         <v>3324</v>
       </c>
       <c r="B419" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="42">
@@ -8778,10 +9108,10 @@
         <v>3484</v>
       </c>
       <c r="B420" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="42">
@@ -8789,10 +9119,10 @@
         <v>3521</v>
       </c>
       <c r="B421" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="42">
@@ -8800,10 +9130,10 @@
         <v>3565</v>
       </c>
       <c r="B422" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="42">
@@ -8811,10 +9141,10 @@
         <v>3582</v>
       </c>
       <c r="B423" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="42">
@@ -8822,10 +9152,10 @@
         <v>3595</v>
       </c>
       <c r="B424" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="42">
@@ -8833,10 +9163,10 @@
         <v>4050</v>
       </c>
       <c r="B425" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="42">
@@ -8844,10 +9174,10 @@
         <v>4074</v>
       </c>
       <c r="B426" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="42">
@@ -8855,10 +9185,10 @@
         <v>4209</v>
       </c>
       <c r="B427" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="42">
@@ -8866,10 +9196,10 @@
         <v>4212</v>
       </c>
       <c r="B428" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="42">
@@ -8877,10 +9207,10 @@
         <v>4322</v>
       </c>
       <c r="B429" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="42">
@@ -8888,10 +9218,10 @@
         <v>4326</v>
       </c>
       <c r="B430" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="42">
@@ -8899,10 +9229,10 @@
         <v>4330</v>
       </c>
       <c r="B431" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="42">
@@ -8910,10 +9240,10 @@
         <v>4342</v>
       </c>
       <c r="B432" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="42">
@@ -8921,10 +9251,10 @@
         <v>4368</v>
       </c>
       <c r="B433" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="42">
@@ -8932,10 +9262,10 @@
         <v>4382</v>
       </c>
       <c r="B434" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="42">
@@ -8943,10 +9273,10 @@
         <v>4536</v>
       </c>
       <c r="B435" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="42">
@@ -8954,10 +9284,10 @@
         <v>4583</v>
       </c>
       <c r="B436" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="42">
@@ -8965,10 +9295,10 @@
         <v>4707</v>
       </c>
       <c r="B437" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="42">
@@ -8976,10 +9306,10 @@
         <v>4735</v>
       </c>
       <c r="B438" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="42">
@@ -8987,10 +9317,10 @@
         <v>5081</v>
       </c>
       <c r="B439" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="42">
@@ -8998,10 +9328,10 @@
         <v>5119</v>
       </c>
       <c r="B440" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="42">
@@ -9009,10 +9339,10 @@
         <v>5211</v>
       </c>
       <c r="B441" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="42">
@@ -9020,10 +9350,10 @@
         <v>5267</v>
       </c>
       <c r="B442" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="42">
@@ -9031,10 +9361,10 @@
         <v>5350</v>
       </c>
       <c r="B443" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="42">
@@ -9042,10 +9372,10 @@
         <v>5380</v>
       </c>
       <c r="B444" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="42">
@@ -9053,10 +9383,10 @@
         <v>5466</v>
       </c>
       <c r="B445" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="42">
@@ -9064,10 +9394,10 @@
         <v>5507</v>
       </c>
       <c r="B446" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="42">
@@ -9075,10 +9405,10 @@
         <v>5565</v>
       </c>
       <c r="B447" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="42">
@@ -9086,10 +9416,10 @@
         <v>5682</v>
       </c>
       <c r="B448" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="42">
@@ -9097,10 +9427,10 @@
         <v>5696</v>
       </c>
       <c r="B449" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="42">
@@ -9108,10 +9438,10 @@
         <v>5698</v>
       </c>
       <c r="B450" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="42">
@@ -9119,10 +9449,10 @@
         <v>5710</v>
       </c>
       <c r="B451" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="42">
@@ -9130,10 +9460,10 @@
         <v>5943</v>
       </c>
       <c r="B452" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="42">
@@ -9141,10 +9471,10 @@
         <v>5962</v>
       </c>
       <c r="B453" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="42">
@@ -9152,10 +9482,10 @@
         <v>5999</v>
       </c>
       <c r="B454" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="42">
@@ -9163,10 +9493,10 @@
         <v>6000</v>
       </c>
       <c r="B455" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="42">
@@ -9174,10 +9504,10 @@
         <v>6001</v>
       </c>
       <c r="B456" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="42">
@@ -9185,10 +9515,10 @@
         <v>6144</v>
       </c>
       <c r="B457" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="42">
@@ -9196,10 +9526,10 @@
         <v>6185</v>
       </c>
       <c r="B458" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="42">
@@ -9207,10 +9537,10 @@
         <v>6192</v>
       </c>
       <c r="B459" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="42">
@@ -9218,10 +9548,10 @@
         <v>6193</v>
       </c>
       <c r="B460" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="42">
@@ -9229,10 +9559,10 @@
         <v>6210</v>
       </c>
       <c r="B461" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="42">
@@ -9240,10 +9570,10 @@
         <v>6236</v>
       </c>
       <c r="B462" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="42">
@@ -9251,10 +9581,10 @@
         <v>6238</v>
       </c>
       <c r="B463" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="42">
@@ -9262,10 +9592,10 @@
         <v>6252</v>
       </c>
       <c r="B464" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="42">
@@ -9273,10 +9603,10 @@
         <v>6362</v>
       </c>
       <c r="B465" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="42">
@@ -9284,10 +9614,10 @@
         <v>6475</v>
       </c>
       <c r="B466" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="42">
@@ -9295,10 +9625,10 @@
         <v>6538</v>
       </c>
       <c r="B467" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="42">
@@ -9306,10 +9636,10 @@
         <v>6550</v>
       </c>
       <c r="B468" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="42">
@@ -9317,10 +9647,10 @@
         <v>6674</v>
       </c>
       <c r="B469" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="42">
@@ -9328,10 +9658,10 @@
         <v>6836</v>
       </c>
       <c r="B470" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="42">
@@ -9339,10 +9669,10 @@
         <v>6893</v>
       </c>
       <c r="B471" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="42">
@@ -9350,10 +9680,10 @@
         <v>6894</v>
       </c>
       <c r="B472" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="42">
@@ -9361,10 +9691,10 @@
         <v>6990</v>
       </c>
       <c r="B473" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="42">
@@ -9372,10 +9702,10 @@
         <v>7334</v>
       </c>
       <c r="B474" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="42">
@@ -9383,10 +9713,10 @@
         <v>7347</v>
       </c>
       <c r="B475" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="42">
@@ -9394,10 +9724,10 @@
         <v>7646</v>
       </c>
       <c r="B476" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="42">
@@ -9405,10 +9735,10 @@
         <v>7753</v>
       </c>
       <c r="B477" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="42">
@@ -9416,10 +9746,10 @@
         <v>7913</v>
       </c>
       <c r="B478" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="42">
@@ -9427,10 +9757,10 @@
         <v>7943</v>
       </c>
       <c r="B479" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="42">
@@ -9438,10 +9768,10 @@
         <v>7960</v>
       </c>
       <c r="B480" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="42">
@@ -9449,10 +9779,10 @@
         <v>8574</v>
       </c>
       <c r="B481" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="42">
@@ -9460,10 +9790,10 @@
         <v>8580</v>
       </c>
       <c r="B482" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="42">
@@ -9471,10 +9801,10 @@
         <v>8604</v>
       </c>
       <c r="B483" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="42">
@@ -9482,10 +9812,10 @@
         <v>8608</v>
       </c>
       <c r="B484" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="42">
@@ -9493,10 +9823,10 @@
         <v>8610</v>
       </c>
       <c r="B485" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="42">
@@ -9504,10 +9834,10 @@
         <v>8845</v>
       </c>
       <c r="B486" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="42">
@@ -9515,10 +9845,10 @@
         <v>9038</v>
       </c>
       <c r="B487" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="42">
@@ -9526,10 +9856,10 @@
         <v>9152</v>
       </c>
       <c r="B488" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="42">
@@ -9537,10 +9867,10 @@
         <v>9580</v>
       </c>
       <c r="B489" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="42">
@@ -9548,10 +9878,10 @@
         <v>9729</v>
       </c>
       <c r="B490" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="42">
@@ -9559,10 +9889,10 @@
         <v>9812</v>
       </c>
       <c r="B491" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="42">
@@ -9570,10 +9900,10 @@
         <v>9813</v>
       </c>
       <c r="B492" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="42">
@@ -9581,10 +9911,10 @@
         <v>9824</v>
       </c>
       <c r="B493" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="42">
@@ -9592,10 +9922,10 @@
         <v>41</v>
       </c>
       <c r="B494" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="42">
@@ -9603,10 +9933,10 @@
         <v>769</v>
       </c>
       <c r="B495" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="42">
@@ -9614,10 +9944,10 @@
         <v>891</v>
       </c>
       <c r="B496" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="42">
@@ -9625,10 +9955,10 @@
         <v>1137</v>
       </c>
       <c r="B497" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="42">
@@ -9636,10 +9966,10 @@
         <v>1257</v>
       </c>
       <c r="B498" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="42">
@@ -9647,10 +9977,10 @@
         <v>1347</v>
       </c>
       <c r="B499" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="42">
@@ -9658,10 +9988,10 @@
         <v>1595</v>
       </c>
       <c r="B500" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="42">
@@ -9669,10 +9999,10 @@
         <v>1633</v>
       </c>
       <c r="B501" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="42">
@@ -9680,10 +10010,10 @@
         <v>1648</v>
       </c>
       <c r="B502" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="42">
@@ -9691,10 +10021,10 @@
         <v>1650</v>
       </c>
       <c r="B503" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="42">
@@ -9702,10 +10032,10 @@
         <v>1808</v>
       </c>
       <c r="B504" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="42">
@@ -9713,10 +10043,10 @@
         <v>1829</v>
       </c>
       <c r="B505" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="42">
@@ -9724,10 +10054,10 @@
         <v>1914</v>
       </c>
       <c r="B506" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="42">
@@ -9735,10 +10065,10 @@
         <v>1958</v>
       </c>
       <c r="B507" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="42">
@@ -9746,10 +10076,10 @@
         <v>1967</v>
       </c>
       <c r="B508" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="42">
@@ -9757,10 +10087,10 @@
         <v>1976</v>
       </c>
       <c r="B509" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="42">
@@ -9768,10 +10098,10 @@
         <v>2048</v>
       </c>
       <c r="B510" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="42">
@@ -9779,10 +10109,10 @@
         <v>2135</v>
       </c>
       <c r="B511" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="42">
@@ -9790,10 +10120,10 @@
         <v>2153</v>
       </c>
       <c r="B512" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="42">
@@ -9801,10 +10131,10 @@
         <v>2192</v>
       </c>
       <c r="B513" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="42">
@@ -9812,10 +10142,10 @@
         <v>2217</v>
       </c>
       <c r="B514" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="42">
@@ -9823,10 +10153,10 @@
         <v>2242</v>
       </c>
       <c r="B515" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="42">
@@ -9834,10 +10164,10 @@
         <v>2243</v>
       </c>
       <c r="B516" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="42">
@@ -9845,10 +10175,10 @@
         <v>2317</v>
       </c>
       <c r="B517" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="42">
@@ -9856,10 +10186,10 @@
         <v>2318</v>
       </c>
       <c r="B518" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="42">
@@ -9867,10 +10197,10 @@
         <v>2321</v>
       </c>
       <c r="B519" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="42">
@@ -9878,10 +10208,10 @@
         <v>2323</v>
       </c>
       <c r="B520" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="42">
@@ -9889,10 +10219,10 @@
         <v>2404</v>
       </c>
       <c r="B521" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="42">
@@ -9900,10 +10230,10 @@
         <v>2461</v>
       </c>
       <c r="B522" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="42">
@@ -9911,10 +10241,10 @@
         <v>2550</v>
       </c>
       <c r="B523" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="42">
@@ -9922,10 +10252,10 @@
         <v>2552</v>
       </c>
       <c r="B524" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="42">
@@ -9933,10 +10263,10 @@
         <v>2684</v>
       </c>
       <c r="B525" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="42">
@@ -9944,10 +10274,10 @@
         <v>2685</v>
       </c>
       <c r="B526" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="42">
@@ -9955,10 +10285,10 @@
         <v>2688</v>
       </c>
       <c r="B527" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="42">
@@ -9966,10 +10296,10 @@
         <v>2689</v>
       </c>
       <c r="B528" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="42">
@@ -9977,10 +10307,10 @@
         <v>2690</v>
       </c>
       <c r="B529" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="42">
@@ -9988,10 +10318,10 @@
         <v>2694</v>
       </c>
       <c r="B530" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="42">
@@ -9999,10 +10329,10 @@
         <v>2713</v>
       </c>
       <c r="B531" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="42">
@@ -10010,10 +10340,10 @@
         <v>2714</v>
       </c>
       <c r="B532" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="42">
@@ -10021,10 +10351,10 @@
         <v>2715</v>
       </c>
       <c r="B533" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="42">
@@ -10032,10 +10362,10 @@
         <v>2716</v>
       </c>
       <c r="B534" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="42">
@@ -10043,10 +10373,10 @@
         <v>2717</v>
       </c>
       <c r="B535" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="42">
@@ -10054,10 +10384,10 @@
         <v>2718</v>
       </c>
       <c r="B536" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="42">
@@ -10065,10 +10395,10 @@
         <v>2719</v>
       </c>
       <c r="B537" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="42">
@@ -10076,10 +10406,10 @@
         <v>2720</v>
       </c>
       <c r="B538" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="42">
@@ -10087,10 +10417,10 @@
         <v>2727</v>
       </c>
       <c r="B539" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="42">
@@ -10098,10 +10428,10 @@
         <v>2766</v>
       </c>
       <c r="B540" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="42">
@@ -10109,10 +10439,10 @@
         <v>2853</v>
       </c>
       <c r="B541" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="42">
@@ -10120,10 +10450,10 @@
         <v>2863</v>
       </c>
       <c r="B542" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="42">
@@ -10131,10 +10461,10 @@
         <v>2898</v>
       </c>
       <c r="B543" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="42">
@@ -10142,10 +10472,10 @@
         <v>2911</v>
       </c>
       <c r="B544" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="42">
@@ -10153,10 +10483,10 @@
         <v>2916</v>
       </c>
       <c r="B545" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="42">
@@ -10164,10 +10494,10 @@
         <v>3029</v>
       </c>
       <c r="B546" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="42">
@@ -10175,10 +10505,10 @@
         <v>3030</v>
       </c>
       <c r="B547" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="42">
@@ -10186,10 +10516,10 @@
         <v>3304</v>
       </c>
       <c r="B548" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="42">
@@ -10197,10 +10527,10 @@
         <v>3310</v>
       </c>
       <c r="B549" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="42">
@@ -10208,10 +10538,10 @@
         <v>3322</v>
       </c>
       <c r="B550" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="42">
@@ -10219,10 +10549,10 @@
         <v>3333</v>
       </c>
       <c r="B551" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="42">
@@ -10230,10 +10560,10 @@
         <v>2413</v>
       </c>
       <c r="B552" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="42">
@@ -10241,10 +10571,10 @@
         <v>2815</v>
       </c>
       <c r="B553" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="42">
@@ -10252,10 +10582,10 @@
         <v>2834</v>
       </c>
       <c r="B554" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="42">
@@ -10263,10 +10593,10 @@
         <v>2839</v>
       </c>
       <c r="B555" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="42">
@@ -10274,10 +10604,10 @@
         <v>2990</v>
       </c>
       <c r="B556" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="42">
@@ -10285,10 +10615,10 @@
         <v>3079</v>
       </c>
       <c r="B557" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="42">
@@ -10296,10 +10626,10 @@
         <v>3092</v>
       </c>
       <c r="B558" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="42">
@@ -10307,10 +10637,10 @@
         <v>3433</v>
       </c>
       <c r="B559" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="42">
@@ -10318,10 +10648,10 @@
         <v>3467</v>
       </c>
       <c r="B560" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="42">
@@ -10329,10 +10659,10 @@
         <v>3474</v>
       </c>
       <c r="B561" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F561" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="42">
@@ -10340,10 +10670,10 @@
         <v>3502</v>
       </c>
       <c r="B562" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="42">
@@ -10351,10 +10681,10 @@
         <v>3511</v>
       </c>
       <c r="B563" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="42">
@@ -10362,10 +10692,10 @@
         <v>3550</v>
       </c>
       <c r="B564" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="42">
@@ -10373,10 +10703,10 @@
         <v>3556</v>
       </c>
       <c r="B565" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="42">
@@ -10384,10 +10714,10 @@
         <v>3656</v>
       </c>
       <c r="B566" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="42">
@@ -10395,10 +10725,10 @@
         <v>1689</v>
       </c>
       <c r="B567" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="42">
@@ -10406,10 +10736,10 @@
         <v>1845</v>
       </c>
       <c r="B568" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="42">
@@ -10417,10 +10747,10 @@
         <v>1846</v>
       </c>
       <c r="B569" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F569" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="42">
@@ -10428,10 +10758,10 @@
         <v>1855</v>
       </c>
       <c r="B570" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="42">
@@ -10439,10 +10769,10 @@
         <v>1863</v>
       </c>
       <c r="B571" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="42">
@@ -10450,10 +10780,10 @@
         <v>1868</v>
       </c>
       <c r="B572" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="42">
@@ -10461,10 +10791,10 @@
         <v>1876</v>
       </c>
       <c r="B573" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="42">
@@ -10472,10 +10802,10 @@
         <v>1937</v>
       </c>
       <c r="B574" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="42">
@@ -10483,10 +10813,10 @@
         <v>1989</v>
       </c>
       <c r="B575" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="42">
@@ -10494,10 +10824,10 @@
         <v>1991</v>
       </c>
       <c r="B576" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="42">
@@ -10505,10 +10835,10 @@
         <v>2019</v>
       </c>
       <c r="B577" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="42">
@@ -10516,10 +10846,10 @@
         <v>2022</v>
       </c>
       <c r="B578" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="42">
@@ -10527,10 +10857,10 @@
         <v>2049</v>
       </c>
       <c r="B579" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="42">
@@ -10538,10 +10868,10 @@
         <v>2072</v>
       </c>
       <c r="B580" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="42">
@@ -10549,10 +10879,10 @@
         <v>2168</v>
       </c>
       <c r="B581" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="42">
@@ -10560,10 +10890,10 @@
         <v>2178</v>
       </c>
       <c r="B582" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="42">
@@ -10571,10 +10901,10 @@
         <v>2188</v>
       </c>
       <c r="B583" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="42">
@@ -10582,10 +10912,10 @@
         <v>2205</v>
       </c>
       <c r="B584" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="42">
@@ -10593,10 +10923,10 @@
         <v>2232</v>
       </c>
       <c r="B585" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="42">
@@ -10604,10 +10934,10 @@
         <v>2245</v>
       </c>
       <c r="B586" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="42">
@@ -10615,10 +10945,10 @@
         <v>2255</v>
       </c>
       <c r="B587" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="42">
@@ -10626,10 +10956,10 @@
         <v>2391</v>
       </c>
       <c r="B588" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="42">
@@ -10637,10 +10967,10 @@
         <v>2985</v>
       </c>
       <c r="B589" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="42">
@@ -10648,10 +10978,10 @@
         <v>3459</v>
       </c>
       <c r="B590" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="42">
@@ -10659,10 +10989,10 @@
         <v>1057</v>
       </c>
       <c r="B591" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F591" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="42">
@@ -10670,10 +11000,10 @@
         <v>1102</v>
       </c>
       <c r="B592" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="42">
@@ -10681,10 +11011,10 @@
         <v>2193</v>
       </c>
       <c r="B593" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="42">
@@ -10692,10 +11022,10 @@
         <v>2962</v>
       </c>
       <c r="B594" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="42">
@@ -10703,10 +11033,10 @@
         <v>3344</v>
       </c>
       <c r="B595" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="42">
@@ -10714,10 +11044,10 @@
         <v>3478</v>
       </c>
       <c r="B596" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="42">
@@ -10725,10 +11055,10 @@
         <v>3550</v>
       </c>
       <c r="B597" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="42">
@@ -10736,10 +11066,10 @@
         <v>3565</v>
       </c>
       <c r="B598" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="42">
@@ -10747,10 +11077,10 @@
         <v>3572</v>
       </c>
       <c r="B599" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="600" spans="1:6" ht="42">
@@ -10758,10 +11088,10 @@
         <v>3686</v>
       </c>
       <c r="B600" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="42">
@@ -10769,10 +11099,10 @@
         <v>3750</v>
       </c>
       <c r="B601" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="42">
@@ -10780,10 +11110,10 @@
         <v>3802</v>
       </c>
       <c r="B602" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="42">
@@ -10791,10 +11121,10 @@
         <v>4003</v>
       </c>
       <c r="B603" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="42">
@@ -10802,10 +11132,10 @@
         <v>4004</v>
       </c>
       <c r="B604" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="42">
@@ -10813,10 +11143,10 @@
         <v>4012</v>
       </c>
       <c r="B605" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="606" spans="1:6" ht="42">
@@ -10824,10 +11154,10 @@
         <v>4285</v>
       </c>
       <c r="B606" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F606" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="607" spans="1:6" ht="42">
@@ -10835,10 +11165,10 @@
         <v>4286</v>
       </c>
       <c r="B607" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F607" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="608" spans="1:6" ht="42">
@@ -10846,10 +11176,10 @@
         <v>4292</v>
       </c>
       <c r="B608" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="42">
@@ -10857,10 +11187,10 @@
         <v>4338</v>
       </c>
       <c r="B609" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="610" spans="1:6" ht="42">
@@ -10868,10 +11198,10 @@
         <v>2690</v>
       </c>
       <c r="B610" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="611" spans="1:6" ht="42">
@@ -10879,10 +11209,10 @@
         <v>2892</v>
       </c>
       <c r="B611" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="42">
@@ -10890,10 +11220,10 @@
         <v>2987</v>
       </c>
       <c r="B612" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="42">
@@ -10901,10 +11231,10 @@
         <v>2991</v>
       </c>
       <c r="B613" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="614" spans="1:6" ht="42">
@@ -10912,10 +11242,10 @@
         <v>3016</v>
       </c>
       <c r="B614" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="615" spans="1:6" ht="42">
@@ -10923,10 +11253,10 @@
         <v>3114</v>
       </c>
       <c r="B615" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="616" spans="1:6" ht="42">
@@ -10934,10 +11264,10 @@
         <v>3121</v>
       </c>
       <c r="B616" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="42">
@@ -10945,10 +11275,10 @@
         <v>3132</v>
       </c>
       <c r="B617" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="42">
@@ -10956,10 +11286,10 @@
         <v>3140</v>
       </c>
       <c r="B618" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="42">
@@ -10967,10 +11297,10 @@
         <v>3567</v>
       </c>
       <c r="B619" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F619" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="620" spans="1:6" ht="42">
@@ -10978,10 +11308,10 @@
         <v>4635</v>
       </c>
       <c r="B620" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="42">
@@ -10989,10 +11319,10 @@
         <v>4731</v>
       </c>
       <c r="B621" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F621" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="42">
@@ -11000,10 +11330,10 @@
         <v>4737</v>
       </c>
       <c r="B622" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="42">
@@ -11011,10 +11341,10 @@
         <v>5705</v>
       </c>
       <c r="B623" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{817838F8-F1B6-D445-9F1F-A66A10F4D500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E1AF8595-1995-6145-9EED-3CC718364954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1393" uniqueCount="750">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="770">
   <si>
     <t>Issue</t>
   </si>
@@ -3076,6 +3076,201 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI bazelオプションのリファクタリング
+[Class]CIテストの改善</t>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]thread-factory singleton assertion
+[Class]CIテストの改善</t>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの移動
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]変更可能なサーバオプションによる問題
+[Class]コードの改善</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gRPC コードのProtobuf定義を追加
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TimeSystemでなくTimeSourceをpass
+[Class]機能の改善</t>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コールバックの追加
+[Class]関数の改善</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HttpConnectionManagerのリファクタリング
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ディスク容量げ原因でmacOS CIが失敗する
+[Class]CIテストの改善</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ゲンイン </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">シッパイ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Python formatterは引用符の一貫性が必要
+[Class]引用符の問題</t>
+    <rPh sb="26" eb="29">
+      <t xml:space="preserve">インヨウフ </t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t xml:space="preserve">イッカンセイ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t xml:space="preserve">インヨウフ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの修正
+[Class]テストの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]stats: FakeSymbolTableImplと関連するヘルパーを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ビルドルールの改善
+[Class]ビルドの改善</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト構成をv1 JSONからv2 YAMLに変換
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rename_ipv4_remote_address_as_ipv4_mapped_ipv6は参照されていない
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リアルタイムでの実行時にguarddog_impl_testをde-flakeする
+[Class]コードの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]c_strのHeaderMapの使用を削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HeaderString から NUL byteを回収
+[Class]コードの改善</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">カイシュウ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]保守可能なパスの正規化を行うライブラリ
+[Class]機能の改善</t>
+    <rPh sb="9" eb="13">
+      <t xml:space="preserve">ホシュカノウナ </t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t xml:space="preserve">セイキカ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">カイゼン </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -4044,8 +4239,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6052,8 +6247,11 @@
       <c r="B142" t="s">
         <v>140</v>
       </c>
+      <c r="C142" t="s">
+        <v>629</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>625</v>
+        <v>750</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -6063,8 +6261,11 @@
       <c r="B143" t="s">
         <v>141</v>
       </c>
+      <c r="C143" t="s">
+        <v>629</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>625</v>
+        <v>751</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -6074,8 +6275,11 @@
       <c r="B144" t="s">
         <v>142</v>
       </c>
+      <c r="C144" t="s">
+        <v>629</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>625</v>
+        <v>752</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -6085,8 +6289,11 @@
       <c r="B145" t="s">
         <v>143</v>
       </c>
+      <c r="C145" t="s">
+        <v>626</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>625</v>
+        <v>753</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -6096,8 +6303,11 @@
       <c r="B146" t="s">
         <v>144</v>
       </c>
+      <c r="C146" t="s">
+        <v>626</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>625</v>
+        <v>754</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -6107,8 +6317,11 @@
       <c r="B147" t="s">
         <v>145</v>
       </c>
+      <c r="C147" t="s">
+        <v>626</v>
+      </c>
       <c r="F147" s="2" t="s">
-        <v>625</v>
+        <v>755</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -6118,8 +6331,11 @@
       <c r="B148" t="s">
         <v>146</v>
       </c>
+      <c r="C148" t="s">
+        <v>626</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>625</v>
+        <v>756</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -6129,8 +6345,11 @@
       <c r="B149" t="s">
         <v>147</v>
       </c>
+      <c r="C149" t="s">
+        <v>626</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>625</v>
+        <v>757</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -6140,8 +6359,11 @@
       <c r="B150" t="s">
         <v>148</v>
       </c>
+      <c r="C150" t="s">
+        <v>629</v>
+      </c>
       <c r="F150" s="2" t="s">
-        <v>625</v>
+        <v>747</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -6151,8 +6373,11 @@
       <c r="B151" t="s">
         <v>149</v>
       </c>
+      <c r="C151" t="s">
+        <v>629</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>625</v>
+        <v>758</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -6162,8 +6387,14 @@
       <c r="B152" t="s">
         <v>150</v>
       </c>
+      <c r="C152" t="s">
+        <v>631</v>
+      </c>
+      <c r="D152" t="s">
+        <v>626</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>625</v>
+        <v>759</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -6173,8 +6404,11 @@
       <c r="B153" t="s">
         <v>151</v>
       </c>
+      <c r="C153" t="s">
+        <v>629</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>625</v>
+        <v>760</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -6184,8 +6418,11 @@
       <c r="B154" t="s">
         <v>152</v>
       </c>
+      <c r="C154" t="s">
+        <v>626</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>625</v>
+        <v>761</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -6195,8 +6432,11 @@
       <c r="B155" t="s">
         <v>153</v>
       </c>
+      <c r="C155" t="s">
+        <v>762</v>
+      </c>
       <c r="F155" s="2" t="s">
-        <v>625</v>
+        <v>763</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -6206,8 +6446,11 @@
       <c r="B156" t="s">
         <v>154</v>
       </c>
+      <c r="C156" t="s">
+        <v>629</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>625</v>
+        <v>764</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -6217,8 +6460,11 @@
       <c r="B157" t="s">
         <v>155</v>
       </c>
+      <c r="C157" t="s">
+        <v>626</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>625</v>
+        <v>765</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -6228,8 +6474,11 @@
       <c r="B158" t="s">
         <v>156</v>
       </c>
+      <c r="C158" t="s">
+        <v>626</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>625</v>
+        <v>766</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -6239,8 +6488,11 @@
       <c r="B159" t="s">
         <v>157</v>
       </c>
+      <c r="C159" t="s">
+        <v>626</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>625</v>
+        <v>767</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -6250,8 +6502,11 @@
       <c r="B160" t="s">
         <v>158</v>
       </c>
+      <c r="C160" t="s">
+        <v>626</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>625</v>
+        <v>768</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -6261,8 +6516,11 @@
       <c r="B161" t="s">
         <v>159</v>
       </c>
+      <c r="C161" t="s">
+        <v>626</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>625</v>
+        <v>769</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E1AF8595-1995-6145-9EED-3CC718364954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D421D323-047B-C548-A182-5D144EC1491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16160" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_C++" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1414" uniqueCount="770">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1448" uniqueCount="800">
   <si>
     <t>Issue</t>
   </si>
@@ -3270,6 +3270,350 @@
       <t xml:space="preserve">キノウノ </t>
     </rPh>
     <rPh sb="39" eb="41">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]delayed_close_timeoutの改善
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]tag extractorsが.を扱うため正規表現が使えなくなる
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Jinjaのバージョンの指定
+[Class]バージョンの指定</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストで全ての拡張機能がコンパイルされる
+[Class]テストの改善</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">スベテノ </t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t xml:space="preserve">カクチョウキノウン </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストでシュミレートした時間を使用する
+[Class]テストの改善</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]quicheテストがプラットフォームを正しく選択していない
+[Class]テストの修正</t>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">タダシク </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">センタクシテイナイ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]time:time(nullptr)を呼び出さず，time-sourceを組み込む
+[Class]関数の変更</t>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">ヨビダサズ </t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t xml:space="preserve">クミコム </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]self-destructing handlesを作成
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストカバレッジのギャップを埋める
+[Class]テストの改善</t>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">ウメル </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gauge HR merge type at definition pointを定義する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]データ構造を単純化
+[Class]機能の改善</t>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">タンジュンカ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]protodoc.bzlをBazel 0.26+と互換性を持たせる
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HTTP/1.1テストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]regression test for Lua panickingテストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LDSがうまく機能しない
+[Class]機能の修正</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">キノウン </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CIで正確な値でのテストを行う
+[Class]テストの改善</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">セイカクナ </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">アタイデノ </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FooPtrはunique_ptrにする必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]libevent implからBrian Paneの実装に切り替え
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]memory-consumption testsの失敗のデバッグ，テストの修正
+[Class]デバッグ，テストの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Python2への依存を削除しPython3をサポート
+[Class]他のツールへの対応</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">イソン </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t xml:space="preserve">タノツールヘノ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要な機能の削除
+[Class]不要な機能の削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CIでShellcheckを使用して静的解析を行う
+[Class]テストの改善</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">シヨウシテ </t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t xml:space="preserve">セイテキカイセキ </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストカバレッジを確認
+[Class]テストの改善</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの関数を移動
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クラス名の変更
+[Class]クラス名の変更</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>命名規則などではなく分かりやすさのためのクラス名の変更はDesign？</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">メイメイキソク </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">ワカリヤスサノタメノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨なフィールドと不明なフィールドの処理を統一
+[Class]機能の改善</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウナ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">フメイナ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">トウイツ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]除外していたquicheテストを戻す
+[Class]テストの改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジョガイシテイタ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">モドス </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]conn_managerコードをリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨な値を自動検出できるかを確認
+[Class]機能の改善</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウナ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">アタイヲ </t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t xml:space="preserve">ジドウケンシュツデキルカ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">カクニン </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
       <t xml:space="preserve">カイゼン </t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -4239,8 +4583,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6530,8 +6874,11 @@
       <c r="B162" t="s">
         <v>160</v>
       </c>
+      <c r="C162" t="s">
+        <v>626</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>625</v>
+        <v>770</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -6541,8 +6888,11 @@
       <c r="B163" t="s">
         <v>161</v>
       </c>
+      <c r="C163" t="s">
+        <v>626</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>625</v>
+        <v>771</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -6552,8 +6902,11 @@
       <c r="B164" t="s">
         <v>162</v>
       </c>
+      <c r="C164" t="s">
+        <v>626</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>625</v>
+        <v>772</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -6563,8 +6916,11 @@
       <c r="B165" t="s">
         <v>163</v>
       </c>
+      <c r="C165" t="s">
+        <v>629</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>625</v>
+        <v>773</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -6574,8 +6930,11 @@
       <c r="B166" t="s">
         <v>164</v>
       </c>
+      <c r="C166" t="s">
+        <v>629</v>
+      </c>
       <c r="F166" s="2" t="s">
-        <v>625</v>
+        <v>774</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -6585,8 +6944,11 @@
       <c r="B167" t="s">
         <v>165</v>
       </c>
+      <c r="C167" t="s">
+        <v>629</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>625</v>
+        <v>775</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -6596,8 +6958,11 @@
       <c r="B168" t="s">
         <v>166</v>
       </c>
+      <c r="C168" t="s">
+        <v>626</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>625</v>
+        <v>776</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -6607,8 +6972,11 @@
       <c r="B169" t="s">
         <v>167</v>
       </c>
+      <c r="C169" t="s">
+        <v>626</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>625</v>
+        <v>777</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -6618,8 +6986,11 @@
       <c r="B170" t="s">
         <v>168</v>
       </c>
+      <c r="C170" t="s">
+        <v>629</v>
+      </c>
       <c r="F170" s="2" t="s">
-        <v>625</v>
+        <v>778</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -6629,8 +7000,11 @@
       <c r="B171" t="s">
         <v>169</v>
       </c>
+      <c r="C171" t="s">
+        <v>626</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>625</v>
+        <v>779</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -6640,8 +7014,11 @@
       <c r="B172" t="s">
         <v>170</v>
       </c>
+      <c r="C172" t="s">
+        <v>626</v>
+      </c>
       <c r="F172" s="2" t="s">
-        <v>625</v>
+        <v>780</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -6651,8 +7028,11 @@
       <c r="B173" t="s">
         <v>171</v>
       </c>
+      <c r="C173" t="s">
+        <v>629</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>625</v>
+        <v>783</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -6662,8 +7042,11 @@
       <c r="B174" t="s">
         <v>172</v>
       </c>
+      <c r="C174" t="s">
+        <v>626</v>
+      </c>
       <c r="F174" s="2" t="s">
-        <v>625</v>
+        <v>781</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -6673,8 +7056,11 @@
       <c r="B175" t="s">
         <v>173</v>
       </c>
+      <c r="C175" t="s">
+        <v>629</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>625</v>
+        <v>782</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -6684,8 +7070,14 @@
       <c r="B176" t="s">
         <v>174</v>
       </c>
+      <c r="C176" t="s">
+        <v>626</v>
+      </c>
+      <c r="D176" t="s">
+        <v>629</v>
+      </c>
       <c r="F176" s="2" t="s">
-        <v>625</v>
+        <v>784</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -6695,8 +7087,11 @@
       <c r="B177" t="s">
         <v>175</v>
       </c>
+      <c r="C177" t="s">
+        <v>629</v>
+      </c>
       <c r="F177" s="2" t="s">
-        <v>625</v>
+        <v>785</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -6706,8 +7101,11 @@
       <c r="B178" t="s">
         <v>176</v>
       </c>
+      <c r="C178" t="s">
+        <v>626</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>625</v>
+        <v>786</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -6717,8 +7115,11 @@
       <c r="B179" t="s">
         <v>177</v>
       </c>
+      <c r="C179" t="s">
+        <v>626</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>625</v>
+        <v>787</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -6728,8 +7129,14 @@
       <c r="B180" t="s">
         <v>178</v>
       </c>
+      <c r="C180" t="s">
+        <v>629</v>
+      </c>
+      <c r="D180" t="s">
+        <v>626</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>625</v>
+        <v>788</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -6739,8 +7146,11 @@
       <c r="B181" t="s">
         <v>179</v>
       </c>
+      <c r="C181" t="s">
+        <v>681</v>
+      </c>
       <c r="F181" s="2" t="s">
-        <v>625</v>
+        <v>789</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -6750,8 +7160,11 @@
       <c r="B182" t="s">
         <v>180</v>
       </c>
+      <c r="C182" t="s">
+        <v>626</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>625</v>
+        <v>790</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -6761,8 +7174,11 @@
       <c r="B183" t="s">
         <v>181</v>
       </c>
+      <c r="C183" t="s">
+        <v>629</v>
+      </c>
       <c r="F183" s="2" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -6772,8 +7188,11 @@
       <c r="B184" t="s">
         <v>182</v>
       </c>
+      <c r="C184" t="s">
+        <v>629</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>625</v>
+        <v>791</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -6783,8 +7202,11 @@
       <c r="B185" t="s">
         <v>183</v>
       </c>
+      <c r="C185" t="s">
+        <v>629</v>
+      </c>
       <c r="F185" s="2" t="s">
-        <v>625</v>
+        <v>792</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -6794,8 +7216,11 @@
       <c r="B186" t="s">
         <v>184</v>
       </c>
+      <c r="C186" t="s">
+        <v>629</v>
+      </c>
       <c r="F186" s="2" t="s">
-        <v>625</v>
+        <v>793</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -6805,8 +7230,17 @@
       <c r="B187" t="s">
         <v>185</v>
       </c>
+      <c r="C187" t="s">
+        <v>631</v>
+      </c>
+      <c r="D187" t="s">
+        <v>626</v>
+      </c>
+      <c r="E187" t="s">
+        <v>795</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>625</v>
+        <v>794</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -6816,8 +7250,11 @@
       <c r="B188" t="s">
         <v>186</v>
       </c>
+      <c r="C188" t="s">
+        <v>626</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>625</v>
+        <v>796</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -6827,8 +7264,11 @@
       <c r="B189" t="s">
         <v>187</v>
       </c>
+      <c r="C189" t="s">
+        <v>629</v>
+      </c>
       <c r="F189" s="2" t="s">
-        <v>625</v>
+        <v>797</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -6838,8 +7278,11 @@
       <c r="B190" t="s">
         <v>188</v>
       </c>
+      <c r="C190" t="s">
+        <v>626</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>625</v>
+        <v>798</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -6849,8 +7292,11 @@
       <c r="B191" t="s">
         <v>189</v>
       </c>
+      <c r="C191" t="s">
+        <v>626</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>625</v>
+        <v>799</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D421D323-047B-C548-A182-5D144EC1491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B8FB0883-CB6A-2F4E-9226-AB916C4C2B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16160" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1448" uniqueCount="800">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1478" uniqueCount="827">
   <si>
     <t>Issue</t>
   </si>
@@ -3615,6 +3615,327 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]integration_testのIPバージョン
+[Class]テストの改善</t>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なメソッドの削除
+[Class]不要なメソッドの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]スペルチェックの改善
+[Class]機能の改善</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v1 API codeを削除
+[Class]不要なコードの削除</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関数の改善
+[Class]関数の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]libeventの実装を削除
+[Class]不要な機能の削除</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単位記号の接尾辞とスケール値を統一
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]time based statusの削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]date/timeをabsl:Timeに変更
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関数の改善
+[Class]関数の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]quiche:QuicDispatcherでのパケットバッファリングを再度有効にする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのmonolithic mock filesを削除
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要な機能の削除
+[Class]不要な機能の削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの名前変更
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ナマエ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨ツールがクラッシュする
+[Class]バグの修正</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単体テストを追加
+[Class]テストの追加</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">タンタイテスト </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フラグの変更
+[Class]機能の改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]udp:sendto/recvformを削除
+[Class]不要な機能の削除</t>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HttpSettingインターフェイスを追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フラグの追加
+[Class]機能の改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なオプション値を削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウン </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Windowsの起動前チェック
+[Class]機能の改善</t>
+    <rPh sb="17" eb="20">
+      <t xml:space="preserve">キドウマエ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プラットフォーム固有のincludeを移動
+[Class]コードの改善</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">コユウ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]memory of whole structureにはmacro wrapperが必要
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベンチマークがクラッシュする
+[Class]テストの修正</t>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ベンチマークが失敗する
+[Class]テストの修正</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シッパイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ディレクトリの整理
+[Class]ディレクトリの整理</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">セイリ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">セイリ </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -4583,8 +4904,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7306,8 +7627,11 @@
       <c r="B192" t="s">
         <v>190</v>
       </c>
+      <c r="C192" t="s">
+        <v>629</v>
+      </c>
       <c r="F192" s="2" t="s">
-        <v>625</v>
+        <v>800</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -7317,8 +7641,11 @@
       <c r="B193" t="s">
         <v>191</v>
       </c>
+      <c r="C193" t="s">
+        <v>626</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>625</v>
+        <v>801</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -7328,8 +7655,11 @@
       <c r="B194" t="s">
         <v>192</v>
       </c>
+      <c r="C194" t="s">
+        <v>626</v>
+      </c>
       <c r="F194" s="2" t="s">
-        <v>625</v>
+        <v>802</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -7339,8 +7669,11 @@
       <c r="B195" t="s">
         <v>193</v>
       </c>
+      <c r="C195" t="s">
+        <v>626</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>625</v>
+        <v>803</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -7350,8 +7683,11 @@
       <c r="B196" t="s">
         <v>194</v>
       </c>
+      <c r="C196" t="s">
+        <v>626</v>
+      </c>
       <c r="F196" s="2" t="s">
-        <v>625</v>
+        <v>804</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -7361,8 +7697,11 @@
       <c r="B197" t="s">
         <v>195</v>
       </c>
+      <c r="C197" t="s">
+        <v>626</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>625</v>
+        <v>805</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -7372,8 +7711,11 @@
       <c r="B198" t="s">
         <v>196</v>
       </c>
+      <c r="C198" t="s">
+        <v>626</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>625</v>
+        <v>806</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -7383,8 +7725,11 @@
       <c r="B199" t="s">
         <v>197</v>
       </c>
+      <c r="C199" t="s">
+        <v>626</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>625</v>
+        <v>807</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -7394,8 +7739,11 @@
       <c r="B200" t="s">
         <v>198</v>
       </c>
+      <c r="C200" t="s">
+        <v>626</v>
+      </c>
       <c r="F200" s="2" t="s">
-        <v>625</v>
+        <v>808</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
@@ -7405,8 +7753,11 @@
       <c r="B201" t="s">
         <v>199</v>
       </c>
+      <c r="C201" t="s">
+        <v>626</v>
+      </c>
       <c r="F201" s="2" t="s">
-        <v>625</v>
+        <v>809</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -7416,8 +7767,11 @@
       <c r="B202" t="s">
         <v>200</v>
       </c>
+      <c r="C202" t="s">
+        <v>626</v>
+      </c>
       <c r="F202" s="2" t="s">
-        <v>625</v>
+        <v>810</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -7427,8 +7781,11 @@
       <c r="B203" t="s">
         <v>201</v>
       </c>
+      <c r="C203" t="s">
+        <v>629</v>
+      </c>
       <c r="F203" s="2" t="s">
-        <v>625</v>
+        <v>811</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -7438,8 +7795,11 @@
       <c r="B204" t="s">
         <v>202</v>
       </c>
+      <c r="C204" t="s">
+        <v>626</v>
+      </c>
       <c r="F204" s="2" t="s">
-        <v>625</v>
+        <v>812</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -7449,8 +7809,11 @@
       <c r="B205" t="s">
         <v>203</v>
       </c>
+      <c r="C205" t="s">
+        <v>626</v>
+      </c>
       <c r="F205" s="2" t="s">
-        <v>625</v>
+        <v>812</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="42">
@@ -7460,8 +7823,11 @@
       <c r="B206" t="s">
         <v>204</v>
       </c>
+      <c r="C206" t="s">
+        <v>629</v>
+      </c>
       <c r="F206" s="2" t="s">
-        <v>625</v>
+        <v>813</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -7471,8 +7837,11 @@
       <c r="B207" t="s">
         <v>205</v>
       </c>
+      <c r="C207" t="s">
+        <v>626</v>
+      </c>
       <c r="F207" s="2" t="s">
-        <v>625</v>
+        <v>814</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -7482,8 +7851,11 @@
       <c r="B208" t="s">
         <v>206</v>
       </c>
+      <c r="C208" t="s">
+        <v>626</v>
+      </c>
       <c r="F208" s="2" t="s">
-        <v>625</v>
+        <v>812</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="42">
@@ -7493,8 +7865,11 @@
       <c r="B209" t="s">
         <v>207</v>
       </c>
+      <c r="C209" t="s">
+        <v>629</v>
+      </c>
       <c r="F209" s="2" t="s">
-        <v>625</v>
+        <v>815</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -7504,8 +7879,11 @@
       <c r="B210" t="s">
         <v>208</v>
       </c>
+      <c r="C210" t="s">
+        <v>626</v>
+      </c>
       <c r="F210" s="2" t="s">
-        <v>625</v>
+        <v>816</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -7515,8 +7893,11 @@
       <c r="B211" t="s">
         <v>209</v>
       </c>
+      <c r="C211" t="s">
+        <v>626</v>
+      </c>
       <c r="F211" s="2" t="s">
-        <v>625</v>
+        <v>817</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -7526,8 +7907,11 @@
       <c r="B212" t="s">
         <v>210</v>
       </c>
+      <c r="C212" t="s">
+        <v>626</v>
+      </c>
       <c r="F212" s="2" t="s">
-        <v>625</v>
+        <v>818</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -7537,8 +7921,11 @@
       <c r="B213" t="s">
         <v>211</v>
       </c>
+      <c r="C213" t="s">
+        <v>626</v>
+      </c>
       <c r="F213" s="2" t="s">
-        <v>625</v>
+        <v>819</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="42">
@@ -7548,8 +7935,11 @@
       <c r="B214" t="s">
         <v>212</v>
       </c>
+      <c r="C214" t="s">
+        <v>626</v>
+      </c>
       <c r="F214" s="2" t="s">
-        <v>625</v>
+        <v>820</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -7559,8 +7949,11 @@
       <c r="B215" t="s">
         <v>213</v>
       </c>
+      <c r="C215" t="s">
+        <v>626</v>
+      </c>
       <c r="F215" s="2" t="s">
-        <v>625</v>
+        <v>821</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="42">
@@ -7570,8 +7963,11 @@
       <c r="B216" t="s">
         <v>214</v>
       </c>
+      <c r="C216" t="s">
+        <v>626</v>
+      </c>
       <c r="F216" s="2" t="s">
-        <v>625</v>
+        <v>822</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -7581,8 +7977,11 @@
       <c r="B217" t="s">
         <v>215</v>
       </c>
+      <c r="C217" t="s">
+        <v>626</v>
+      </c>
       <c r="F217" s="2" t="s">
-        <v>625</v>
+        <v>823</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42">
@@ -7592,8 +7991,11 @@
       <c r="B218" t="s">
         <v>216</v>
       </c>
+      <c r="C218" t="s">
+        <v>629</v>
+      </c>
       <c r="F218" s="2" t="s">
-        <v>625</v>
+        <v>824</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -7603,8 +8005,11 @@
       <c r="B219" t="s">
         <v>217</v>
       </c>
+      <c r="C219" t="s">
+        <v>629</v>
+      </c>
       <c r="F219" s="2" t="s">
-        <v>625</v>
+        <v>825</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -7614,8 +8019,11 @@
       <c r="B220" t="s">
         <v>218</v>
       </c>
+      <c r="C220" t="s">
+        <v>629</v>
+      </c>
       <c r="F220" s="2" t="s">
-        <v>625</v>
+        <v>825</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
@@ -7625,8 +8033,11 @@
       <c r="B221" t="s">
         <v>219</v>
       </c>
+      <c r="C221" t="s">
+        <v>626</v>
+      </c>
       <c r="F221" s="2" t="s">
-        <v>625</v>
+        <v>826</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B8FB0883-CB6A-2F4E-9226-AB916C4C2B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{22CF89B1-BC9E-5045-9BBE-B1E7106778C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16160" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1478" uniqueCount="827">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1509" uniqueCount="858">
   <si>
     <t>Issue</t>
   </si>
@@ -3936,6 +3936,403 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t xml:space="preserve">セイリ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]fmt::formatをabseilに置き換え
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RTDSのためのリソースを確保する必要がある
+[Class]機能の改善</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ジカクホスルヒツヨウガアル </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関数を新しいものに更新
+[Class]関数の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カンスウヲ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">アタラシイモノニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Hystrixの改善
+[Class]機能の改善</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]responseDataTooLargeに新しい機能を適用
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パフォーマンスの改善
+[Class]パフォーマンスの改善</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なオプションの削除
+[Class]不要なオプションの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ヘッダの制約に関する重大な変更
+[Class]コードの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">セイヤク </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ジュウダイナ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]prefix_rewriteとhost_rewriteでASSERTエラーが発生する
+[Class]機能の改善</t>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">キノウノカイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]APIをアップグレード
+[Class]機能の改善</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]YAML/JSONファイルでの明示的なバージョン管理
+[Class]機能の改善</t>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">メイジテキナ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]x-envoy-attempt-countの単体テストを追加
+[Class]テストの追加</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">タンタイテスト </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]StatNameJoinPoolを追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]min_lenに切り替え
+[Class]機能の改善</t>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">キリカエ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Envoy protoはopencensus protoに依存するべきではない
+[Class]依存関係の改善</t>
+    <rPh sb="56" eb="60">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]プロキシドライバの依存関係
+[Class]依存関係の改善</t>
+    <rPh sb="18" eb="22">
+      <t xml:space="preserve">イソンカンケイ </t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t xml:space="preserve">イソンカンケイ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]タイプミスのパターンを探すフィルターを追加，単体テストの追加
+[Class]機能の追加，テストの追加</t>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">サガス </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">タンタイテストノ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">キノウノツイカ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v2 APIテストフラグメントをv3に変更
+[Class]テストの改善</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]HTTPフィルターのFilterConfigを導入
+[Class]機能の追加</t>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ドウニュウ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]implをクリーンアップ
+[Class]機能の改善</t>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのモックライブラリを削除しリソース消費を削減
+[Class]テストの改善</t>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">サクゲン </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]build_*ディレクトリを使用するとvenvで問題となる場合がある
+[Class]機能の改善</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">シヨウスルト </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TCP接続プールとHTTP接続プール間でコードを共有する
+[Class]コードの改善</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">セツゾク </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">セツゾク </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">キョウユウスル </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エイリアスの変更
+[Class]機能の改善</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]結合テストをクリーンアップ
+[Class]テストの改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ケツゴウ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]win32 Filesystem implをwin32 APIに変更
+[Class]機能の改善</t>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンテナの使用に関するクリーンアップの提案
+[Class]機能の改善</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">シヨウニ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">カンスル </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">テイアン </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]関数の使使用方法が安全ではない
+[Class]関数の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">シヨウガ </t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t xml:space="preserve">シヨウホウホウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">アンゼンデハナイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのstd::unordered_mapをabsl::node_hash_mapに置き換える
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の機能
+[Class]機能の改善</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウノキノウン </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カイゼン </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -4904,8 +5301,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F252" sqref="F252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8047,8 +8444,11 @@
       <c r="B222" t="s">
         <v>220</v>
       </c>
+      <c r="C222" t="s">
+        <v>626</v>
+      </c>
       <c r="F222" s="2" t="s">
-        <v>625</v>
+        <v>827</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="42">
@@ -8058,8 +8458,11 @@
       <c r="B223" t="s">
         <v>221</v>
       </c>
+      <c r="C223" t="s">
+        <v>626</v>
+      </c>
       <c r="F223" s="2" t="s">
-        <v>625</v>
+        <v>828</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="42">
@@ -8069,8 +8472,11 @@
       <c r="B224" t="s">
         <v>222</v>
       </c>
+      <c r="C224" t="s">
+        <v>626</v>
+      </c>
       <c r="F224" s="2" t="s">
-        <v>625</v>
+        <v>829</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="42">
@@ -8080,8 +8486,11 @@
       <c r="B225" t="s">
         <v>223</v>
       </c>
+      <c r="C225" t="s">
+        <v>626</v>
+      </c>
       <c r="F225" s="2" t="s">
-        <v>625</v>
+        <v>830</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="42">
@@ -8091,8 +8500,11 @@
       <c r="B226" t="s">
         <v>224</v>
       </c>
+      <c r="C226" t="s">
+        <v>626</v>
+      </c>
       <c r="F226" s="2" t="s">
-        <v>625</v>
+        <v>831</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42">
@@ -8102,8 +8514,11 @@
       <c r="B227" t="s">
         <v>225</v>
       </c>
+      <c r="C227" t="s">
+        <v>832</v>
+      </c>
       <c r="F227" s="2" t="s">
-        <v>625</v>
+        <v>833</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="42">
@@ -8113,8 +8528,11 @@
       <c r="B228" t="s">
         <v>226</v>
       </c>
+      <c r="C228" t="s">
+        <v>626</v>
+      </c>
       <c r="F228" s="2" t="s">
-        <v>625</v>
+        <v>834</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="42">
@@ -8124,8 +8542,11 @@
       <c r="B229" t="s">
         <v>227</v>
       </c>
+      <c r="C229" t="s">
+        <v>626</v>
+      </c>
       <c r="F229" s="2" t="s">
-        <v>625</v>
+        <v>835</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="42">
@@ -8135,8 +8556,11 @@
       <c r="B230" t="s">
         <v>228</v>
       </c>
+      <c r="C230" t="s">
+        <v>626</v>
+      </c>
       <c r="F230" s="2" t="s">
-        <v>625</v>
+        <v>836</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="42">
@@ -8146,8 +8570,11 @@
       <c r="B231" t="s">
         <v>229</v>
       </c>
+      <c r="C231" t="s">
+        <v>626</v>
+      </c>
       <c r="F231" s="2" t="s">
-        <v>625</v>
+        <v>837</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42">
@@ -8157,8 +8584,11 @@
       <c r="B232" t="s">
         <v>230</v>
       </c>
+      <c r="C232" t="s">
+        <v>626</v>
+      </c>
       <c r="F232" s="2" t="s">
-        <v>625</v>
+        <v>838</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="42">
@@ -8168,8 +8598,11 @@
       <c r="B233" t="s">
         <v>231</v>
       </c>
+      <c r="C233" t="s">
+        <v>629</v>
+      </c>
       <c r="F233" s="2" t="s">
-        <v>625</v>
+        <v>839</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="42">
@@ -8179,8 +8612,11 @@
       <c r="B234" t="s">
         <v>232</v>
       </c>
+      <c r="C234" t="s">
+        <v>626</v>
+      </c>
       <c r="F234" s="2" t="s">
-        <v>625</v>
+        <v>840</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="42">
@@ -8190,8 +8626,11 @@
       <c r="B235" t="s">
         <v>233</v>
       </c>
+      <c r="C235" t="s">
+        <v>626</v>
+      </c>
       <c r="F235" s="2" t="s">
-        <v>625</v>
+        <v>841</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="42">
@@ -8201,8 +8640,11 @@
       <c r="B236" t="s">
         <v>234</v>
       </c>
+      <c r="C236" t="s">
+        <v>626</v>
+      </c>
       <c r="F236" s="2" t="s">
-        <v>625</v>
+        <v>842</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="42">
@@ -8212,8 +8654,11 @@
       <c r="B237" t="s">
         <v>235</v>
       </c>
+      <c r="C237" t="s">
+        <v>626</v>
+      </c>
       <c r="F237" s="2" t="s">
-        <v>625</v>
+        <v>843</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="42">
@@ -8223,8 +8668,14 @@
       <c r="B238" t="s">
         <v>236</v>
       </c>
+      <c r="C238" t="s">
+        <v>626</v>
+      </c>
+      <c r="D238" t="s">
+        <v>629</v>
+      </c>
       <c r="F238" s="2" t="s">
-        <v>625</v>
+        <v>844</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="42">
@@ -8234,8 +8685,11 @@
       <c r="B239" t="s">
         <v>237</v>
       </c>
+      <c r="C239" t="s">
+        <v>629</v>
+      </c>
       <c r="F239" s="2" t="s">
-        <v>625</v>
+        <v>845</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="42">
@@ -8245,8 +8699,11 @@
       <c r="B240" t="s">
         <v>238</v>
       </c>
+      <c r="C240" t="s">
+        <v>626</v>
+      </c>
       <c r="F240" s="2" t="s">
-        <v>625</v>
+        <v>846</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="42">
@@ -8256,8 +8713,11 @@
       <c r="B241" t="s">
         <v>239</v>
       </c>
+      <c r="C241" t="s">
+        <v>626</v>
+      </c>
       <c r="F241" s="2" t="s">
-        <v>625</v>
+        <v>847</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="42">
@@ -8267,8 +8727,11 @@
       <c r="B242" t="s">
         <v>240</v>
       </c>
+      <c r="C242" t="s">
+        <v>629</v>
+      </c>
       <c r="F242" s="2" t="s">
-        <v>625</v>
+        <v>848</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="42">
@@ -8278,8 +8741,11 @@
       <c r="B243" t="s">
         <v>241</v>
       </c>
+      <c r="C243" t="s">
+        <v>626</v>
+      </c>
       <c r="F243" s="2" t="s">
-        <v>625</v>
+        <v>849</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="42">
@@ -8289,8 +8755,11 @@
       <c r="B244" t="s">
         <v>242</v>
       </c>
+      <c r="C244" t="s">
+        <v>626</v>
+      </c>
       <c r="F244" s="2" t="s">
-        <v>625</v>
+        <v>850</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="42">
@@ -8300,8 +8769,11 @@
       <c r="B245" t="s">
         <v>243</v>
       </c>
+      <c r="C245" t="s">
+        <v>626</v>
+      </c>
       <c r="F245" s="2" t="s">
-        <v>625</v>
+        <v>851</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="42">
@@ -8311,8 +8783,11 @@
       <c r="B246" t="s">
         <v>244</v>
       </c>
+      <c r="C246" t="s">
+        <v>629</v>
+      </c>
       <c r="F246" s="2" t="s">
-        <v>625</v>
+        <v>852</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="42">
@@ -8322,8 +8797,11 @@
       <c r="B247" t="s">
         <v>245</v>
       </c>
+      <c r="C247" t="s">
+        <v>626</v>
+      </c>
       <c r="F247" s="2" t="s">
-        <v>625</v>
+        <v>853</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="42">
@@ -8333,8 +8811,11 @@
       <c r="B248" t="s">
         <v>246</v>
       </c>
+      <c r="C248" t="s">
+        <v>626</v>
+      </c>
       <c r="F248" s="2" t="s">
-        <v>625</v>
+        <v>854</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="42">
@@ -8344,8 +8825,11 @@
       <c r="B249" t="s">
         <v>247</v>
       </c>
+      <c r="C249" t="s">
+        <v>626</v>
+      </c>
       <c r="F249" s="2" t="s">
-        <v>625</v>
+        <v>855</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="42">
@@ -8355,8 +8839,11 @@
       <c r="B250" t="s">
         <v>248</v>
       </c>
+      <c r="C250" t="s">
+        <v>629</v>
+      </c>
       <c r="F250" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="42">
@@ -8366,8 +8853,11 @@
       <c r="B251" t="s">
         <v>249</v>
       </c>
+      <c r="C251" t="s">
+        <v>626</v>
+      </c>
       <c r="F251" s="2" t="s">
-        <v>625</v>
+        <v>857</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{22CF89B1-BC9E-5045-9BBE-B1E7106778C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F24677AF-9DF8-0342-BED2-D4CF22DC9B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16160" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1509" uniqueCount="858">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1549" uniqueCount="875">
   <si>
     <t>Issue</t>
   </si>
@@ -813,9 +813,6 @@
     <t>https://github.com/envoyproxy/envoy/issues/11998</t>
   </si>
   <si>
-    <t>https://github.com/envoyproxy/envoy/issues/11999</t>
-  </si>
-  <si>
     <t>https://github.com/envoyproxy/envoy/issues/12003</t>
   </si>
   <si>
@@ -835,9 +832,6 @@
   </si>
   <si>
     <t>https://github.com/envoyproxy/envoy/issues/12084</t>
-  </si>
-  <si>
-    <t>https://github.com/envoyproxy/envoy/issues/12297</t>
   </si>
   <si>
     <t>https://github.com/envoyproxy/envoy/issues/12314</t>
@@ -4332,6 +4326,225 @@
       <t xml:space="preserve">キノウノ </t>
     </rPh>
     <rPh sb="26" eb="28">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの追加
+[Class]テストの追加</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テストノ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/envoyproxy/envoy/issues/11999</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ネットワーク層のテストの変更
+[Class]テストの改善</t>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]docker CIジョブの実行
+[Class]テストの改善</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ジッコウ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/envoyproxy/envoy/issues/12297</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CIテストの追加
+[Class]テストの追加</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能の置き換え
+[Class]機能の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content].first/.secondの名前を置き換え
+[Class]コンポーネントの名称変更</t>
+    <rPh sb="27" eb="28">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t xml:space="preserve">メイショウヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]envoyヘッダファイルで例外をスローしない
+[Class]機能の改善</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">レイガイヲ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]lightstep-tracer-cpp依存バージョンを更新
+[Class]機能の更新</t>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">イソン </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト用のTLS証明書の生成
+[Class]テストの改善</t>
+    <rPh sb="17" eb="20">
+      <t xml:space="preserve">ショウメイショ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの重複したコードの削除
+[Class]テストの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">チョウフクシタコードノ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]underlying dns resolverの再利用
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨なコードの削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウナ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]StreamDecoderWrapperが紛らわしい
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SDSサブスクリプションがinit targetにない
+[Class]機能の修正</t>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]アドレスを変更する時の処理の監査
+[Class]機能の改善</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">ショリノ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">カンサ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メモリ割り当ての削除
+[Class]機能の改善</t>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ワリアテノ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]docker:bazelでsu-exeをビルドしてdockerに配置
+[Class]dockerビルドの改善</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">ハイチ </t>
+    </rPh>
+    <rPh sb="61" eb="63">
       <t xml:space="preserve">カイゼン </t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -5301,8 +5514,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F252" sqref="F252"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F291" sqref="F291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5321,13 +5534,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="E1" t="s">
-        <v>623</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42">
@@ -5338,10 +5551,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -5352,10 +5565,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>624</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -5366,10 +5579,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -5380,10 +5593,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -5394,10 +5607,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -5408,10 +5621,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
@@ -5422,10 +5635,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -5436,10 +5649,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -5450,10 +5663,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -5464,10 +5677,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -5478,13 +5691,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -5495,10 +5708,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -5509,10 +5722,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -5523,10 +5736,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -5537,10 +5750,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -5551,10 +5764,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -5565,10 +5778,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -5579,10 +5792,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -5593,10 +5806,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -5607,10 +5820,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -5621,10 +5834,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -5635,10 +5848,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -5649,10 +5862,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -5663,10 +5876,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -5677,10 +5890,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -5691,10 +5904,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -5705,10 +5918,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -5719,13 +5932,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D29" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -5736,10 +5949,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -5750,10 +5963,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -5764,10 +5977,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -5778,10 +5991,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -5792,10 +6005,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -5806,10 +6019,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -5820,10 +6033,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -5834,10 +6047,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -5848,10 +6061,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -5862,10 +6075,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -5876,10 +6089,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -5890,10 +6103,10 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -5904,10 +6117,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -5918,10 +6131,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -5932,10 +6145,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -5946,10 +6159,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -5960,10 +6173,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -5974,10 +6187,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -5988,10 +6201,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -6002,10 +6215,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -6016,10 +6229,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -6030,10 +6243,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -6044,16 +6257,16 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
+        <v>679</v>
+      </c>
+      <c r="D52" t="s">
+        <v>624</v>
+      </c>
+      <c r="E52" t="s">
         <v>681</v>
       </c>
-      <c r="D52" t="s">
-        <v>626</v>
-      </c>
-      <c r="E52" t="s">
-        <v>683</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -6064,10 +6277,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -6078,10 +6291,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -6092,10 +6305,10 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -6106,10 +6319,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -6120,10 +6333,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -6134,10 +6347,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -6148,10 +6361,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -6162,10 +6375,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -6176,10 +6389,10 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -6190,10 +6403,10 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -6204,10 +6417,10 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -6218,10 +6431,10 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -6229,13 +6442,13 @@
         <v>2904</v>
       </c>
       <c r="B65" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C65" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -6246,10 +6459,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -6260,10 +6473,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -6274,10 +6487,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -6288,10 +6501,10 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -6302,10 +6515,10 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -6316,10 +6529,10 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -6330,10 +6543,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -6344,10 +6557,10 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -6358,10 +6571,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -6372,10 +6585,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -6386,10 +6599,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -6400,10 +6613,10 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -6414,10 +6627,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -6428,10 +6641,10 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -6442,10 +6655,10 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -6456,10 +6669,10 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -6470,10 +6683,10 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -6484,10 +6697,10 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -6498,10 +6711,10 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -6512,10 +6725,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -6526,10 +6739,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -6540,10 +6753,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -6554,10 +6767,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -6568,10 +6781,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -6582,10 +6795,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -6596,10 +6809,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -6610,10 +6823,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -6624,10 +6837,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -6638,10 +6851,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -6652,10 +6865,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -6666,10 +6879,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -6680,10 +6893,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -6694,10 +6907,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -6708,10 +6921,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -6722,10 +6935,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
@@ -6736,10 +6949,10 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -6750,10 +6963,10 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -6764,10 +6977,10 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -6778,10 +6991,10 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -6792,10 +7005,10 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -6806,10 +7019,10 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -6820,10 +7033,10 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -6834,10 +7047,10 @@
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -6845,13 +7058,13 @@
         <v>4623</v>
       </c>
       <c r="B109" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C109" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -6862,10 +7075,10 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -6876,10 +7089,10 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -6890,10 +7103,10 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -6904,10 +7117,10 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -6918,10 +7131,10 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -6932,10 +7145,10 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -6946,10 +7159,10 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -6960,10 +7173,10 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -6974,10 +7187,10 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -6988,10 +7201,10 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -7002,10 +7215,10 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -7016,10 +7229,10 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">
@@ -7030,10 +7243,10 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -7044,10 +7257,10 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -7058,10 +7271,10 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -7072,10 +7285,10 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -7086,10 +7299,10 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -7100,10 +7313,10 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -7114,10 +7327,10 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -7128,10 +7341,10 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -7142,10 +7355,10 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -7156,10 +7369,10 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -7170,10 +7383,10 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -7184,10 +7397,10 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -7198,10 +7411,10 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -7212,10 +7425,10 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -7226,10 +7439,10 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -7240,10 +7453,10 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -7254,10 +7467,10 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -7268,10 +7481,10 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -7282,10 +7495,10 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -7296,10 +7509,10 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -7310,10 +7523,10 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -7324,10 +7537,10 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -7338,10 +7551,10 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -7352,10 +7565,10 @@
         <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -7366,10 +7579,10 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -7380,10 +7593,10 @@
         <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -7394,10 +7607,10 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -7408,10 +7621,10 @@
         <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -7422,10 +7635,10 @@
         <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -7436,10 +7649,10 @@
         <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -7450,13 +7663,13 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D152" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -7467,10 +7680,10 @@
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -7481,10 +7694,10 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -7495,10 +7708,10 @@
         <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -7509,10 +7722,10 @@
         <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -7523,10 +7736,10 @@
         <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -7537,10 +7750,10 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -7551,10 +7764,10 @@
         <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -7565,10 +7778,10 @@
         <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -7579,10 +7792,10 @@
         <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -7593,10 +7806,10 @@
         <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -7607,10 +7820,10 @@
         <v>161</v>
       </c>
       <c r="C163" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -7621,10 +7834,10 @@
         <v>162</v>
       </c>
       <c r="C164" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -7635,10 +7848,10 @@
         <v>163</v>
       </c>
       <c r="C165" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -7649,10 +7862,10 @@
         <v>164</v>
       </c>
       <c r="C166" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -7663,10 +7876,10 @@
         <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -7677,10 +7890,10 @@
         <v>166</v>
       </c>
       <c r="C168" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -7691,10 +7904,10 @@
         <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -7705,10 +7918,10 @@
         <v>168</v>
       </c>
       <c r="C170" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -7719,10 +7932,10 @@
         <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -7733,10 +7946,10 @@
         <v>170</v>
       </c>
       <c r="C172" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -7747,10 +7960,10 @@
         <v>171</v>
       </c>
       <c r="C173" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -7761,10 +7974,10 @@
         <v>172</v>
       </c>
       <c r="C174" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -7775,10 +7988,10 @@
         <v>173</v>
       </c>
       <c r="C175" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -7789,13 +8002,13 @@
         <v>174</v>
       </c>
       <c r="C176" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D176" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -7806,10 +8019,10 @@
         <v>175</v>
       </c>
       <c r="C177" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -7820,10 +8033,10 @@
         <v>176</v>
       </c>
       <c r="C178" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -7834,10 +8047,10 @@
         <v>177</v>
       </c>
       <c r="C179" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -7848,13 +8061,13 @@
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D180" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -7865,10 +8078,10 @@
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -7879,10 +8092,10 @@
         <v>180</v>
       </c>
       <c r="C182" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -7893,10 +8106,10 @@
         <v>181</v>
       </c>
       <c r="C183" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -7907,10 +8120,10 @@
         <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -7921,10 +8134,10 @@
         <v>183</v>
       </c>
       <c r="C185" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -7935,10 +8148,10 @@
         <v>184</v>
       </c>
       <c r="C186" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -7949,16 +8162,16 @@
         <v>185</v>
       </c>
       <c r="C187" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D187" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E187" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -7969,10 +8182,10 @@
         <v>186</v>
       </c>
       <c r="C188" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -7983,10 +8196,10 @@
         <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -7997,10 +8210,10 @@
         <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -8011,10 +8224,10 @@
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -8025,10 +8238,10 @@
         <v>190</v>
       </c>
       <c r="C192" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -8039,10 +8252,10 @@
         <v>191</v>
       </c>
       <c r="C193" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -8053,10 +8266,10 @@
         <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -8067,10 +8280,10 @@
         <v>193</v>
       </c>
       <c r="C195" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -8081,10 +8294,10 @@
         <v>194</v>
       </c>
       <c r="C196" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -8095,10 +8308,10 @@
         <v>195</v>
       </c>
       <c r="C197" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -8109,10 +8322,10 @@
         <v>196</v>
       </c>
       <c r="C198" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -8123,10 +8336,10 @@
         <v>197</v>
       </c>
       <c r="C199" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -8137,10 +8350,10 @@
         <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
@@ -8151,10 +8364,10 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -8165,10 +8378,10 @@
         <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -8179,10 +8392,10 @@
         <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -8193,10 +8406,10 @@
         <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -8207,10 +8420,10 @@
         <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="42">
@@ -8221,10 +8434,10 @@
         <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -8235,10 +8448,10 @@
         <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -8249,10 +8462,10 @@
         <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="42">
@@ -8263,10 +8476,10 @@
         <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -8277,10 +8490,10 @@
         <v>208</v>
       </c>
       <c r="C210" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -8291,10 +8504,10 @@
         <v>209</v>
       </c>
       <c r="C211" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -8305,10 +8518,10 @@
         <v>210</v>
       </c>
       <c r="C212" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -8319,10 +8532,10 @@
         <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="42">
@@ -8333,10 +8546,10 @@
         <v>212</v>
       </c>
       <c r="C214" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -8347,10 +8560,10 @@
         <v>213</v>
       </c>
       <c r="C215" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="42">
@@ -8361,10 +8574,10 @@
         <v>214</v>
       </c>
       <c r="C216" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -8375,10 +8588,10 @@
         <v>215</v>
       </c>
       <c r="C217" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42">
@@ -8389,10 +8602,10 @@
         <v>216</v>
       </c>
       <c r="C218" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -8403,10 +8616,10 @@
         <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -8417,10 +8630,10 @@
         <v>218</v>
       </c>
       <c r="C220" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
@@ -8431,10 +8644,10 @@
         <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="42">
@@ -8445,10 +8658,10 @@
         <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="42">
@@ -8459,10 +8672,10 @@
         <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="42">
@@ -8473,10 +8686,10 @@
         <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="42">
@@ -8487,10 +8700,10 @@
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="42">
@@ -8501,10 +8714,10 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42">
@@ -8515,10 +8728,10 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="42">
@@ -8529,10 +8742,10 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="42">
@@ -8543,10 +8756,10 @@
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="42">
@@ -8557,10 +8770,10 @@
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="42">
@@ -8571,10 +8784,10 @@
         <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42">
@@ -8585,10 +8798,10 @@
         <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="42">
@@ -8599,10 +8812,10 @@
         <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="42">
@@ -8613,10 +8826,10 @@
         <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="42">
@@ -8627,10 +8840,10 @@
         <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="42">
@@ -8641,10 +8854,10 @@
         <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="42">
@@ -8655,10 +8868,10 @@
         <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="42">
@@ -8669,13 +8882,13 @@
         <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D238" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="42">
@@ -8686,10 +8899,10 @@
         <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="42">
@@ -8700,10 +8913,10 @@
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="42">
@@ -8714,10 +8927,10 @@
         <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="42">
@@ -8728,10 +8941,10 @@
         <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="42">
@@ -8742,10 +8955,10 @@
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="42">
@@ -8756,10 +8969,10 @@
         <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="42">
@@ -8770,10 +8983,10 @@
         <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="42">
@@ -8784,10 +8997,10 @@
         <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="42">
@@ -8798,10 +9011,10 @@
         <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="42">
@@ -8812,10 +9025,10 @@
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="42">
@@ -8826,10 +9039,10 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="42">
@@ -8840,10 +9053,10 @@
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="42">
@@ -8854,10 +9067,10 @@
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="42">
@@ -8867,8 +9080,11 @@
       <c r="B252" t="s">
         <v>250</v>
       </c>
+      <c r="C252" t="s">
+        <v>624</v>
+      </c>
       <c r="F252" s="2" t="s">
-        <v>625</v>
+        <v>855</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="42">
@@ -8878,8 +9094,11 @@
       <c r="B253" t="s">
         <v>251</v>
       </c>
+      <c r="C253" t="s">
+        <v>624</v>
+      </c>
       <c r="F253" s="2" t="s">
-        <v>625</v>
+        <v>855</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="42">
@@ -8889,8 +9108,11 @@
       <c r="B254" t="s">
         <v>252</v>
       </c>
+      <c r="C254" t="s">
+        <v>624</v>
+      </c>
       <c r="F254" s="2" t="s">
-        <v>625</v>
+        <v>855</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="42">
@@ -8900,8 +9122,11 @@
       <c r="B255" t="s">
         <v>253</v>
       </c>
+      <c r="C255" t="s">
+        <v>627</v>
+      </c>
       <c r="F255" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="42">
@@ -8911,8 +9136,11 @@
       <c r="B256" t="s">
         <v>254</v>
       </c>
+      <c r="C256" t="s">
+        <v>627</v>
+      </c>
       <c r="F256" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="42">
@@ -8922,8 +9150,11 @@
       <c r="B257" t="s">
         <v>255</v>
       </c>
+      <c r="C257" t="s">
+        <v>627</v>
+      </c>
       <c r="F257" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="42">
@@ -8933,8 +9164,11 @@
       <c r="B258" t="s">
         <v>256</v>
       </c>
+      <c r="C258" t="s">
+        <v>627</v>
+      </c>
       <c r="F258" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="42">
@@ -8944,8 +9178,11 @@
       <c r="B259" t="s">
         <v>257</v>
       </c>
+      <c r="C259" t="s">
+        <v>627</v>
+      </c>
       <c r="F259" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="42">
@@ -8955,8 +9192,11 @@
       <c r="B260" t="s">
         <v>258</v>
       </c>
+      <c r="C260" t="s">
+        <v>627</v>
+      </c>
       <c r="F260" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="42">
@@ -8966,8 +9206,11 @@
       <c r="B261" t="s">
         <v>259</v>
       </c>
+      <c r="C261" t="s">
+        <v>627</v>
+      </c>
       <c r="F261" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="42">
@@ -8977,8 +9220,11 @@
       <c r="B262" t="s">
         <v>260</v>
       </c>
+      <c r="C262" t="s">
+        <v>627</v>
+      </c>
       <c r="F262" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="42">
@@ -8988,8 +9234,11 @@
       <c r="B263" t="s">
         <v>261</v>
       </c>
+      <c r="C263" t="s">
+        <v>627</v>
+      </c>
       <c r="F263" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="42">
@@ -8997,10 +9246,13 @@
         <v>11999</v>
       </c>
       <c r="B264" t="s">
-        <v>262</v>
+        <v>857</v>
+      </c>
+      <c r="C264" t="s">
+        <v>627</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="42">
@@ -9008,10 +9260,13 @@
         <v>12003</v>
       </c>
       <c r="B265" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="C265" t="s">
+        <v>627</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="42">
@@ -9019,10 +9274,13 @@
         <v>12004</v>
       </c>
       <c r="B266" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="C266" t="s">
+        <v>627</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="42">
@@ -9030,10 +9288,13 @@
         <v>12005</v>
       </c>
       <c r="B267" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="C267" t="s">
+        <v>627</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="42">
@@ -9041,10 +9302,13 @@
         <v>12006</v>
       </c>
       <c r="B268" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="C268" t="s">
+        <v>627</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="42">
@@ -9052,10 +9316,13 @@
         <v>12007</v>
       </c>
       <c r="B269" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="C269" t="s">
+        <v>627</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="42">
@@ -9063,10 +9330,13 @@
         <v>12008</v>
       </c>
       <c r="B270" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="C270" t="s">
+        <v>627</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="42">
@@ -9074,10 +9344,13 @@
         <v>12084</v>
       </c>
       <c r="B271" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="C271" t="s">
+        <v>627</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>625</v>
+        <v>858</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="42">
@@ -9085,10 +9358,13 @@
         <v>12297</v>
       </c>
       <c r="B272" t="s">
-        <v>270</v>
+        <v>860</v>
+      </c>
+      <c r="C272" t="s">
+        <v>627</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>625</v>
+        <v>859</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="42">
@@ -9096,10 +9372,13 @@
         <v>12314</v>
       </c>
       <c r="B273" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="C273" t="s">
+        <v>627</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>625</v>
+        <v>861</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="42">
@@ -9107,10 +9386,13 @@
         <v>12341</v>
       </c>
       <c r="B274" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="C274" t="s">
+        <v>624</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>625</v>
+        <v>862</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="42">
@@ -9118,10 +9400,13 @@
         <v>12354</v>
       </c>
       <c r="B275" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="C275" t="s">
+        <v>624</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>625</v>
+        <v>863</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="42">
@@ -9129,10 +9414,13 @@
         <v>12469</v>
       </c>
       <c r="B276" t="s">
-        <v>274</v>
+        <v>272</v>
+      </c>
+      <c r="C276" t="s">
+        <v>624</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>625</v>
+        <v>864</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="42">
@@ -9140,10 +9428,13 @@
         <v>12750</v>
       </c>
       <c r="B277" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="C277" t="s">
+        <v>624</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>625</v>
+        <v>865</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="42">
@@ -9151,10 +9442,13 @@
         <v>12752</v>
       </c>
       <c r="B278" t="s">
-        <v>276</v>
+        <v>274</v>
+      </c>
+      <c r="C278" t="s">
+        <v>627</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>625</v>
+        <v>866</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="42">
@@ -9162,10 +9456,13 @@
         <v>12840</v>
       </c>
       <c r="B279" t="s">
-        <v>277</v>
+        <v>275</v>
+      </c>
+      <c r="C279" t="s">
+        <v>627</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>625</v>
+        <v>867</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="42">
@@ -9173,10 +9470,13 @@
         <v>13032</v>
       </c>
       <c r="B280" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="C280" t="s">
+        <v>627</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="42">
@@ -9184,10 +9484,13 @@
         <v>13033</v>
       </c>
       <c r="B281" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+      <c r="C281" t="s">
+        <v>627</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="42">
@@ -9195,10 +9498,13 @@
         <v>13034</v>
       </c>
       <c r="B282" t="s">
-        <v>280</v>
+        <v>278</v>
+      </c>
+      <c r="C282" t="s">
+        <v>627</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>625</v>
+        <v>856</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="42">
@@ -9206,10 +9512,13 @@
         <v>13321</v>
       </c>
       <c r="B283" t="s">
-        <v>281</v>
+        <v>279</v>
+      </c>
+      <c r="C283" t="s">
+        <v>624</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>625</v>
+        <v>868</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="42">
@@ -9217,10 +9526,13 @@
         <v>13445</v>
       </c>
       <c r="B284" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="C284" t="s">
+        <v>624</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>625</v>
+        <v>869</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="42">
@@ -9228,10 +9540,13 @@
         <v>13446</v>
       </c>
       <c r="B285" t="s">
-        <v>283</v>
+        <v>281</v>
+      </c>
+      <c r="C285" t="s">
+        <v>624</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>625</v>
+        <v>869</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="42">
@@ -9239,10 +9554,13 @@
         <v>13537</v>
       </c>
       <c r="B286" t="s">
-        <v>284</v>
+        <v>282</v>
+      </c>
+      <c r="C286" t="s">
+        <v>624</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>625</v>
+        <v>870</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="42">
@@ -9250,10 +9568,13 @@
         <v>13952</v>
       </c>
       <c r="B287" t="s">
-        <v>285</v>
+        <v>283</v>
+      </c>
+      <c r="C287" t="s">
+        <v>624</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>625</v>
+        <v>871</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="42">
@@ -9261,10 +9582,13 @@
         <v>14133</v>
       </c>
       <c r="B288" t="s">
-        <v>286</v>
+        <v>284</v>
+      </c>
+      <c r="C288" t="s">
+        <v>624</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>625</v>
+        <v>872</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="42">
@@ -9272,10 +9596,13 @@
         <v>14307</v>
       </c>
       <c r="B289" t="s">
-        <v>287</v>
+        <v>285</v>
+      </c>
+      <c r="C289" t="s">
+        <v>624</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>625</v>
+        <v>873</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="42">
@@ -9283,10 +9610,13 @@
         <v>14454</v>
       </c>
       <c r="B290" t="s">
-        <v>288</v>
+        <v>286</v>
+      </c>
+      <c r="C290" t="s">
+        <v>760</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>625</v>
+        <v>874</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="42">
@@ -9294,10 +9624,13 @@
         <v>14639</v>
       </c>
       <c r="B291" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="C291" t="s">
+        <v>624</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>625</v>
+        <v>869</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="42">
@@ -9305,10 +9638,10 @@
         <v>14640</v>
       </c>
       <c r="B292" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="42">
@@ -9316,10 +9649,10 @@
         <v>14641</v>
       </c>
       <c r="B293" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="42">
@@ -9327,10 +9660,10 @@
         <v>14642</v>
       </c>
       <c r="B294" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="42">
@@ -9338,10 +9671,10 @@
         <v>14643</v>
       </c>
       <c r="B295" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="42">
@@ -9349,10 +9682,10 @@
         <v>14644</v>
       </c>
       <c r="B296" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="42">
@@ -9360,10 +9693,10 @@
         <v>14645</v>
       </c>
       <c r="B297" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="42">
@@ -9371,10 +9704,10 @@
         <v>14646</v>
       </c>
       <c r="B298" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="42">
@@ -9382,10 +9715,10 @@
         <v>14647</v>
       </c>
       <c r="B299" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42">
@@ -9393,10 +9726,10 @@
         <v>14648</v>
       </c>
       <c r="B300" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42">
@@ -9404,10 +9737,10 @@
         <v>14649</v>
       </c>
       <c r="B301" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="42">
@@ -9415,10 +9748,10 @@
         <v>14650</v>
       </c>
       <c r="B302" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="42">
@@ -9426,10 +9759,10 @@
         <v>14651</v>
       </c>
       <c r="B303" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="42">
@@ -9437,10 +9770,10 @@
         <v>14894</v>
       </c>
       <c r="B304" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="42">
@@ -9448,10 +9781,10 @@
         <v>15081</v>
       </c>
       <c r="B305" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="42">
@@ -9459,10 +9792,10 @@
         <v>15126</v>
       </c>
       <c r="B306" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="42">
@@ -9470,10 +9803,10 @@
         <v>15232</v>
       </c>
       <c r="B307" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="42">
@@ -9481,10 +9814,10 @@
         <v>15239</v>
       </c>
       <c r="B308" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="42">
@@ -9492,10 +9825,10 @@
         <v>15320</v>
       </c>
       <c r="B309" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="42">
@@ -9503,10 +9836,10 @@
         <v>15336</v>
       </c>
       <c r="B310" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="42">
@@ -9514,10 +9847,10 @@
         <v>15403</v>
       </c>
       <c r="B311" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="42">
@@ -9525,10 +9858,10 @@
         <v>15456</v>
       </c>
       <c r="B312" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="42">
@@ -9536,10 +9869,10 @@
         <v>15654</v>
       </c>
       <c r="B313" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="42">
@@ -9547,10 +9880,10 @@
         <v>16002</v>
       </c>
       <c r="B314" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="42">
@@ -9558,10 +9891,10 @@
         <v>16003</v>
       </c>
       <c r="B315" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="42">
@@ -9569,10 +9902,10 @@
         <v>16004</v>
       </c>
       <c r="B316" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="42">
@@ -9580,10 +9913,10 @@
         <v>16005</v>
       </c>
       <c r="B317" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="42">
@@ -9591,10 +9924,10 @@
         <v>16006</v>
       </c>
       <c r="B318" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="42">
@@ -9602,10 +9935,10 @@
         <v>16007</v>
       </c>
       <c r="B319" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="42">
@@ -9613,10 +9946,10 @@
         <v>16008</v>
       </c>
       <c r="B320" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="42">
@@ -9624,10 +9957,10 @@
         <v>16009</v>
       </c>
       <c r="B321" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="42">
@@ -9635,10 +9968,10 @@
         <v>16010</v>
       </c>
       <c r="B322" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="42">
@@ -9646,10 +9979,10 @@
         <v>16011</v>
       </c>
       <c r="B323" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="42">
@@ -9657,10 +9990,10 @@
         <v>16012</v>
       </c>
       <c r="B324" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="42">
@@ -9668,10 +10001,10 @@
         <v>16013</v>
       </c>
       <c r="B325" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="42">
@@ -9679,10 +10012,10 @@
         <v>16014</v>
       </c>
       <c r="B326" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="42">
@@ -9690,10 +10023,10 @@
         <v>16015</v>
       </c>
       <c r="B327" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="42">
@@ -9701,10 +10034,10 @@
         <v>16016</v>
       </c>
       <c r="B328" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42">
@@ -9712,10 +10045,10 @@
         <v>16018</v>
       </c>
       <c r="B329" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42">
@@ -9723,10 +10056,10 @@
         <v>16432</v>
       </c>
       <c r="B330" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42">
@@ -9734,10 +10067,10 @@
         <v>16579</v>
       </c>
       <c r="B331" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="42">
@@ -9745,10 +10078,10 @@
         <v>16642</v>
       </c>
       <c r="B332" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="42">
@@ -9756,10 +10089,10 @@
         <v>16757</v>
       </c>
       <c r="B333" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="42">
@@ -9767,10 +10100,10 @@
         <v>17168</v>
       </c>
       <c r="B334" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="42">
@@ -9778,10 +10111,10 @@
         <v>17229</v>
       </c>
       <c r="B335" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="42">
@@ -9789,10 +10122,10 @@
         <v>17264</v>
       </c>
       <c r="B336" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="42">
@@ -9800,10 +10133,10 @@
         <v>17323</v>
       </c>
       <c r="B337" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="42">
@@ -9811,10 +10144,10 @@
         <v>17324</v>
       </c>
       <c r="B338" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="42">
@@ -9822,10 +10155,10 @@
         <v>17325</v>
       </c>
       <c r="B339" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="42">
@@ -9833,10 +10166,10 @@
         <v>17326</v>
       </c>
       <c r="B340" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="42">
@@ -9844,10 +10177,10 @@
         <v>17382</v>
       </c>
       <c r="B341" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="42">
@@ -9855,10 +10188,10 @@
         <v>17487</v>
       </c>
       <c r="B342" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="42">
@@ -9866,10 +10199,10 @@
         <v>17687</v>
       </c>
       <c r="B343" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="42">
@@ -9877,10 +10210,10 @@
         <v>17703</v>
       </c>
       <c r="B344" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="42">
@@ -9888,10 +10221,10 @@
         <v>17956</v>
       </c>
       <c r="B345" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="42">
@@ -9899,10 +10232,10 @@
         <v>17971</v>
       </c>
       <c r="B346" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="42">
@@ -9910,10 +10243,10 @@
         <v>18432</v>
       </c>
       <c r="B347" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="42">
@@ -9921,10 +10254,10 @@
         <v>18433</v>
       </c>
       <c r="B348" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="42">
@@ -9932,10 +10265,10 @@
         <v>18434</v>
       </c>
       <c r="B349" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="42">
@@ -9943,10 +10276,10 @@
         <v>18435</v>
       </c>
       <c r="B350" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="42">
@@ -9954,10 +10287,10 @@
         <v>18436</v>
       </c>
       <c r="B351" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42">
@@ -9965,10 +10298,10 @@
         <v>18437</v>
       </c>
       <c r="B352" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="42">
@@ -9976,10 +10309,10 @@
         <v>18438</v>
       </c>
       <c r="B353" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="42">
@@ -9987,10 +10320,10 @@
         <v>18439</v>
       </c>
       <c r="B354" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="42">
@@ -9998,10 +10331,10 @@
         <v>18440</v>
       </c>
       <c r="B355" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="42">
@@ -10009,10 +10342,10 @@
         <v>18441</v>
       </c>
       <c r="B356" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="42">
@@ -10020,10 +10353,10 @@
         <v>18442</v>
       </c>
       <c r="B357" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="42">
@@ -10031,10 +10364,10 @@
         <v>18443</v>
       </c>
       <c r="B358" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="42">
@@ -10042,10 +10375,10 @@
         <v>18444</v>
       </c>
       <c r="B359" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="42">
@@ -10053,10 +10386,10 @@
         <v>18445</v>
       </c>
       <c r="B360" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="42">
@@ -10064,10 +10397,10 @@
         <v>18446</v>
       </c>
       <c r="B361" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="42">
@@ -10075,10 +10408,10 @@
         <v>18447</v>
       </c>
       <c r="B362" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="42">
@@ -10086,10 +10419,10 @@
         <v>18448</v>
       </c>
       <c r="B363" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="42">
@@ -10097,10 +10430,10 @@
         <v>18449</v>
       </c>
       <c r="B364" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="42">
@@ -10108,10 +10441,10 @@
         <v>18450</v>
       </c>
       <c r="B365" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="42">
@@ -10119,10 +10452,10 @@
         <v>18451</v>
       </c>
       <c r="B366" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="42">
@@ -10130,10 +10463,10 @@
         <v>18551</v>
       </c>
       <c r="B367" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="42">
@@ -10141,10 +10474,10 @@
         <v>19172</v>
       </c>
       <c r="B368" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="42">
@@ -10152,10 +10485,10 @@
         <v>19228</v>
       </c>
       <c r="B369" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="42">
@@ -10163,10 +10496,10 @@
         <v>19324</v>
       </c>
       <c r="B370" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="42">
@@ -10174,10 +10507,10 @@
         <v>538</v>
       </c>
       <c r="B371" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="42">
@@ -10185,10 +10518,10 @@
         <v>540</v>
       </c>
       <c r="B372" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="42">
@@ -10196,10 +10529,10 @@
         <v>961</v>
       </c>
       <c r="B373" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="42">
@@ -10207,10 +10540,10 @@
         <v>962</v>
       </c>
       <c r="B374" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="42">
@@ -10218,10 +10551,10 @@
         <v>1025</v>
       </c>
       <c r="B375" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="42">
@@ -10229,10 +10562,10 @@
         <v>1030</v>
       </c>
       <c r="B376" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F376" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="42">
@@ -10240,10 +10573,10 @@
         <v>1077</v>
       </c>
       <c r="B377" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="42">
@@ -10251,10 +10584,10 @@
         <v>1099</v>
       </c>
       <c r="B378" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="42">
@@ -10262,10 +10595,10 @@
         <v>1411</v>
       </c>
       <c r="B379" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="42">
@@ -10273,10 +10606,10 @@
         <v>1438</v>
       </c>
       <c r="B380" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="42">
@@ -10284,10 +10617,10 @@
         <v>1518</v>
       </c>
       <c r="B381" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="42">
@@ -10295,10 +10628,10 @@
         <v>1606</v>
       </c>
       <c r="B382" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="42">
@@ -10306,10 +10639,10 @@
         <v>1747</v>
       </c>
       <c r="B383" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="42">
@@ -10317,10 +10650,10 @@
         <v>1751</v>
       </c>
       <c r="B384" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="42">
@@ -10328,10 +10661,10 @@
         <v>1931</v>
       </c>
       <c r="B385" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F385" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="42">
@@ -10339,10 +10672,10 @@
         <v>1976</v>
       </c>
       <c r="B386" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="42">
@@ -10350,10 +10683,10 @@
         <v>1983</v>
       </c>
       <c r="B387" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="42">
@@ -10361,10 +10694,10 @@
         <v>1997</v>
       </c>
       <c r="B388" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F388" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="42">
@@ -10372,10 +10705,10 @@
         <v>2013</v>
       </c>
       <c r="B389" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="42">
@@ -10383,10 +10716,10 @@
         <v>2035</v>
       </c>
       <c r="B390" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="42">
@@ -10394,10 +10727,10 @@
         <v>2174</v>
       </c>
       <c r="B391" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F391" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="42">
@@ -10405,10 +10738,10 @@
         <v>2298</v>
       </c>
       <c r="B392" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F392" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="42">
@@ -10416,10 +10749,10 @@
         <v>2931</v>
       </c>
       <c r="B393" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F393" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="42">
@@ -10427,10 +10760,10 @@
         <v>2932</v>
       </c>
       <c r="B394" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F394" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="42">
@@ -10438,10 +10771,10 @@
         <v>2933</v>
       </c>
       <c r="B395" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F395" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="42">
@@ -10449,10 +10782,10 @@
         <v>2934</v>
       </c>
       <c r="B396" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F396" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="42">
@@ -10460,10 +10793,10 @@
         <v>2935</v>
       </c>
       <c r="B397" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F397" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="42">
@@ -10471,10 +10804,10 @@
         <v>2936</v>
       </c>
       <c r="B398" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F398" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="42">
@@ -10482,10 +10815,10 @@
         <v>2937</v>
       </c>
       <c r="B399" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F399" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="42">
@@ -10493,10 +10826,10 @@
         <v>2938</v>
       </c>
       <c r="B400" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F400" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="42">
@@ -10504,10 +10837,10 @@
         <v>2939</v>
       </c>
       <c r="B401" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F401" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="42">
@@ -10515,10 +10848,10 @@
         <v>2940</v>
       </c>
       <c r="B402" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="42">
@@ -10526,10 +10859,10 @@
         <v>2941</v>
       </c>
       <c r="B403" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="42">
@@ -10537,10 +10870,10 @@
         <v>2942</v>
       </c>
       <c r="B404" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="42">
@@ -10548,10 +10881,10 @@
         <v>2943</v>
       </c>
       <c r="B405" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="42">
@@ -10559,10 +10892,10 @@
         <v>2944</v>
       </c>
       <c r="B406" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="42">
@@ -10570,10 +10903,10 @@
         <v>2945</v>
       </c>
       <c r="B407" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="42">
@@ -10581,10 +10914,10 @@
         <v>2946</v>
       </c>
       <c r="B408" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="42">
@@ -10592,10 +10925,10 @@
         <v>2947</v>
       </c>
       <c r="B409" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="42">
@@ -10603,10 +10936,10 @@
         <v>2948</v>
       </c>
       <c r="B410" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="42">
@@ -10614,10 +10947,10 @@
         <v>2949</v>
       </c>
       <c r="B411" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="42">
@@ -10625,10 +10958,10 @@
         <v>2950</v>
       </c>
       <c r="B412" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="42">
@@ -10636,10 +10969,10 @@
         <v>2954</v>
       </c>
       <c r="B413" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="42">
@@ -10647,10 +10980,10 @@
         <v>3031</v>
       </c>
       <c r="B414" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="42">
@@ -10658,10 +10991,10 @@
         <v>3033</v>
       </c>
       <c r="B415" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="42">
@@ -10669,10 +11002,10 @@
         <v>3034</v>
       </c>
       <c r="B416" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="42">
@@ -10680,10 +11013,10 @@
         <v>3045</v>
       </c>
       <c r="B417" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="42">
@@ -10691,10 +11024,10 @@
         <v>3312</v>
       </c>
       <c r="B418" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="42">
@@ -10702,10 +11035,10 @@
         <v>3324</v>
       </c>
       <c r="B419" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="42">
@@ -10713,10 +11046,10 @@
         <v>3484</v>
       </c>
       <c r="B420" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="42">
@@ -10724,10 +11057,10 @@
         <v>3521</v>
       </c>
       <c r="B421" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="42">
@@ -10735,10 +11068,10 @@
         <v>3565</v>
       </c>
       <c r="B422" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="42">
@@ -10746,10 +11079,10 @@
         <v>3582</v>
       </c>
       <c r="B423" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="42">
@@ -10757,10 +11090,10 @@
         <v>3595</v>
       </c>
       <c r="B424" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="42">
@@ -10768,10 +11101,10 @@
         <v>4050</v>
       </c>
       <c r="B425" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="42">
@@ -10779,10 +11112,10 @@
         <v>4074</v>
       </c>
       <c r="B426" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="42">
@@ -10790,10 +11123,10 @@
         <v>4209</v>
       </c>
       <c r="B427" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="42">
@@ -10801,10 +11134,10 @@
         <v>4212</v>
       </c>
       <c r="B428" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="42">
@@ -10812,10 +11145,10 @@
         <v>4322</v>
       </c>
       <c r="B429" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="42">
@@ -10823,10 +11156,10 @@
         <v>4326</v>
       </c>
       <c r="B430" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="42">
@@ -10834,10 +11167,10 @@
         <v>4330</v>
       </c>
       <c r="B431" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="42">
@@ -10845,10 +11178,10 @@
         <v>4342</v>
       </c>
       <c r="B432" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="42">
@@ -10856,10 +11189,10 @@
         <v>4368</v>
       </c>
       <c r="B433" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="42">
@@ -10867,10 +11200,10 @@
         <v>4382</v>
       </c>
       <c r="B434" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="42">
@@ -10878,10 +11211,10 @@
         <v>4536</v>
       </c>
       <c r="B435" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="42">
@@ -10889,10 +11222,10 @@
         <v>4583</v>
       </c>
       <c r="B436" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="42">
@@ -10900,10 +11233,10 @@
         <v>4707</v>
       </c>
       <c r="B437" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="42">
@@ -10911,10 +11244,10 @@
         <v>4735</v>
       </c>
       <c r="B438" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="42">
@@ -10922,10 +11255,10 @@
         <v>5081</v>
       </c>
       <c r="B439" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="42">
@@ -10933,10 +11266,10 @@
         <v>5119</v>
       </c>
       <c r="B440" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="42">
@@ -10944,10 +11277,10 @@
         <v>5211</v>
       </c>
       <c r="B441" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="42">
@@ -10955,10 +11288,10 @@
         <v>5267</v>
       </c>
       <c r="B442" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="42">
@@ -10966,10 +11299,10 @@
         <v>5350</v>
       </c>
       <c r="B443" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="42">
@@ -10977,10 +11310,10 @@
         <v>5380</v>
       </c>
       <c r="B444" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="42">
@@ -10988,10 +11321,10 @@
         <v>5466</v>
       </c>
       <c r="B445" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="42">
@@ -10999,10 +11332,10 @@
         <v>5507</v>
       </c>
       <c r="B446" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="42">
@@ -11010,10 +11343,10 @@
         <v>5565</v>
       </c>
       <c r="B447" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="42">
@@ -11021,10 +11354,10 @@
         <v>5682</v>
       </c>
       <c r="B448" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="42">
@@ -11032,10 +11365,10 @@
         <v>5696</v>
       </c>
       <c r="B449" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="42">
@@ -11043,10 +11376,10 @@
         <v>5698</v>
       </c>
       <c r="B450" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="42">
@@ -11054,10 +11387,10 @@
         <v>5710</v>
       </c>
       <c r="B451" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="42">
@@ -11065,10 +11398,10 @@
         <v>5943</v>
       </c>
       <c r="B452" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="42">
@@ -11076,10 +11409,10 @@
         <v>5962</v>
       </c>
       <c r="B453" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="42">
@@ -11087,10 +11420,10 @@
         <v>5999</v>
       </c>
       <c r="B454" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="42">
@@ -11098,10 +11431,10 @@
         <v>6000</v>
       </c>
       <c r="B455" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="42">
@@ -11109,10 +11442,10 @@
         <v>6001</v>
       </c>
       <c r="B456" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="42">
@@ -11120,10 +11453,10 @@
         <v>6144</v>
       </c>
       <c r="B457" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="42">
@@ -11131,10 +11464,10 @@
         <v>6185</v>
       </c>
       <c r="B458" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="42">
@@ -11142,10 +11475,10 @@
         <v>6192</v>
       </c>
       <c r="B459" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="42">
@@ -11153,10 +11486,10 @@
         <v>6193</v>
       </c>
       <c r="B460" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="42">
@@ -11164,10 +11497,10 @@
         <v>6210</v>
       </c>
       <c r="B461" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="42">
@@ -11175,10 +11508,10 @@
         <v>6236</v>
       </c>
       <c r="B462" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="42">
@@ -11186,10 +11519,10 @@
         <v>6238</v>
       </c>
       <c r="B463" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="42">
@@ -11197,10 +11530,10 @@
         <v>6252</v>
       </c>
       <c r="B464" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="42">
@@ -11208,10 +11541,10 @@
         <v>6362</v>
       </c>
       <c r="B465" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="42">
@@ -11219,10 +11552,10 @@
         <v>6475</v>
       </c>
       <c r="B466" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="42">
@@ -11230,10 +11563,10 @@
         <v>6538</v>
       </c>
       <c r="B467" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="42">
@@ -11241,10 +11574,10 @@
         <v>6550</v>
       </c>
       <c r="B468" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="42">
@@ -11252,10 +11585,10 @@
         <v>6674</v>
       </c>
       <c r="B469" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="42">
@@ -11263,10 +11596,10 @@
         <v>6836</v>
       </c>
       <c r="B470" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="42">
@@ -11274,10 +11607,10 @@
         <v>6893</v>
       </c>
       <c r="B471" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="42">
@@ -11285,10 +11618,10 @@
         <v>6894</v>
       </c>
       <c r="B472" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="42">
@@ -11296,10 +11629,10 @@
         <v>6990</v>
       </c>
       <c r="B473" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="42">
@@ -11307,10 +11640,10 @@
         <v>7334</v>
       </c>
       <c r="B474" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="42">
@@ -11318,10 +11651,10 @@
         <v>7347</v>
       </c>
       <c r="B475" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="42">
@@ -11329,10 +11662,10 @@
         <v>7646</v>
       </c>
       <c r="B476" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="42">
@@ -11340,10 +11673,10 @@
         <v>7753</v>
       </c>
       <c r="B477" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="42">
@@ -11351,10 +11684,10 @@
         <v>7913</v>
       </c>
       <c r="B478" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="42">
@@ -11362,10 +11695,10 @@
         <v>7943</v>
       </c>
       <c r="B479" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="42">
@@ -11373,10 +11706,10 @@
         <v>7960</v>
       </c>
       <c r="B480" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="42">
@@ -11384,10 +11717,10 @@
         <v>8574</v>
       </c>
       <c r="B481" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="42">
@@ -11395,10 +11728,10 @@
         <v>8580</v>
       </c>
       <c r="B482" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="42">
@@ -11406,10 +11739,10 @@
         <v>8604</v>
       </c>
       <c r="B483" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="42">
@@ -11417,10 +11750,10 @@
         <v>8608</v>
       </c>
       <c r="B484" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="42">
@@ -11428,10 +11761,10 @@
         <v>8610</v>
       </c>
       <c r="B485" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="42">
@@ -11439,10 +11772,10 @@
         <v>8845</v>
       </c>
       <c r="B486" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="42">
@@ -11450,10 +11783,10 @@
         <v>9038</v>
       </c>
       <c r="B487" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="42">
@@ -11461,10 +11794,10 @@
         <v>9152</v>
       </c>
       <c r="B488" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="42">
@@ -11472,10 +11805,10 @@
         <v>9580</v>
       </c>
       <c r="B489" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="42">
@@ -11483,10 +11816,10 @@
         <v>9729</v>
       </c>
       <c r="B490" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="42">
@@ -11494,10 +11827,10 @@
         <v>9812</v>
       </c>
       <c r="B491" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="42">
@@ -11505,10 +11838,10 @@
         <v>9813</v>
       </c>
       <c r="B492" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="42">
@@ -11516,10 +11849,10 @@
         <v>9824</v>
       </c>
       <c r="B493" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="42">
@@ -11527,10 +11860,10 @@
         <v>41</v>
       </c>
       <c r="B494" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="42">
@@ -11538,10 +11871,10 @@
         <v>769</v>
       </c>
       <c r="B495" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="42">
@@ -11549,10 +11882,10 @@
         <v>891</v>
       </c>
       <c r="B496" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="42">
@@ -11560,10 +11893,10 @@
         <v>1137</v>
       </c>
       <c r="B497" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="42">
@@ -11571,10 +11904,10 @@
         <v>1257</v>
       </c>
       <c r="B498" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="42">
@@ -11582,10 +11915,10 @@
         <v>1347</v>
       </c>
       <c r="B499" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="42">
@@ -11593,10 +11926,10 @@
         <v>1595</v>
       </c>
       <c r="B500" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="42">
@@ -11604,10 +11937,10 @@
         <v>1633</v>
       </c>
       <c r="B501" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="42">
@@ -11615,10 +11948,10 @@
         <v>1648</v>
       </c>
       <c r="B502" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="42">
@@ -11626,10 +11959,10 @@
         <v>1650</v>
       </c>
       <c r="B503" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="42">
@@ -11637,10 +11970,10 @@
         <v>1808</v>
       </c>
       <c r="B504" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="42">
@@ -11648,10 +11981,10 @@
         <v>1829</v>
       </c>
       <c r="B505" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="42">
@@ -11659,10 +11992,10 @@
         <v>1914</v>
       </c>
       <c r="B506" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="42">
@@ -11670,10 +12003,10 @@
         <v>1958</v>
       </c>
       <c r="B507" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="42">
@@ -11681,10 +12014,10 @@
         <v>1967</v>
       </c>
       <c r="B508" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="42">
@@ -11692,10 +12025,10 @@
         <v>1976</v>
       </c>
       <c r="B509" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="42">
@@ -11703,10 +12036,10 @@
         <v>2048</v>
       </c>
       <c r="B510" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="42">
@@ -11714,10 +12047,10 @@
         <v>2135</v>
       </c>
       <c r="B511" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="42">
@@ -11725,10 +12058,10 @@
         <v>2153</v>
       </c>
       <c r="B512" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="42">
@@ -11736,10 +12069,10 @@
         <v>2192</v>
       </c>
       <c r="B513" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="42">
@@ -11747,10 +12080,10 @@
         <v>2217</v>
       </c>
       <c r="B514" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="42">
@@ -11758,10 +12091,10 @@
         <v>2242</v>
       </c>
       <c r="B515" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="42">
@@ -11769,10 +12102,10 @@
         <v>2243</v>
       </c>
       <c r="B516" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="42">
@@ -11780,10 +12113,10 @@
         <v>2317</v>
       </c>
       <c r="B517" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="42">
@@ -11791,10 +12124,10 @@
         <v>2318</v>
       </c>
       <c r="B518" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="42">
@@ -11802,10 +12135,10 @@
         <v>2321</v>
       </c>
       <c r="B519" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="42">
@@ -11813,10 +12146,10 @@
         <v>2323</v>
       </c>
       <c r="B520" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="42">
@@ -11824,10 +12157,10 @@
         <v>2404</v>
       </c>
       <c r="B521" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="42">
@@ -11835,10 +12168,10 @@
         <v>2461</v>
       </c>
       <c r="B522" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="42">
@@ -11846,10 +12179,10 @@
         <v>2550</v>
       </c>
       <c r="B523" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="42">
@@ -11857,10 +12190,10 @@
         <v>2552</v>
       </c>
       <c r="B524" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="42">
@@ -11868,10 +12201,10 @@
         <v>2684</v>
       </c>
       <c r="B525" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="42">
@@ -11879,10 +12212,10 @@
         <v>2685</v>
       </c>
       <c r="B526" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="42">
@@ -11890,10 +12223,10 @@
         <v>2688</v>
       </c>
       <c r="B527" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="42">
@@ -11901,10 +12234,10 @@
         <v>2689</v>
       </c>
       <c r="B528" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="42">
@@ -11912,10 +12245,10 @@
         <v>2690</v>
       </c>
       <c r="B529" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="42">
@@ -11923,10 +12256,10 @@
         <v>2694</v>
       </c>
       <c r="B530" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="42">
@@ -11934,10 +12267,10 @@
         <v>2713</v>
       </c>
       <c r="B531" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="42">
@@ -11945,10 +12278,10 @@
         <v>2714</v>
       </c>
       <c r="B532" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="42">
@@ -11956,10 +12289,10 @@
         <v>2715</v>
       </c>
       <c r="B533" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="42">
@@ -11967,10 +12300,10 @@
         <v>2716</v>
       </c>
       <c r="B534" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="42">
@@ -11978,10 +12311,10 @@
         <v>2717</v>
       </c>
       <c r="B535" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="42">
@@ -11989,10 +12322,10 @@
         <v>2718</v>
       </c>
       <c r="B536" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="42">
@@ -12000,10 +12333,10 @@
         <v>2719</v>
       </c>
       <c r="B537" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="42">
@@ -12011,10 +12344,10 @@
         <v>2720</v>
       </c>
       <c r="B538" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="42">
@@ -12022,10 +12355,10 @@
         <v>2727</v>
       </c>
       <c r="B539" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="42">
@@ -12033,10 +12366,10 @@
         <v>2766</v>
       </c>
       <c r="B540" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="42">
@@ -12044,10 +12377,10 @@
         <v>2853</v>
       </c>
       <c r="B541" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="42">
@@ -12055,10 +12388,10 @@
         <v>2863</v>
       </c>
       <c r="B542" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="42">
@@ -12066,10 +12399,10 @@
         <v>2898</v>
       </c>
       <c r="B543" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="42">
@@ -12077,10 +12410,10 @@
         <v>2911</v>
       </c>
       <c r="B544" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="42">
@@ -12088,10 +12421,10 @@
         <v>2916</v>
       </c>
       <c r="B545" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="42">
@@ -12099,10 +12432,10 @@
         <v>3029</v>
       </c>
       <c r="B546" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="42">
@@ -12110,10 +12443,10 @@
         <v>3030</v>
       </c>
       <c r="B547" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="42">
@@ -12121,10 +12454,10 @@
         <v>3304</v>
       </c>
       <c r="B548" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="42">
@@ -12132,10 +12465,10 @@
         <v>3310</v>
       </c>
       <c r="B549" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="42">
@@ -12143,10 +12476,10 @@
         <v>3322</v>
       </c>
       <c r="B550" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="42">
@@ -12154,10 +12487,10 @@
         <v>3333</v>
       </c>
       <c r="B551" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="42">
@@ -12165,10 +12498,10 @@
         <v>2413</v>
       </c>
       <c r="B552" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="42">
@@ -12176,10 +12509,10 @@
         <v>2815</v>
       </c>
       <c r="B553" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="42">
@@ -12187,10 +12520,10 @@
         <v>2834</v>
       </c>
       <c r="B554" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="42">
@@ -12198,10 +12531,10 @@
         <v>2839</v>
       </c>
       <c r="B555" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="42">
@@ -12209,10 +12542,10 @@
         <v>2990</v>
       </c>
       <c r="B556" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="42">
@@ -12220,10 +12553,10 @@
         <v>3079</v>
       </c>
       <c r="B557" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="42">
@@ -12231,10 +12564,10 @@
         <v>3092</v>
       </c>
       <c r="B558" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="42">
@@ -12242,10 +12575,10 @@
         <v>3433</v>
       </c>
       <c r="B559" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="42">
@@ -12253,10 +12586,10 @@
         <v>3467</v>
       </c>
       <c r="B560" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="42">
@@ -12264,10 +12597,10 @@
         <v>3474</v>
       </c>
       <c r="B561" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F561" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="42">
@@ -12275,10 +12608,10 @@
         <v>3502</v>
       </c>
       <c r="B562" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="42">
@@ -12286,10 +12619,10 @@
         <v>3511</v>
       </c>
       <c r="B563" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="42">
@@ -12297,10 +12630,10 @@
         <v>3550</v>
       </c>
       <c r="B564" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="42">
@@ -12308,10 +12641,10 @@
         <v>3556</v>
       </c>
       <c r="B565" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="42">
@@ -12319,10 +12652,10 @@
         <v>3656</v>
       </c>
       <c r="B566" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="42">
@@ -12330,10 +12663,10 @@
         <v>1689</v>
       </c>
       <c r="B567" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="42">
@@ -12341,10 +12674,10 @@
         <v>1845</v>
       </c>
       <c r="B568" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="42">
@@ -12352,10 +12685,10 @@
         <v>1846</v>
       </c>
       <c r="B569" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F569" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="42">
@@ -12363,10 +12696,10 @@
         <v>1855</v>
       </c>
       <c r="B570" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="42">
@@ -12374,10 +12707,10 @@
         <v>1863</v>
       </c>
       <c r="B571" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="42">
@@ -12385,10 +12718,10 @@
         <v>1868</v>
       </c>
       <c r="B572" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="42">
@@ -12396,10 +12729,10 @@
         <v>1876</v>
       </c>
       <c r="B573" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="42">
@@ -12407,10 +12740,10 @@
         <v>1937</v>
       </c>
       <c r="B574" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="42">
@@ -12418,10 +12751,10 @@
         <v>1989</v>
       </c>
       <c r="B575" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="42">
@@ -12429,10 +12762,10 @@
         <v>1991</v>
       </c>
       <c r="B576" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="42">
@@ -12440,10 +12773,10 @@
         <v>2019</v>
       </c>
       <c r="B577" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="42">
@@ -12451,10 +12784,10 @@
         <v>2022</v>
       </c>
       <c r="B578" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="42">
@@ -12462,10 +12795,10 @@
         <v>2049</v>
       </c>
       <c r="B579" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="42">
@@ -12473,10 +12806,10 @@
         <v>2072</v>
       </c>
       <c r="B580" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="42">
@@ -12484,10 +12817,10 @@
         <v>2168</v>
       </c>
       <c r="B581" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="42">
@@ -12495,10 +12828,10 @@
         <v>2178</v>
       </c>
       <c r="B582" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="42">
@@ -12506,10 +12839,10 @@
         <v>2188</v>
       </c>
       <c r="B583" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="42">
@@ -12517,10 +12850,10 @@
         <v>2205</v>
       </c>
       <c r="B584" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="42">
@@ -12528,10 +12861,10 @@
         <v>2232</v>
       </c>
       <c r="B585" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="42">
@@ -12539,10 +12872,10 @@
         <v>2245</v>
       </c>
       <c r="B586" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="42">
@@ -12550,10 +12883,10 @@
         <v>2255</v>
       </c>
       <c r="B587" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="42">
@@ -12561,10 +12894,10 @@
         <v>2391</v>
       </c>
       <c r="B588" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="42">
@@ -12572,10 +12905,10 @@
         <v>2985</v>
       </c>
       <c r="B589" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="42">
@@ -12583,10 +12916,10 @@
         <v>3459</v>
       </c>
       <c r="B590" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="42">
@@ -12594,10 +12927,10 @@
         <v>1057</v>
       </c>
       <c r="B591" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F591" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="42">
@@ -12605,10 +12938,10 @@
         <v>1102</v>
       </c>
       <c r="B592" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="42">
@@ -12616,10 +12949,10 @@
         <v>2193</v>
       </c>
       <c r="B593" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="42">
@@ -12627,10 +12960,10 @@
         <v>2962</v>
       </c>
       <c r="B594" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="42">
@@ -12638,10 +12971,10 @@
         <v>3344</v>
       </c>
       <c r="B595" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="42">
@@ -12649,10 +12982,10 @@
         <v>3478</v>
       </c>
       <c r="B596" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="42">
@@ -12660,10 +12993,10 @@
         <v>3550</v>
       </c>
       <c r="B597" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="42">
@@ -12671,10 +13004,10 @@
         <v>3565</v>
       </c>
       <c r="B598" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="42">
@@ -12682,10 +13015,10 @@
         <v>3572</v>
       </c>
       <c r="B599" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="600" spans="1:6" ht="42">
@@ -12693,10 +13026,10 @@
         <v>3686</v>
       </c>
       <c r="B600" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="42">
@@ -12704,10 +13037,10 @@
         <v>3750</v>
       </c>
       <c r="B601" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="42">
@@ -12715,10 +13048,10 @@
         <v>3802</v>
       </c>
       <c r="B602" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="42">
@@ -12726,10 +13059,10 @@
         <v>4003</v>
       </c>
       <c r="B603" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="42">
@@ -12737,10 +13070,10 @@
         <v>4004</v>
       </c>
       <c r="B604" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="42">
@@ -12748,10 +13081,10 @@
         <v>4012</v>
       </c>
       <c r="B605" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="606" spans="1:6" ht="42">
@@ -12759,10 +13092,10 @@
         <v>4285</v>
       </c>
       <c r="B606" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F606" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="607" spans="1:6" ht="42">
@@ -12770,10 +13103,10 @@
         <v>4286</v>
       </c>
       <c r="B607" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F607" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="608" spans="1:6" ht="42">
@@ -12781,10 +13114,10 @@
         <v>4292</v>
       </c>
       <c r="B608" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="42">
@@ -12792,10 +13125,10 @@
         <v>4338</v>
       </c>
       <c r="B609" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="610" spans="1:6" ht="42">
@@ -12803,10 +13136,10 @@
         <v>2690</v>
       </c>
       <c r="B610" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="611" spans="1:6" ht="42">
@@ -12814,10 +13147,10 @@
         <v>2892</v>
       </c>
       <c r="B611" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="42">
@@ -12825,10 +13158,10 @@
         <v>2987</v>
       </c>
       <c r="B612" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="42">
@@ -12836,10 +13169,10 @@
         <v>2991</v>
       </c>
       <c r="B613" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="614" spans="1:6" ht="42">
@@ -12847,10 +13180,10 @@
         <v>3016</v>
       </c>
       <c r="B614" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="615" spans="1:6" ht="42">
@@ -12858,10 +13191,10 @@
         <v>3114</v>
       </c>
       <c r="B615" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="616" spans="1:6" ht="42">
@@ -12869,10 +13202,10 @@
         <v>3121</v>
       </c>
       <c r="B616" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="42">
@@ -12880,10 +13213,10 @@
         <v>3132</v>
       </c>
       <c r="B617" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="42">
@@ -12891,10 +13224,10 @@
         <v>3140</v>
       </c>
       <c r="B618" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="42">
@@ -12902,10 +13235,10 @@
         <v>3567</v>
       </c>
       <c r="B619" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F619" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="620" spans="1:6" ht="42">
@@ -12913,10 +13246,10 @@
         <v>4635</v>
       </c>
       <c r="B620" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="42">
@@ -12924,10 +13257,10 @@
         <v>4731</v>
       </c>
       <c r="B621" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F621" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="42">
@@ -12935,10 +13268,10 @@
         <v>4737</v>
       </c>
       <c r="B622" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="42">
@@ -12946,10 +13279,10 @@
         <v>5705</v>
       </c>
       <c r="B623" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F24677AF-9DF8-0342-BED2-D4CF22DC9B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63BF3EBD-0918-3D47-9B6D-33EEC6D30B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16160" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1549" uniqueCount="875">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1590" uniqueCount="887">
   <si>
     <t>Issue</t>
   </si>
@@ -4545,6 +4545,159 @@
       <t xml:space="preserve">ハイチ </t>
     </rPh>
     <rPh sb="61" eb="63">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]フィルタ間に一貫性がない
+[Class]バグの修正</t>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">イッカンセイ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カテゴリが見つからない場合のエラーメッセージ
+[Class]機能の改善</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">バアイノ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]2つのカテゴリが同じインターフェースを共有している
+[Class]機能の改善</t>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">キョウユウシテイル </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ドキュメントからコードへの自動リンク
+[Class]ドキュメントの改善</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ジドウリンク </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カバレッジの障害
+[Class]テストの修正</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ショウガイ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VHDSリファクタリングに失敗した際の復帰
+[Class]コードの改善</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シッパイ </t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t xml:space="preserve">サイノ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">フッキ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TTLの削除をサポート
+[Class]機能の改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]envoy pythonをpythonのようにフォーマット
+[Class]仕様の変更</t>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">シヨウノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]docs:config validationのエラー出力を改善
+[Class]機能の改善</t>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュツリョク </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]a local reply送信後不要な作業をスキップ
+[Class]不要な処理のスキップ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]wasm:Rust gRPCテストを有効にする
+[Class]テストの追加</t>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ユウコウニスル </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]githubワークフローの依存関係をハッシュで固定する
+[Class]依存関係の改善</t>
+    <rPh sb="22" eb="26">
+      <t xml:space="preserve">イソンカンケイヲ </t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
       <t xml:space="preserve">カイゼン </t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -5514,8 +5667,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F291" sqref="F291"/>
+    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9640,8 +9793,11 @@
       <c r="B292" t="s">
         <v>288</v>
       </c>
+      <c r="C292" t="s">
+        <v>624</v>
+      </c>
       <c r="F292" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="42">
@@ -9651,8 +9807,11 @@
       <c r="B293" t="s">
         <v>289</v>
       </c>
+      <c r="C293" t="s">
+        <v>624</v>
+      </c>
       <c r="F293" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="42">
@@ -9662,8 +9821,11 @@
       <c r="B294" t="s">
         <v>290</v>
       </c>
+      <c r="C294" t="s">
+        <v>624</v>
+      </c>
       <c r="F294" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="42">
@@ -9673,8 +9835,11 @@
       <c r="B295" t="s">
         <v>291</v>
       </c>
+      <c r="C295" t="s">
+        <v>624</v>
+      </c>
       <c r="F295" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="42">
@@ -9684,8 +9849,11 @@
       <c r="B296" t="s">
         <v>292</v>
       </c>
+      <c r="C296" t="s">
+        <v>624</v>
+      </c>
       <c r="F296" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="42">
@@ -9695,8 +9863,11 @@
       <c r="B297" t="s">
         <v>293</v>
       </c>
+      <c r="C297" t="s">
+        <v>624</v>
+      </c>
       <c r="F297" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="42">
@@ -9706,8 +9877,11 @@
       <c r="B298" t="s">
         <v>294</v>
       </c>
+      <c r="C298" t="s">
+        <v>624</v>
+      </c>
       <c r="F298" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="42">
@@ -9717,8 +9891,11 @@
       <c r="B299" t="s">
         <v>295</v>
       </c>
+      <c r="C299" t="s">
+        <v>624</v>
+      </c>
       <c r="F299" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42">
@@ -9728,8 +9905,11 @@
       <c r="B300" t="s">
         <v>296</v>
       </c>
+      <c r="C300" t="s">
+        <v>624</v>
+      </c>
       <c r="F300" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42">
@@ -9739,8 +9919,11 @@
       <c r="B301" t="s">
         <v>297</v>
       </c>
+      <c r="C301" t="s">
+        <v>624</v>
+      </c>
       <c r="F301" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="42">
@@ -9750,8 +9933,11 @@
       <c r="B302" t="s">
         <v>298</v>
       </c>
+      <c r="C302" t="s">
+        <v>624</v>
+      </c>
       <c r="F302" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="42">
@@ -9761,8 +9947,11 @@
       <c r="B303" t="s">
         <v>299</v>
       </c>
+      <c r="C303" t="s">
+        <v>624</v>
+      </c>
       <c r="F303" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="42">
@@ -9772,8 +9961,11 @@
       <c r="B304" t="s">
         <v>300</v>
       </c>
+      <c r="C304" t="s">
+        <v>624</v>
+      </c>
       <c r="F304" s="2" t="s">
-        <v>623</v>
+        <v>875</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="42">
@@ -9783,8 +9975,11 @@
       <c r="B305" t="s">
         <v>301</v>
       </c>
+      <c r="C305" t="s">
+        <v>624</v>
+      </c>
       <c r="F305" s="2" t="s">
-        <v>623</v>
+        <v>876</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="42">
@@ -9794,8 +9989,11 @@
       <c r="B306" t="s">
         <v>302</v>
       </c>
+      <c r="C306" t="s">
+        <v>624</v>
+      </c>
       <c r="F306" s="2" t="s">
-        <v>623</v>
+        <v>877</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="42">
@@ -9805,8 +10003,11 @@
       <c r="B307" t="s">
         <v>303</v>
       </c>
+      <c r="C307" t="s">
+        <v>746</v>
+      </c>
       <c r="F307" s="2" t="s">
-        <v>623</v>
+        <v>878</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="42">
@@ -9816,8 +10017,11 @@
       <c r="B308" t="s">
         <v>304</v>
       </c>
+      <c r="C308" t="s">
+        <v>627</v>
+      </c>
       <c r="F308" s="2" t="s">
-        <v>623</v>
+        <v>879</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="42">
@@ -9827,8 +10031,11 @@
       <c r="B309" t="s">
         <v>305</v>
       </c>
+      <c r="C309" t="s">
+        <v>624</v>
+      </c>
       <c r="F309" s="2" t="s">
-        <v>623</v>
+        <v>880</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="42">
@@ -9838,8 +10045,11 @@
       <c r="B310" t="s">
         <v>306</v>
       </c>
+      <c r="C310" t="s">
+        <v>624</v>
+      </c>
       <c r="F310" s="2" t="s">
-        <v>623</v>
+        <v>881</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="42">
@@ -9849,8 +10059,14 @@
       <c r="B311" t="s">
         <v>307</v>
       </c>
+      <c r="C311" t="s">
+        <v>639</v>
+      </c>
+      <c r="D311" t="s">
+        <v>624</v>
+      </c>
       <c r="F311" s="2" t="s">
-        <v>623</v>
+        <v>882</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="42">
@@ -9860,8 +10076,11 @@
       <c r="B312" t="s">
         <v>308</v>
       </c>
+      <c r="C312" t="s">
+        <v>624</v>
+      </c>
       <c r="F312" s="2" t="s">
-        <v>623</v>
+        <v>883</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="42">
@@ -9871,8 +10090,11 @@
       <c r="B313" t="s">
         <v>309</v>
       </c>
+      <c r="C313" t="s">
+        <v>624</v>
+      </c>
       <c r="F313" s="2" t="s">
-        <v>623</v>
+        <v>884</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="42">
@@ -9882,8 +10104,11 @@
       <c r="B314" t="s">
         <v>310</v>
       </c>
+      <c r="C314" t="s">
+        <v>624</v>
+      </c>
       <c r="F314" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="42">
@@ -9893,8 +10118,11 @@
       <c r="B315" t="s">
         <v>311</v>
       </c>
+      <c r="C315" t="s">
+        <v>624</v>
+      </c>
       <c r="F315" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="42">
@@ -9904,8 +10132,11 @@
       <c r="B316" t="s">
         <v>312</v>
       </c>
+      <c r="C316" t="s">
+        <v>624</v>
+      </c>
       <c r="F316" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="42">
@@ -9915,8 +10146,11 @@
       <c r="B317" t="s">
         <v>313</v>
       </c>
+      <c r="C317" t="s">
+        <v>624</v>
+      </c>
       <c r="F317" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="42">
@@ -9926,8 +10160,11 @@
       <c r="B318" t="s">
         <v>314</v>
       </c>
+      <c r="C318" t="s">
+        <v>624</v>
+      </c>
       <c r="F318" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="42">
@@ -9937,8 +10174,11 @@
       <c r="B319" t="s">
         <v>315</v>
       </c>
+      <c r="C319" t="s">
+        <v>624</v>
+      </c>
       <c r="F319" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="42">
@@ -9948,8 +10188,11 @@
       <c r="B320" t="s">
         <v>316</v>
       </c>
+      <c r="C320" t="s">
+        <v>624</v>
+      </c>
       <c r="F320" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="42">
@@ -9959,8 +10202,11 @@
       <c r="B321" t="s">
         <v>317</v>
       </c>
+      <c r="C321" t="s">
+        <v>624</v>
+      </c>
       <c r="F321" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="42">
@@ -9970,8 +10216,11 @@
       <c r="B322" t="s">
         <v>318</v>
       </c>
+      <c r="C322" t="s">
+        <v>624</v>
+      </c>
       <c r="F322" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="42">
@@ -9981,8 +10230,11 @@
       <c r="B323" t="s">
         <v>319</v>
       </c>
+      <c r="C323" t="s">
+        <v>624</v>
+      </c>
       <c r="F323" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="42">
@@ -9992,8 +10244,11 @@
       <c r="B324" t="s">
         <v>320</v>
       </c>
+      <c r="C324" t="s">
+        <v>624</v>
+      </c>
       <c r="F324" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="42">
@@ -10003,8 +10258,11 @@
       <c r="B325" t="s">
         <v>321</v>
       </c>
+      <c r="C325" t="s">
+        <v>624</v>
+      </c>
       <c r="F325" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="42">
@@ -10014,8 +10272,11 @@
       <c r="B326" t="s">
         <v>322</v>
       </c>
+      <c r="C326" t="s">
+        <v>624</v>
+      </c>
       <c r="F326" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="42">
@@ -10025,8 +10286,11 @@
       <c r="B327" t="s">
         <v>323</v>
       </c>
+      <c r="C327" t="s">
+        <v>624</v>
+      </c>
       <c r="F327" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="42">
@@ -10036,8 +10300,11 @@
       <c r="B328" t="s">
         <v>324</v>
       </c>
+      <c r="C328" t="s">
+        <v>624</v>
+      </c>
       <c r="F328" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42">
@@ -10047,8 +10314,11 @@
       <c r="B329" t="s">
         <v>325</v>
       </c>
+      <c r="C329" t="s">
+        <v>624</v>
+      </c>
       <c r="F329" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42">
@@ -10058,8 +10328,11 @@
       <c r="B330" t="s">
         <v>326</v>
       </c>
+      <c r="C330" t="s">
+        <v>627</v>
+      </c>
       <c r="F330" s="2" t="s">
-        <v>623</v>
+        <v>885</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42">
@@ -10069,8 +10342,11 @@
       <c r="B331" t="s">
         <v>327</v>
       </c>
+      <c r="C331" t="s">
+        <v>624</v>
+      </c>
       <c r="F331" s="2" t="s">
-        <v>623</v>
+        <v>886</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{63BF3EBD-0918-3D47-9B6D-33EEC6D30B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1587B43A-8267-EF49-9BEB-3E0C6657EC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16160" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1590" uniqueCount="887">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1630" uniqueCount="903">
   <si>
     <t>Issue</t>
   </si>
@@ -4700,6 +4700,139 @@
     <rPh sb="49" eb="51">
       <t xml:space="preserve">カイゼン </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]EnvoyからgQUICサポートを削除
+[Class]サポートの削除</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]receiving bad http3 payloadに関するテストカバレッジ
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]connection infoをsingle providerに移動
+[Class]コードの改善</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]listener filterからpeekを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]postThreadLocalClusterUpdateを呼び出すことができる
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]thread local cacheを使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Pythonのpathlibを使用してコードをクリーンアップする
+[Class]機能の改善</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TEST_Pに多くの古いテストケースがある
+[Class]テストの改善</t>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">オオクノ </t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">フルイ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]notification styleを書き直す
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Thriftをアップグレードまたはcontribに移動
+[Class]機能の改善</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]observersをクリーンアップ
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GCOVR マクロを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]envoyのリリース日の変更の提案
+[Class]リリース</t>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">ビ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">テイアン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストにH/3が含まれていない
+[Class]テストの改善</t>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">フクマレテイナイ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gdfのtype aliasesの使用を更新
+[Class]機能の改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -5667,8 +5800,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F332" sqref="F332"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F371" sqref="F371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10356,8 +10489,11 @@
       <c r="B332" t="s">
         <v>328</v>
       </c>
+      <c r="C332" t="s">
+        <v>624</v>
+      </c>
       <c r="F332" s="2" t="s">
-        <v>623</v>
+        <v>887</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="42">
@@ -10367,8 +10503,11 @@
       <c r="B333" t="s">
         <v>329</v>
       </c>
+      <c r="C333" t="s">
+        <v>627</v>
+      </c>
       <c r="F333" s="2" t="s">
-        <v>623</v>
+        <v>888</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="42">
@@ -10378,8 +10517,11 @@
       <c r="B334" t="s">
         <v>330</v>
       </c>
+      <c r="C334" t="s">
+        <v>624</v>
+      </c>
       <c r="F334" s="2" t="s">
-        <v>623</v>
+        <v>889</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="42">
@@ -10389,8 +10531,11 @@
       <c r="B335" t="s">
         <v>331</v>
       </c>
+      <c r="C335" t="s">
+        <v>624</v>
+      </c>
       <c r="F335" s="2" t="s">
-        <v>623</v>
+        <v>890</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="42">
@@ -10400,8 +10545,11 @@
       <c r="B336" t="s">
         <v>332</v>
       </c>
+      <c r="C336" t="s">
+        <v>624</v>
+      </c>
       <c r="F336" s="2" t="s">
-        <v>623</v>
+        <v>891</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="42">
@@ -10411,8 +10559,11 @@
       <c r="B337" t="s">
         <v>333</v>
       </c>
+      <c r="C337" t="s">
+        <v>624</v>
+      </c>
       <c r="F337" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="42">
@@ -10422,8 +10573,11 @@
       <c r="B338" t="s">
         <v>334</v>
       </c>
+      <c r="C338" t="s">
+        <v>624</v>
+      </c>
       <c r="F338" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="42">
@@ -10433,8 +10587,11 @@
       <c r="B339" t="s">
         <v>335</v>
       </c>
+      <c r="C339" t="s">
+        <v>624</v>
+      </c>
       <c r="F339" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="42">
@@ -10444,8 +10601,11 @@
       <c r="B340" t="s">
         <v>336</v>
       </c>
+      <c r="C340" t="s">
+        <v>624</v>
+      </c>
       <c r="F340" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="42">
@@ -10455,8 +10615,11 @@
       <c r="B341" t="s">
         <v>337</v>
       </c>
+      <c r="C341" t="s">
+        <v>624</v>
+      </c>
       <c r="F341" s="2" t="s">
-        <v>623</v>
+        <v>892</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="42">
@@ -10466,8 +10629,11 @@
       <c r="B342" t="s">
         <v>338</v>
       </c>
+      <c r="C342" t="s">
+        <v>624</v>
+      </c>
       <c r="F342" s="2" t="s">
-        <v>623</v>
+        <v>893</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="42">
@@ -10477,8 +10643,11 @@
       <c r="B343" t="s">
         <v>339</v>
       </c>
+      <c r="C343" t="s">
+        <v>627</v>
+      </c>
       <c r="F343" s="2" t="s">
-        <v>623</v>
+        <v>894</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="42">
@@ -10488,8 +10657,11 @@
       <c r="B344" t="s">
         <v>340</v>
       </c>
+      <c r="C344" t="s">
+        <v>624</v>
+      </c>
       <c r="F344" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="42">
@@ -10499,8 +10671,11 @@
       <c r="B345" t="s">
         <v>341</v>
       </c>
+      <c r="C345" t="s">
+        <v>624</v>
+      </c>
       <c r="F345" s="2" t="s">
-        <v>623</v>
+        <v>895</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="42">
@@ -10510,8 +10685,11 @@
       <c r="B346" t="s">
         <v>342</v>
       </c>
+      <c r="C346" t="s">
+        <v>624</v>
+      </c>
       <c r="F346" s="2" t="s">
-        <v>623</v>
+        <v>896</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="42">
@@ -10521,8 +10699,11 @@
       <c r="B347" t="s">
         <v>343</v>
       </c>
+      <c r="C347" t="s">
+        <v>624</v>
+      </c>
       <c r="F347" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="42">
@@ -10532,8 +10713,11 @@
       <c r="B348" t="s">
         <v>344</v>
       </c>
+      <c r="C348" t="s">
+        <v>624</v>
+      </c>
       <c r="F348" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="42">
@@ -10543,8 +10727,11 @@
       <c r="B349" t="s">
         <v>345</v>
       </c>
+      <c r="C349" t="s">
+        <v>624</v>
+      </c>
       <c r="F349" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="42">
@@ -10554,8 +10741,11 @@
       <c r="B350" t="s">
         <v>346</v>
       </c>
+      <c r="C350" t="s">
+        <v>624</v>
+      </c>
       <c r="F350" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="42">
@@ -10565,8 +10755,11 @@
       <c r="B351" t="s">
         <v>347</v>
       </c>
+      <c r="C351" t="s">
+        <v>624</v>
+      </c>
       <c r="F351" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42">
@@ -10576,8 +10769,11 @@
       <c r="B352" t="s">
         <v>348</v>
       </c>
+      <c r="C352" t="s">
+        <v>624</v>
+      </c>
       <c r="F352" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="42">
@@ -10587,8 +10783,11 @@
       <c r="B353" t="s">
         <v>349</v>
       </c>
+      <c r="C353" t="s">
+        <v>624</v>
+      </c>
       <c r="F353" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="42">
@@ -10598,8 +10797,11 @@
       <c r="B354" t="s">
         <v>350</v>
       </c>
+      <c r="C354" t="s">
+        <v>624</v>
+      </c>
       <c r="F354" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="42">
@@ -10609,8 +10811,11 @@
       <c r="B355" t="s">
         <v>351</v>
       </c>
+      <c r="C355" t="s">
+        <v>624</v>
+      </c>
       <c r="F355" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="42">
@@ -10620,8 +10825,11 @@
       <c r="B356" t="s">
         <v>352</v>
       </c>
+      <c r="C356" t="s">
+        <v>624</v>
+      </c>
       <c r="F356" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="42">
@@ -10631,8 +10839,11 @@
       <c r="B357" t="s">
         <v>353</v>
       </c>
+      <c r="C357" t="s">
+        <v>624</v>
+      </c>
       <c r="F357" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="42">
@@ -10642,8 +10853,11 @@
       <c r="B358" t="s">
         <v>354</v>
       </c>
+      <c r="C358" t="s">
+        <v>624</v>
+      </c>
       <c r="F358" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="42">
@@ -10653,8 +10867,11 @@
       <c r="B359" t="s">
         <v>355</v>
       </c>
+      <c r="C359" t="s">
+        <v>624</v>
+      </c>
       <c r="F359" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="42">
@@ -10664,8 +10881,11 @@
       <c r="B360" t="s">
         <v>356</v>
       </c>
+      <c r="C360" t="s">
+        <v>624</v>
+      </c>
       <c r="F360" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="42">
@@ -10675,8 +10895,11 @@
       <c r="B361" t="s">
         <v>357</v>
       </c>
+      <c r="C361" t="s">
+        <v>624</v>
+      </c>
       <c r="F361" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="42">
@@ -10686,8 +10909,11 @@
       <c r="B362" t="s">
         <v>358</v>
       </c>
+      <c r="C362" t="s">
+        <v>624</v>
+      </c>
       <c r="F362" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="42">
@@ -10697,8 +10923,11 @@
       <c r="B363" t="s">
         <v>359</v>
       </c>
+      <c r="C363" t="s">
+        <v>624</v>
+      </c>
       <c r="F363" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="42">
@@ -10708,8 +10937,11 @@
       <c r="B364" t="s">
         <v>360</v>
       </c>
+      <c r="C364" t="s">
+        <v>624</v>
+      </c>
       <c r="F364" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="42">
@@ -10719,8 +10951,11 @@
       <c r="B365" t="s">
         <v>361</v>
       </c>
+      <c r="C365" t="s">
+        <v>624</v>
+      </c>
       <c r="F365" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="42">
@@ -10730,8 +10965,11 @@
       <c r="B366" t="s">
         <v>362</v>
       </c>
+      <c r="C366" t="s">
+        <v>624</v>
+      </c>
       <c r="F366" s="2" t="s">
-        <v>623</v>
+        <v>869</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="42">
@@ -10741,8 +10979,11 @@
       <c r="B367" t="s">
         <v>363</v>
       </c>
+      <c r="C367" t="s">
+        <v>624</v>
+      </c>
       <c r="F367" s="2" t="s">
-        <v>623</v>
+        <v>897</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="42">
@@ -10752,8 +10993,11 @@
       <c r="B368" t="s">
         <v>364</v>
       </c>
+      <c r="C368" t="s">
+        <v>624</v>
+      </c>
       <c r="F368" s="2" t="s">
-        <v>623</v>
+        <v>898</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="42">
@@ -10763,8 +11007,11 @@
       <c r="B369" t="s">
         <v>365</v>
       </c>
+      <c r="C369" t="s">
+        <v>899</v>
+      </c>
       <c r="F369" s="2" t="s">
-        <v>623</v>
+        <v>900</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="42">
@@ -10774,8 +11021,11 @@
       <c r="B370" t="s">
         <v>366</v>
       </c>
+      <c r="C370" t="s">
+        <v>627</v>
+      </c>
       <c r="F370" s="2" t="s">
-        <v>623</v>
+        <v>901</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="42">
@@ -10785,8 +11035,11 @@
       <c r="B371" t="s">
         <v>367</v>
       </c>
+      <c r="C371" t="s">
+        <v>624</v>
+      </c>
       <c r="F371" s="2" t="s">
-        <v>623</v>
+        <v>902</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1587B43A-8267-EF49-9BEB-3E0C6657EC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F61A5623-23E8-EC4F-BB50-0F975C337AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16160" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1630" uniqueCount="903">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1634" uniqueCount="907">
   <si>
     <t>Issue</t>
   </si>
@@ -4833,6 +4833,47 @@
   <si>
     <t>[Content]gdfのtype aliasesの使用を更新
 [Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]c++コードの自動フォーマットにclang-formatを使用
+[Class]機能の改善</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ジドウフォーマットニ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]”bits come in units of 32”と書かれている部分が多すぎる
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CUDA_HOST_DEVICE_CALLABLEが分かりづらく扱いづらい
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]csv_readerのconvert_string_to_dtypeに問題がある
+[Class]機能の改善</t>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">モンダイガアル </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -5800,8 +5841,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F371" sqref="F371"/>
+    <sheetView tabSelected="1" topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11049,8 +11090,11 @@
       <c r="B372" t="s">
         <v>368</v>
       </c>
+      <c r="C372" t="s">
+        <v>624</v>
+      </c>
       <c r="F372" s="2" t="s">
-        <v>623</v>
+        <v>903</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="42">
@@ -11060,8 +11104,11 @@
       <c r="B373" t="s">
         <v>369</v>
       </c>
+      <c r="C373" t="s">
+        <v>624</v>
+      </c>
       <c r="F373" s="2" t="s">
-        <v>623</v>
+        <v>904</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="42">
@@ -11071,8 +11118,11 @@
       <c r="B374" t="s">
         <v>370</v>
       </c>
+      <c r="C374" t="s">
+        <v>624</v>
+      </c>
       <c r="F374" s="2" t="s">
-        <v>623</v>
+        <v>905</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="42">
@@ -11082,8 +11132,11 @@
       <c r="B375" t="s">
         <v>371</v>
       </c>
+      <c r="C375" t="s">
+        <v>624</v>
+      </c>
       <c r="F375" s="2" t="s">
-        <v>623</v>
+        <v>906</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F61A5623-23E8-EC4F-BB50-0F975C337AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8B871346-9438-E94C-B91A-AB0253D10BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16160" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_C++" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1634" uniqueCount="907">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1674" uniqueCount="928">
   <si>
     <t>Issue</t>
   </si>
@@ -1221,15 +1221,9 @@
     <t>https://github.com/rapidsai/cudf/issues/2939</t>
   </si>
   <si>
-    <t>https://github.com/rapidsai/cudf/issues/2940</t>
-  </si>
-  <si>
     <t>https://github.com/rapidsai/cudf/issues/2941</t>
   </si>
   <si>
-    <t>https://github.com/rapidsai/cudf/issues/2942</t>
-  </si>
-  <si>
     <t>https://github.com/rapidsai/cudf/issues/2943</t>
   </si>
   <si>
@@ -1240,9 +1234,6 @@
   </si>
   <si>
     <t>https://github.com/rapidsai/cudf/issues/2946</t>
-  </si>
-  <si>
-    <t>https://github.com/rapidsai/cudf/issues/2947</t>
   </si>
   <si>
     <t>https://github.com/rapidsai/cudf/issues/2948</t>
@@ -4873,6 +4864,282 @@
     </rPh>
     <rPh sb="60" eb="62">
       <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ハードタイプされたintを変更
+[Class]機能の改善</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Thrust10.1の新機能を利用するための変更
+[Class]他のツールへの対応</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">リヨウスルタメ </t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t xml:space="preserve">タノツールヘノ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]特定のファイルがビルドに時間がかかる
+[Class]ビルドの改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">トクテイノファイル </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ジカンガカカル </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuDF APIの関数wpcpp/src/utilitiesに配置してはいけない
+[Class]コードの移動</t>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">ハイチシテハイケン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]round_up_safe()の修正
+[Class]関数の修正</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カンスウン </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GDF_BOOL8がテストされていない
+[Class]テストの追加</t>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]to_gpu_array()の修正
+[Class]関数の修正</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]legacy groupbyをリファクタリングしgdf_groupby_without_aggregationsを使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コード全体で固定サイズの型を使用する
+[Class]コードの改善</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">コテイサイズノ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]unwrapの呼び出しが誤っている
+[Class]バグの修正</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">アヤマッテイル </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gdf_order_byはリファクタリングが必要
+[Class]機能の改善</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ヒツヨウ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudfディレクトリの再編
+[Class]ディレクトリの変更</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">サイヘン </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]lhsとrhsの引数の型が間違っている
+[Class]機能の修正</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">ヒキスウ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">マチガッテイル </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]binaryops.cppはgdf_column_freeを呼び出す必要がある
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストのコンパイルが遅い
+[Class]テストの改善</t>
+    <rPh sb="19" eb="20">
+      <t xml:space="preserve">オソイ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い C++ groupbyの実装を削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Package structure/import systemに簡単に問題が発生する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいcudf::columnに対応するため機能を移行
+[Class]機能の移行</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">アタラシイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">タイオウスルタメキノウ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]GIS関数の削除
+[Class]不要な関数の削除</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/rapidsai/cudf/issues/2940</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/rapidsai/cudf/issues/2942</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://github.com/rapidsai/cudf/issues/2947</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]使用していないall_bitmask_on関数を削除
+[Class]不要な関数の削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シヨウシテイナイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ヘッダに依存関係を明示する
+[Class]ヘッダの変更</t>
+    <rPh sb="13" eb="17">
+      <t xml:space="preserve">イソンカンケイ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">メイジスル </t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -5841,8 +6108,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C375" sqref="C375"/>
+    <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F416" sqref="F416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5861,13 +6128,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42">
@@ -5878,10 +6145,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -5892,10 +6159,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -5906,10 +6173,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -5920,10 +6187,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -5934,10 +6201,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -5948,10 +6215,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
@@ -5962,10 +6229,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -5976,10 +6243,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -5990,10 +6257,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -6004,10 +6271,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -6018,13 +6285,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -6035,10 +6302,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -6049,10 +6316,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -6063,10 +6330,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -6077,10 +6344,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -6091,10 +6358,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -6105,10 +6372,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -6119,10 +6386,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -6133,10 +6400,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -6147,10 +6414,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -6161,10 +6428,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -6175,10 +6442,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -6189,10 +6456,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -6203,10 +6470,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -6217,10 +6484,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -6231,10 +6498,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -6245,10 +6512,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -6259,13 +6526,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
+        <v>621</v>
+      </c>
+      <c r="D29" t="s">
         <v>624</v>
       </c>
-      <c r="D29" t="s">
-        <v>627</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -6276,10 +6543,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -6290,10 +6557,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -6304,10 +6571,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -6318,10 +6585,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -6332,10 +6599,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -6346,10 +6613,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -6360,10 +6627,10 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -6374,10 +6641,10 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -6388,10 +6655,10 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -6402,10 +6669,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -6416,10 +6683,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -6430,10 +6697,10 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -6444,10 +6711,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -6458,10 +6725,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -6472,10 +6739,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -6486,10 +6753,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -6500,10 +6767,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -6514,10 +6781,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -6528,10 +6795,10 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -6542,10 +6809,10 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -6556,10 +6823,10 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -6570,10 +6837,10 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -6584,16 +6851,16 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D52" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E52" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -6604,10 +6871,10 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -6618,10 +6885,10 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -6632,10 +6899,10 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -6646,10 +6913,10 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -6660,10 +6927,10 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -6674,10 +6941,10 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -6688,10 +6955,10 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -6702,10 +6969,10 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -6716,10 +6983,10 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -6730,10 +6997,10 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -6744,10 +7011,10 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -6758,10 +7025,10 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -6769,13 +7036,13 @@
         <v>2904</v>
       </c>
       <c r="B65" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C65" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -6786,10 +7053,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -6800,10 +7067,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -6814,10 +7081,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -6828,10 +7095,10 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -6842,10 +7109,10 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -6856,10 +7123,10 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -6870,10 +7137,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -6884,10 +7151,10 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -6898,10 +7165,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -6912,10 +7179,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -6926,10 +7193,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -6940,10 +7207,10 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -6954,10 +7221,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -6968,10 +7235,10 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -6982,10 +7249,10 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -6996,10 +7263,10 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -7010,10 +7277,10 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -7024,10 +7291,10 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -7038,10 +7305,10 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -7052,10 +7319,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -7066,10 +7333,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -7080,10 +7347,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -7094,10 +7361,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -7108,10 +7375,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -7122,10 +7389,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -7136,10 +7403,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -7150,10 +7417,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -7164,10 +7431,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -7178,10 +7445,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -7192,10 +7459,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -7206,10 +7473,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -7220,10 +7487,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -7234,10 +7501,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -7248,10 +7515,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -7262,10 +7529,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
@@ -7276,10 +7543,10 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -7290,10 +7557,10 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -7304,10 +7571,10 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -7318,10 +7585,10 @@
         <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -7332,10 +7599,10 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -7346,10 +7613,10 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -7360,10 +7627,10 @@
         <v>106</v>
       </c>
       <c r="C107" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -7374,10 +7641,10 @@
         <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -7385,13 +7652,13 @@
         <v>4623</v>
       </c>
       <c r="B109" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C109" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -7402,10 +7669,10 @@
         <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -7416,10 +7683,10 @@
         <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -7430,10 +7697,10 @@
         <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -7444,10 +7711,10 @@
         <v>111</v>
       </c>
       <c r="C113" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -7458,10 +7725,10 @@
         <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -7472,10 +7739,10 @@
         <v>113</v>
       </c>
       <c r="C115" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -7486,10 +7753,10 @@
         <v>114</v>
       </c>
       <c r="C116" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -7500,10 +7767,10 @@
         <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -7514,10 +7781,10 @@
         <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -7528,10 +7795,10 @@
         <v>117</v>
       </c>
       <c r="C119" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -7542,10 +7809,10 @@
         <v>118</v>
       </c>
       <c r="C120" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -7556,10 +7823,10 @@
         <v>119</v>
       </c>
       <c r="C121" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">
@@ -7570,10 +7837,10 @@
         <v>120</v>
       </c>
       <c r="C122" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -7584,10 +7851,10 @@
         <v>121</v>
       </c>
       <c r="C123" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -7598,10 +7865,10 @@
         <v>122</v>
       </c>
       <c r="C124" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -7612,10 +7879,10 @@
         <v>123</v>
       </c>
       <c r="C125" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -7626,10 +7893,10 @@
         <v>124</v>
       </c>
       <c r="C126" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -7640,10 +7907,10 @@
         <v>125</v>
       </c>
       <c r="C127" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -7654,10 +7921,10 @@
         <v>126</v>
       </c>
       <c r="C128" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -7668,10 +7935,10 @@
         <v>127</v>
       </c>
       <c r="C129" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -7682,10 +7949,10 @@
         <v>128</v>
       </c>
       <c r="C130" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -7696,10 +7963,10 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -7710,10 +7977,10 @@
         <v>130</v>
       </c>
       <c r="C132" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -7724,10 +7991,10 @@
         <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -7738,10 +8005,10 @@
         <v>132</v>
       </c>
       <c r="C134" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -7752,10 +8019,10 @@
         <v>133</v>
       </c>
       <c r="C135" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -7766,10 +8033,10 @@
         <v>134</v>
       </c>
       <c r="C136" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -7780,10 +8047,10 @@
         <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -7794,10 +8061,10 @@
         <v>136</v>
       </c>
       <c r="C138" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -7808,10 +8075,10 @@
         <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -7822,10 +8089,10 @@
         <v>138</v>
       </c>
       <c r="C140" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -7836,10 +8103,10 @@
         <v>139</v>
       </c>
       <c r="C141" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -7850,10 +8117,10 @@
         <v>140</v>
       </c>
       <c r="C142" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -7864,10 +8131,10 @@
         <v>141</v>
       </c>
       <c r="C143" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -7878,10 +8145,10 @@
         <v>142</v>
       </c>
       <c r="C144" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -7892,10 +8159,10 @@
         <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -7906,10 +8173,10 @@
         <v>144</v>
       </c>
       <c r="C146" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -7920,10 +8187,10 @@
         <v>145</v>
       </c>
       <c r="C147" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -7934,10 +8201,10 @@
         <v>146</v>
       </c>
       <c r="C148" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -7948,10 +8215,10 @@
         <v>147</v>
       </c>
       <c r="C149" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -7962,10 +8229,10 @@
         <v>148</v>
       </c>
       <c r="C150" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -7976,10 +8243,10 @@
         <v>149</v>
       </c>
       <c r="C151" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -7990,13 +8257,13 @@
         <v>150</v>
       </c>
       <c r="C152" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D152" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -8007,10 +8274,10 @@
         <v>151</v>
       </c>
       <c r="C153" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -8021,10 +8288,10 @@
         <v>152</v>
       </c>
       <c r="C154" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -8035,10 +8302,10 @@
         <v>153</v>
       </c>
       <c r="C155" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -8049,10 +8316,10 @@
         <v>154</v>
       </c>
       <c r="C156" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -8063,10 +8330,10 @@
         <v>155</v>
       </c>
       <c r="C157" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -8077,10 +8344,10 @@
         <v>156</v>
       </c>
       <c r="C158" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -8091,10 +8358,10 @@
         <v>157</v>
       </c>
       <c r="C159" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -8105,10 +8372,10 @@
         <v>158</v>
       </c>
       <c r="C160" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -8119,10 +8386,10 @@
         <v>159</v>
       </c>
       <c r="C161" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -8133,10 +8400,10 @@
         <v>160</v>
       </c>
       <c r="C162" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -8147,10 +8414,10 @@
         <v>161</v>
       </c>
       <c r="C163" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -8161,10 +8428,10 @@
         <v>162</v>
       </c>
       <c r="C164" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -8175,10 +8442,10 @@
         <v>163</v>
       </c>
       <c r="C165" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -8189,10 +8456,10 @@
         <v>164</v>
       </c>
       <c r="C166" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -8203,10 +8470,10 @@
         <v>165</v>
       </c>
       <c r="C167" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -8217,10 +8484,10 @@
         <v>166</v>
       </c>
       <c r="C168" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -8231,10 +8498,10 @@
         <v>167</v>
       </c>
       <c r="C169" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -8245,10 +8512,10 @@
         <v>168</v>
       </c>
       <c r="C170" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -8259,10 +8526,10 @@
         <v>169</v>
       </c>
       <c r="C171" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -8273,10 +8540,10 @@
         <v>170</v>
       </c>
       <c r="C172" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -8287,10 +8554,10 @@
         <v>171</v>
       </c>
       <c r="C173" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -8301,10 +8568,10 @@
         <v>172</v>
       </c>
       <c r="C174" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -8315,10 +8582,10 @@
         <v>173</v>
       </c>
       <c r="C175" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -8329,13 +8596,13 @@
         <v>174</v>
       </c>
       <c r="C176" t="s">
+        <v>621</v>
+      </c>
+      <c r="D176" t="s">
         <v>624</v>
       </c>
-      <c r="D176" t="s">
-        <v>627</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -8346,10 +8613,10 @@
         <v>175</v>
       </c>
       <c r="C177" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -8360,10 +8627,10 @@
         <v>176</v>
       </c>
       <c r="C178" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -8374,10 +8641,10 @@
         <v>177</v>
       </c>
       <c r="C179" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -8388,13 +8655,13 @@
         <v>178</v>
       </c>
       <c r="C180" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D180" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -8405,10 +8672,10 @@
         <v>179</v>
       </c>
       <c r="C181" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -8419,10 +8686,10 @@
         <v>180</v>
       </c>
       <c r="C182" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -8433,10 +8700,10 @@
         <v>181</v>
       </c>
       <c r="C183" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -8447,10 +8714,10 @@
         <v>182</v>
       </c>
       <c r="C184" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -8461,10 +8728,10 @@
         <v>183</v>
       </c>
       <c r="C185" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -8475,10 +8742,10 @@
         <v>184</v>
       </c>
       <c r="C186" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -8489,16 +8756,16 @@
         <v>185</v>
       </c>
       <c r="C187" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D187" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E187" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -8509,10 +8776,10 @@
         <v>186</v>
       </c>
       <c r="C188" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -8523,10 +8790,10 @@
         <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -8537,10 +8804,10 @@
         <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -8551,10 +8818,10 @@
         <v>189</v>
       </c>
       <c r="C191" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -8565,10 +8832,10 @@
         <v>190</v>
       </c>
       <c r="C192" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -8579,10 +8846,10 @@
         <v>191</v>
       </c>
       <c r="C193" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -8593,10 +8860,10 @@
         <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -8607,10 +8874,10 @@
         <v>193</v>
       </c>
       <c r="C195" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -8621,10 +8888,10 @@
         <v>194</v>
       </c>
       <c r="C196" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -8635,10 +8902,10 @@
         <v>195</v>
       </c>
       <c r="C197" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -8649,10 +8916,10 @@
         <v>196</v>
       </c>
       <c r="C198" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -8663,10 +8930,10 @@
         <v>197</v>
       </c>
       <c r="C199" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -8677,10 +8944,10 @@
         <v>198</v>
       </c>
       <c r="C200" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">
@@ -8691,10 +8958,10 @@
         <v>199</v>
       </c>
       <c r="C201" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -8705,10 +8972,10 @@
         <v>200</v>
       </c>
       <c r="C202" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -8719,10 +8986,10 @@
         <v>201</v>
       </c>
       <c r="C203" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -8733,10 +9000,10 @@
         <v>202</v>
       </c>
       <c r="C204" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -8747,10 +9014,10 @@
         <v>203</v>
       </c>
       <c r="C205" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="42">
@@ -8761,10 +9028,10 @@
         <v>204</v>
       </c>
       <c r="C206" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -8775,10 +9042,10 @@
         <v>205</v>
       </c>
       <c r="C207" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -8789,10 +9056,10 @@
         <v>206</v>
       </c>
       <c r="C208" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="42">
@@ -8803,10 +9070,10 @@
         <v>207</v>
       </c>
       <c r="C209" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -8817,10 +9084,10 @@
         <v>208</v>
       </c>
       <c r="C210" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -8831,10 +9098,10 @@
         <v>209</v>
       </c>
       <c r="C211" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -8845,10 +9112,10 @@
         <v>210</v>
       </c>
       <c r="C212" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -8859,10 +9126,10 @@
         <v>211</v>
       </c>
       <c r="C213" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="42">
@@ -8873,10 +9140,10 @@
         <v>212</v>
       </c>
       <c r="C214" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -8887,10 +9154,10 @@
         <v>213</v>
       </c>
       <c r="C215" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="42">
@@ -8901,10 +9168,10 @@
         <v>214</v>
       </c>
       <c r="C216" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -8915,10 +9182,10 @@
         <v>215</v>
       </c>
       <c r="C217" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42">
@@ -8929,10 +9196,10 @@
         <v>216</v>
       </c>
       <c r="C218" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -8943,10 +9210,10 @@
         <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -8957,10 +9224,10 @@
         <v>218</v>
       </c>
       <c r="C220" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
@@ -8971,10 +9238,10 @@
         <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="42">
@@ -8985,10 +9252,10 @@
         <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="42">
@@ -8999,10 +9266,10 @@
         <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="42">
@@ -9013,10 +9280,10 @@
         <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="42">
@@ -9027,10 +9294,10 @@
         <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="42">
@@ -9041,10 +9308,10 @@
         <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42">
@@ -9055,10 +9322,10 @@
         <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="42">
@@ -9069,10 +9336,10 @@
         <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="42">
@@ -9083,10 +9350,10 @@
         <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="42">
@@ -9097,10 +9364,10 @@
         <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="42">
@@ -9111,10 +9378,10 @@
         <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42">
@@ -9125,10 +9392,10 @@
         <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="42">
@@ -9139,10 +9406,10 @@
         <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="42">
@@ -9153,10 +9420,10 @@
         <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="42">
@@ -9167,10 +9434,10 @@
         <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="42">
@@ -9181,10 +9448,10 @@
         <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="42">
@@ -9195,10 +9462,10 @@
         <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="42">
@@ -9209,13 +9476,13 @@
         <v>236</v>
       </c>
       <c r="C238" t="s">
+        <v>621</v>
+      </c>
+      <c r="D238" t="s">
         <v>624</v>
       </c>
-      <c r="D238" t="s">
-        <v>627</v>
-      </c>
       <c r="F238" s="2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="42">
@@ -9226,10 +9493,10 @@
         <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="42">
@@ -9240,10 +9507,10 @@
         <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="42">
@@ -9254,10 +9521,10 @@
         <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="42">
@@ -9268,10 +9535,10 @@
         <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="42">
@@ -9282,10 +9549,10 @@
         <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="42">
@@ -9296,10 +9563,10 @@
         <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="42">
@@ -9310,10 +9577,10 @@
         <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="42">
@@ -9324,10 +9591,10 @@
         <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="42">
@@ -9338,10 +9605,10 @@
         <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="42">
@@ -9352,10 +9619,10 @@
         <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="42">
@@ -9366,10 +9633,10 @@
         <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="42">
@@ -9380,10 +9647,10 @@
         <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="42">
@@ -9394,10 +9661,10 @@
         <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="42">
@@ -9408,10 +9675,10 @@
         <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="42">
@@ -9422,10 +9689,10 @@
         <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="42">
@@ -9436,10 +9703,10 @@
         <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="42">
@@ -9450,10 +9717,10 @@
         <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="42">
@@ -9464,10 +9731,10 @@
         <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="42">
@@ -9478,10 +9745,10 @@
         <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="42">
@@ -9492,10 +9759,10 @@
         <v>256</v>
       </c>
       <c r="C258" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="42">
@@ -9506,10 +9773,10 @@
         <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="42">
@@ -9520,10 +9787,10 @@
         <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="42">
@@ -9534,10 +9801,10 @@
         <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="42">
@@ -9548,10 +9815,10 @@
         <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="42">
@@ -9562,10 +9829,10 @@
         <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="42">
@@ -9573,13 +9840,13 @@
         <v>11999</v>
       </c>
       <c r="B264" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C264" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="42">
@@ -9590,10 +9857,10 @@
         <v>262</v>
       </c>
       <c r="C265" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="42">
@@ -9604,10 +9871,10 @@
         <v>263</v>
       </c>
       <c r="C266" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="42">
@@ -9618,10 +9885,10 @@
         <v>264</v>
       </c>
       <c r="C267" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="42">
@@ -9632,10 +9899,10 @@
         <v>265</v>
       </c>
       <c r="C268" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="42">
@@ -9646,10 +9913,10 @@
         <v>266</v>
       </c>
       <c r="C269" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="42">
@@ -9660,10 +9927,10 @@
         <v>267</v>
       </c>
       <c r="C270" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="42">
@@ -9674,10 +9941,10 @@
         <v>268</v>
       </c>
       <c r="C271" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="42">
@@ -9685,13 +9952,13 @@
         <v>12297</v>
       </c>
       <c r="B272" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C272" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="42">
@@ -9702,10 +9969,10 @@
         <v>269</v>
       </c>
       <c r="C273" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="42">
@@ -9716,10 +9983,10 @@
         <v>270</v>
       </c>
       <c r="C274" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="42">
@@ -9730,10 +9997,10 @@
         <v>271</v>
       </c>
       <c r="C275" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="42">
@@ -9744,10 +10011,10 @@
         <v>272</v>
       </c>
       <c r="C276" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="42">
@@ -9758,10 +10025,10 @@
         <v>273</v>
       </c>
       <c r="C277" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="42">
@@ -9772,10 +10039,10 @@
         <v>274</v>
       </c>
       <c r="C278" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="42">
@@ -9786,10 +10053,10 @@
         <v>275</v>
       </c>
       <c r="C279" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="42">
@@ -9800,10 +10067,10 @@
         <v>276</v>
       </c>
       <c r="C280" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="42">
@@ -9814,10 +10081,10 @@
         <v>277</v>
       </c>
       <c r="C281" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="42">
@@ -9828,10 +10095,10 @@
         <v>278</v>
       </c>
       <c r="C282" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="42">
@@ -9842,10 +10109,10 @@
         <v>279</v>
       </c>
       <c r="C283" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="42">
@@ -9856,10 +10123,10 @@
         <v>280</v>
       </c>
       <c r="C284" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="42">
@@ -9870,10 +10137,10 @@
         <v>281</v>
       </c>
       <c r="C285" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="42">
@@ -9884,10 +10151,10 @@
         <v>282</v>
       </c>
       <c r="C286" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="42">
@@ -9898,10 +10165,10 @@
         <v>283</v>
       </c>
       <c r="C287" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="42">
@@ -9912,10 +10179,10 @@
         <v>284</v>
       </c>
       <c r="C288" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="42">
@@ -9926,10 +10193,10 @@
         <v>285</v>
       </c>
       <c r="C289" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="42">
@@ -9940,10 +10207,10 @@
         <v>286</v>
       </c>
       <c r="C290" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="42">
@@ -9954,10 +10221,10 @@
         <v>287</v>
       </c>
       <c r="C291" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="42">
@@ -9968,10 +10235,10 @@
         <v>288</v>
       </c>
       <c r="C292" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="42">
@@ -9982,10 +10249,10 @@
         <v>289</v>
       </c>
       <c r="C293" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="42">
@@ -9996,10 +10263,10 @@
         <v>290</v>
       </c>
       <c r="C294" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="42">
@@ -10010,10 +10277,10 @@
         <v>291</v>
       </c>
       <c r="C295" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="42">
@@ -10024,10 +10291,10 @@
         <v>292</v>
       </c>
       <c r="C296" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="42">
@@ -10038,10 +10305,10 @@
         <v>293</v>
       </c>
       <c r="C297" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="42">
@@ -10052,10 +10319,10 @@
         <v>294</v>
       </c>
       <c r="C298" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="42">
@@ -10066,10 +10333,10 @@
         <v>295</v>
       </c>
       <c r="C299" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42">
@@ -10080,10 +10347,10 @@
         <v>296</v>
       </c>
       <c r="C300" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42">
@@ -10094,10 +10361,10 @@
         <v>297</v>
       </c>
       <c r="C301" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="42">
@@ -10108,10 +10375,10 @@
         <v>298</v>
       </c>
       <c r="C302" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="42">
@@ -10122,10 +10389,10 @@
         <v>299</v>
       </c>
       <c r="C303" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="42">
@@ -10136,10 +10403,10 @@
         <v>300</v>
       </c>
       <c r="C304" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="42">
@@ -10150,10 +10417,10 @@
         <v>301</v>
       </c>
       <c r="C305" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="42">
@@ -10164,10 +10431,10 @@
         <v>302</v>
       </c>
       <c r="C306" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="42">
@@ -10178,10 +10445,10 @@
         <v>303</v>
       </c>
       <c r="C307" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="42">
@@ -10192,10 +10459,10 @@
         <v>304</v>
       </c>
       <c r="C308" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="42">
@@ -10206,10 +10473,10 @@
         <v>305</v>
       </c>
       <c r="C309" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="42">
@@ -10220,10 +10487,10 @@
         <v>306</v>
       </c>
       <c r="C310" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="42">
@@ -10234,13 +10501,13 @@
         <v>307</v>
       </c>
       <c r="C311" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D311" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="42">
@@ -10251,10 +10518,10 @@
         <v>308</v>
       </c>
       <c r="C312" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="42">
@@ -10265,10 +10532,10 @@
         <v>309</v>
       </c>
       <c r="C313" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="42">
@@ -10279,10 +10546,10 @@
         <v>310</v>
       </c>
       <c r="C314" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="42">
@@ -10293,10 +10560,10 @@
         <v>311</v>
       </c>
       <c r="C315" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="42">
@@ -10307,10 +10574,10 @@
         <v>312</v>
       </c>
       <c r="C316" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="42">
@@ -10321,10 +10588,10 @@
         <v>313</v>
       </c>
       <c r="C317" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="42">
@@ -10335,10 +10602,10 @@
         <v>314</v>
       </c>
       <c r="C318" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="42">
@@ -10349,10 +10616,10 @@
         <v>315</v>
       </c>
       <c r="C319" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="42">
@@ -10363,10 +10630,10 @@
         <v>316</v>
       </c>
       <c r="C320" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="42">
@@ -10377,10 +10644,10 @@
         <v>317</v>
       </c>
       <c r="C321" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="42">
@@ -10391,10 +10658,10 @@
         <v>318</v>
       </c>
       <c r="C322" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="42">
@@ -10405,10 +10672,10 @@
         <v>319</v>
       </c>
       <c r="C323" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="42">
@@ -10419,10 +10686,10 @@
         <v>320</v>
       </c>
       <c r="C324" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="42">
@@ -10433,10 +10700,10 @@
         <v>321</v>
       </c>
       <c r="C325" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="42">
@@ -10447,10 +10714,10 @@
         <v>322</v>
       </c>
       <c r="C326" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="42">
@@ -10461,10 +10728,10 @@
         <v>323</v>
       </c>
       <c r="C327" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="42">
@@ -10475,10 +10742,10 @@
         <v>324</v>
       </c>
       <c r="C328" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="42">
@@ -10489,10 +10756,10 @@
         <v>325</v>
       </c>
       <c r="C329" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="42">
@@ -10503,10 +10770,10 @@
         <v>326</v>
       </c>
       <c r="C330" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="42">
@@ -10517,10 +10784,10 @@
         <v>327</v>
       </c>
       <c r="C331" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="42">
@@ -10531,10 +10798,10 @@
         <v>328</v>
       </c>
       <c r="C332" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="42">
@@ -10545,10 +10812,10 @@
         <v>329</v>
       </c>
       <c r="C333" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="42">
@@ -10559,10 +10826,10 @@
         <v>330</v>
       </c>
       <c r="C334" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="42">
@@ -10573,10 +10840,10 @@
         <v>331</v>
       </c>
       <c r="C335" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="42">
@@ -10587,10 +10854,10 @@
         <v>332</v>
       </c>
       <c r="C336" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="42">
@@ -10601,10 +10868,10 @@
         <v>333</v>
       </c>
       <c r="C337" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="42">
@@ -10615,10 +10882,10 @@
         <v>334</v>
       </c>
       <c r="C338" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="42">
@@ -10629,10 +10896,10 @@
         <v>335</v>
       </c>
       <c r="C339" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="42">
@@ -10643,10 +10910,10 @@
         <v>336</v>
       </c>
       <c r="C340" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="42">
@@ -10657,10 +10924,10 @@
         <v>337</v>
       </c>
       <c r="C341" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="42">
@@ -10671,10 +10938,10 @@
         <v>338</v>
       </c>
       <c r="C342" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="42">
@@ -10685,10 +10952,10 @@
         <v>339</v>
       </c>
       <c r="C343" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="42">
@@ -10699,10 +10966,10 @@
         <v>340</v>
       </c>
       <c r="C344" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="42">
@@ -10713,10 +10980,10 @@
         <v>341</v>
       </c>
       <c r="C345" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="42">
@@ -10727,10 +10994,10 @@
         <v>342</v>
       </c>
       <c r="C346" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="42">
@@ -10741,10 +11008,10 @@
         <v>343</v>
       </c>
       <c r="C347" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="42">
@@ -10755,10 +11022,10 @@
         <v>344</v>
       </c>
       <c r="C348" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="42">
@@ -10769,10 +11036,10 @@
         <v>345</v>
       </c>
       <c r="C349" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="42">
@@ -10783,10 +11050,10 @@
         <v>346</v>
       </c>
       <c r="C350" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="42">
@@ -10797,10 +11064,10 @@
         <v>347</v>
       </c>
       <c r="C351" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42">
@@ -10811,10 +11078,10 @@
         <v>348</v>
       </c>
       <c r="C352" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="42">
@@ -10825,10 +11092,10 @@
         <v>349</v>
       </c>
       <c r="C353" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="42">
@@ -10839,10 +11106,10 @@
         <v>350</v>
       </c>
       <c r="C354" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="42">
@@ -10853,10 +11120,10 @@
         <v>351</v>
       </c>
       <c r="C355" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="42">
@@ -10867,10 +11134,10 @@
         <v>352</v>
       </c>
       <c r="C356" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="357" spans="1:6" ht="42">
@@ -10881,10 +11148,10 @@
         <v>353</v>
       </c>
       <c r="C357" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="358" spans="1:6" ht="42">
@@ -10895,10 +11162,10 @@
         <v>354</v>
       </c>
       <c r="C358" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="42">
@@ -10909,10 +11176,10 @@
         <v>355</v>
       </c>
       <c r="C359" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="42">
@@ -10923,10 +11190,10 @@
         <v>356</v>
       </c>
       <c r="C360" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="42">
@@ -10937,10 +11204,10 @@
         <v>357</v>
       </c>
       <c r="C361" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="42">
@@ -10951,10 +11218,10 @@
         <v>358</v>
       </c>
       <c r="C362" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="42">
@@ -10965,10 +11232,10 @@
         <v>359</v>
       </c>
       <c r="C363" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="42">
@@ -10979,10 +11246,10 @@
         <v>360</v>
       </c>
       <c r="C364" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F364" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="365" spans="1:6" ht="42">
@@ -10993,10 +11260,10 @@
         <v>361</v>
       </c>
       <c r="C365" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="42">
@@ -11007,10 +11274,10 @@
         <v>362</v>
       </c>
       <c r="C366" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="42">
@@ -11021,10 +11288,10 @@
         <v>363</v>
       </c>
       <c r="C367" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="42">
@@ -11035,10 +11302,10 @@
         <v>364</v>
       </c>
       <c r="C368" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="42">
@@ -11049,10 +11316,10 @@
         <v>365</v>
       </c>
       <c r="C369" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="42">
@@ -11063,10 +11330,10 @@
         <v>366</v>
       </c>
       <c r="C370" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F370" s="2" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="42">
@@ -11077,10 +11344,10 @@
         <v>367</v>
       </c>
       <c r="C371" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="42">
@@ -11091,10 +11358,10 @@
         <v>368</v>
       </c>
       <c r="C372" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="42">
@@ -11105,10 +11372,10 @@
         <v>369</v>
       </c>
       <c r="C373" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F373" s="2" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="42">
@@ -11119,10 +11386,10 @@
         <v>370</v>
       </c>
       <c r="C374" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="42">
@@ -11133,10 +11400,10 @@
         <v>371</v>
       </c>
       <c r="C375" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="42">
@@ -11146,8 +11413,11 @@
       <c r="B376" t="s">
         <v>372</v>
       </c>
+      <c r="C376" t="s">
+        <v>621</v>
+      </c>
       <c r="F376" s="2" t="s">
-        <v>623</v>
+        <v>904</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="42">
@@ -11157,8 +11427,11 @@
       <c r="B377" t="s">
         <v>373</v>
       </c>
+      <c r="C377" t="s">
+        <v>676</v>
+      </c>
       <c r="F377" s="2" t="s">
-        <v>623</v>
+        <v>905</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="42">
@@ -11168,8 +11441,11 @@
       <c r="B378" t="s">
         <v>374</v>
       </c>
+      <c r="C378" t="s">
+        <v>757</v>
+      </c>
       <c r="F378" s="2" t="s">
-        <v>623</v>
+        <v>906</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="42">
@@ -11179,8 +11455,11 @@
       <c r="B379" t="s">
         <v>375</v>
       </c>
+      <c r="C379" t="s">
+        <v>621</v>
+      </c>
       <c r="F379" s="2" t="s">
-        <v>623</v>
+        <v>907</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="42">
@@ -11190,8 +11469,11 @@
       <c r="B380" t="s">
         <v>376</v>
       </c>
+      <c r="C380" t="s">
+        <v>621</v>
+      </c>
       <c r="F380" s="2" t="s">
-        <v>623</v>
+        <v>908</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="42">
@@ -11201,8 +11483,11 @@
       <c r="B381" t="s">
         <v>377</v>
       </c>
+      <c r="C381" t="s">
+        <v>624</v>
+      </c>
       <c r="F381" s="2" t="s">
-        <v>623</v>
+        <v>909</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="42">
@@ -11212,19 +11497,25 @@
       <c r="B382" t="s">
         <v>378</v>
       </c>
+      <c r="C382" t="s">
+        <v>621</v>
+      </c>
       <c r="F382" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" ht="42">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="63">
       <c r="A383">
         <v>1747</v>
       </c>
       <c r="B383" t="s">
         <v>379</v>
       </c>
+      <c r="C383" t="s">
+        <v>621</v>
+      </c>
       <c r="F383" s="2" t="s">
-        <v>623</v>
+        <v>911</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="42">
@@ -11234,8 +11525,11 @@
       <c r="B384" t="s">
         <v>380</v>
       </c>
+      <c r="C384" t="s">
+        <v>621</v>
+      </c>
       <c r="F384" s="2" t="s">
-        <v>623</v>
+        <v>912</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="42">
@@ -11245,8 +11539,11 @@
       <c r="B385" t="s">
         <v>381</v>
       </c>
+      <c r="C385" t="s">
+        <v>621</v>
+      </c>
       <c r="F385" s="2" t="s">
-        <v>623</v>
+        <v>913</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="42">
@@ -11256,8 +11553,11 @@
       <c r="B386" t="s">
         <v>382</v>
       </c>
+      <c r="C386" t="s">
+        <v>621</v>
+      </c>
       <c r="F386" s="2" t="s">
-        <v>623</v>
+        <v>914</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="42">
@@ -11267,8 +11567,11 @@
       <c r="B387" t="s">
         <v>383</v>
       </c>
+      <c r="C387" t="s">
+        <v>621</v>
+      </c>
       <c r="F387" s="2" t="s">
-        <v>623</v>
+        <v>915</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="42">
@@ -11278,8 +11581,11 @@
       <c r="B388" t="s">
         <v>384</v>
       </c>
+      <c r="C388" t="s">
+        <v>621</v>
+      </c>
       <c r="F388" s="2" t="s">
-        <v>623</v>
+        <v>916</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="42">
@@ -11289,8 +11595,11 @@
       <c r="B389" t="s">
         <v>385</v>
       </c>
+      <c r="C389" t="s">
+        <v>621</v>
+      </c>
       <c r="F389" s="2" t="s">
-        <v>623</v>
+        <v>917</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="42">
@@ -11300,8 +11609,11 @@
       <c r="B390" t="s">
         <v>386</v>
       </c>
+      <c r="C390" t="s">
+        <v>624</v>
+      </c>
       <c r="F390" s="2" t="s">
-        <v>623</v>
+        <v>918</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="42">
@@ -11311,8 +11623,11 @@
       <c r="B391" t="s">
         <v>387</v>
       </c>
+      <c r="C391" t="s">
+        <v>621</v>
+      </c>
       <c r="F391" s="2" t="s">
-        <v>623</v>
+        <v>919</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="42">
@@ -11322,8 +11637,11 @@
       <c r="B392" t="s">
         <v>388</v>
       </c>
+      <c r="C392" t="s">
+        <v>621</v>
+      </c>
       <c r="F392" s="2" t="s">
-        <v>623</v>
+        <v>920</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="42">
@@ -11333,8 +11651,11 @@
       <c r="B393" t="s">
         <v>389</v>
       </c>
+      <c r="C393" t="s">
+        <v>621</v>
+      </c>
       <c r="F393" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="42">
@@ -11344,8 +11665,11 @@
       <c r="B394" t="s">
         <v>390</v>
       </c>
+      <c r="C394" t="s">
+        <v>621</v>
+      </c>
       <c r="F394" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="42">
@@ -11355,8 +11679,11 @@
       <c r="B395" t="s">
         <v>391</v>
       </c>
+      <c r="C395" t="s">
+        <v>621</v>
+      </c>
       <c r="F395" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="42">
@@ -11366,8 +11693,11 @@
       <c r="B396" t="s">
         <v>392</v>
       </c>
+      <c r="C396" t="s">
+        <v>621</v>
+      </c>
       <c r="F396" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="42">
@@ -11377,8 +11707,11 @@
       <c r="B397" t="s">
         <v>393</v>
       </c>
+      <c r="C397" t="s">
+        <v>621</v>
+      </c>
       <c r="F397" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="42">
@@ -11388,8 +11721,11 @@
       <c r="B398" t="s">
         <v>394</v>
       </c>
+      <c r="C398" t="s">
+        <v>621</v>
+      </c>
       <c r="F398" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="42">
@@ -11399,8 +11735,11 @@
       <c r="B399" t="s">
         <v>395</v>
       </c>
+      <c r="C399" t="s">
+        <v>621</v>
+      </c>
       <c r="F399" s="2" t="s">
-        <v>623</v>
+        <v>922</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="42">
@@ -11410,8 +11749,11 @@
       <c r="B400" t="s">
         <v>396</v>
       </c>
+      <c r="C400" t="s">
+        <v>621</v>
+      </c>
       <c r="F400" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="42">
@@ -11421,8 +11763,11 @@
       <c r="B401" t="s">
         <v>397</v>
       </c>
+      <c r="C401" t="s">
+        <v>621</v>
+      </c>
       <c r="F401" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="42">
@@ -11430,10 +11775,13 @@
         <v>2940</v>
       </c>
       <c r="B402" t="s">
-        <v>398</v>
+        <v>923</v>
+      </c>
+      <c r="C402" t="s">
+        <v>621</v>
       </c>
       <c r="F402" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="42">
@@ -11441,10 +11789,13 @@
         <v>2941</v>
       </c>
       <c r="B403" t="s">
-        <v>399</v>
+        <v>398</v>
+      </c>
+      <c r="C403" t="s">
+        <v>621</v>
       </c>
       <c r="F403" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="42">
@@ -11452,10 +11803,13 @@
         <v>2942</v>
       </c>
       <c r="B404" t="s">
-        <v>400</v>
+        <v>924</v>
+      </c>
+      <c r="C404" t="s">
+        <v>621</v>
       </c>
       <c r="F404" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="42">
@@ -11463,10 +11817,13 @@
         <v>2943</v>
       </c>
       <c r="B405" t="s">
-        <v>401</v>
+        <v>399</v>
+      </c>
+      <c r="C405" t="s">
+        <v>621</v>
       </c>
       <c r="F405" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="42">
@@ -11474,10 +11831,13 @@
         <v>2944</v>
       </c>
       <c r="B406" t="s">
-        <v>402</v>
+        <v>400</v>
+      </c>
+      <c r="C406" t="s">
+        <v>621</v>
       </c>
       <c r="F406" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="42">
@@ -11485,10 +11845,13 @@
         <v>2945</v>
       </c>
       <c r="B407" t="s">
-        <v>403</v>
+        <v>401</v>
+      </c>
+      <c r="C407" t="s">
+        <v>621</v>
       </c>
       <c r="F407" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="42">
@@ -11496,10 +11859,13 @@
         <v>2946</v>
       </c>
       <c r="B408" t="s">
-        <v>404</v>
+        <v>402</v>
+      </c>
+      <c r="C408" t="s">
+        <v>621</v>
       </c>
       <c r="F408" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="42">
@@ -11507,10 +11873,13 @@
         <v>2947</v>
       </c>
       <c r="B409" t="s">
-        <v>405</v>
+        <v>925</v>
+      </c>
+      <c r="C409" t="s">
+        <v>621</v>
       </c>
       <c r="F409" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="42">
@@ -11518,10 +11887,13 @@
         <v>2948</v>
       </c>
       <c r="B410" t="s">
-        <v>406</v>
+        <v>403</v>
+      </c>
+      <c r="C410" t="s">
+        <v>621</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="42">
@@ -11529,10 +11901,13 @@
         <v>2949</v>
       </c>
       <c r="B411" t="s">
-        <v>407</v>
+        <v>404</v>
+      </c>
+      <c r="C411" t="s">
+        <v>621</v>
       </c>
       <c r="F411" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="42">
@@ -11540,10 +11915,13 @@
         <v>2950</v>
       </c>
       <c r="B412" t="s">
-        <v>408</v>
+        <v>405</v>
+      </c>
+      <c r="C412" t="s">
+        <v>621</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="42">
@@ -11551,10 +11929,13 @@
         <v>2954</v>
       </c>
       <c r="B413" t="s">
-        <v>409</v>
+        <v>406</v>
+      </c>
+      <c r="C413" t="s">
+        <v>621</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>623</v>
+        <v>921</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="42">
@@ -11562,10 +11943,13 @@
         <v>3031</v>
       </c>
       <c r="B414" t="s">
-        <v>410</v>
+        <v>407</v>
+      </c>
+      <c r="C414" t="s">
+        <v>621</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>623</v>
+        <v>926</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="42">
@@ -11573,10 +11957,13 @@
         <v>3033</v>
       </c>
       <c r="B415" t="s">
-        <v>411</v>
+        <v>408</v>
+      </c>
+      <c r="C415" t="s">
+        <v>621</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>623</v>
+        <v>927</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="42">
@@ -11584,10 +11971,10 @@
         <v>3034</v>
       </c>
       <c r="B416" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="42">
@@ -11595,10 +11982,10 @@
         <v>3045</v>
       </c>
       <c r="B417" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="42">
@@ -11606,10 +11993,10 @@
         <v>3312</v>
       </c>
       <c r="B418" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="42">
@@ -11617,10 +12004,10 @@
         <v>3324</v>
       </c>
       <c r="B419" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="42">
@@ -11628,10 +12015,10 @@
         <v>3484</v>
       </c>
       <c r="B420" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="42">
@@ -11639,10 +12026,10 @@
         <v>3521</v>
       </c>
       <c r="B421" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="42">
@@ -11650,10 +12037,10 @@
         <v>3565</v>
       </c>
       <c r="B422" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="42">
@@ -11661,10 +12048,10 @@
         <v>3582</v>
       </c>
       <c r="B423" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="42">
@@ -11672,10 +12059,10 @@
         <v>3595</v>
       </c>
       <c r="B424" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="42">
@@ -11683,10 +12070,10 @@
         <v>4050</v>
       </c>
       <c r="B425" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="42">
@@ -11694,10 +12081,10 @@
         <v>4074</v>
       </c>
       <c r="B426" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="42">
@@ -11705,10 +12092,10 @@
         <v>4209</v>
       </c>
       <c r="B427" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="42">
@@ -11716,10 +12103,10 @@
         <v>4212</v>
       </c>
       <c r="B428" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="42">
@@ -11727,10 +12114,10 @@
         <v>4322</v>
       </c>
       <c r="B429" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="42">
@@ -11738,10 +12125,10 @@
         <v>4326</v>
       </c>
       <c r="B430" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="42">
@@ -11749,10 +12136,10 @@
         <v>4330</v>
       </c>
       <c r="B431" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="42">
@@ -11760,10 +12147,10 @@
         <v>4342</v>
       </c>
       <c r="B432" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="42">
@@ -11771,10 +12158,10 @@
         <v>4368</v>
       </c>
       <c r="B433" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="42">
@@ -11782,10 +12169,10 @@
         <v>4382</v>
       </c>
       <c r="B434" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="42">
@@ -11793,10 +12180,10 @@
         <v>4536</v>
       </c>
       <c r="B435" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="42">
@@ -11804,10 +12191,10 @@
         <v>4583</v>
       </c>
       <c r="B436" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="42">
@@ -11815,10 +12202,10 @@
         <v>4707</v>
       </c>
       <c r="B437" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="42">
@@ -11826,10 +12213,10 @@
         <v>4735</v>
       </c>
       <c r="B438" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="42">
@@ -11837,10 +12224,10 @@
         <v>5081</v>
       </c>
       <c r="B439" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="42">
@@ -11848,10 +12235,10 @@
         <v>5119</v>
       </c>
       <c r="B440" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="42">
@@ -11859,10 +12246,10 @@
         <v>5211</v>
       </c>
       <c r="B441" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="42">
@@ -11870,10 +12257,10 @@
         <v>5267</v>
       </c>
       <c r="B442" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="42">
@@ -11881,10 +12268,10 @@
         <v>5350</v>
       </c>
       <c r="B443" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="42">
@@ -11892,10 +12279,10 @@
         <v>5380</v>
       </c>
       <c r="B444" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="42">
@@ -11903,10 +12290,10 @@
         <v>5466</v>
       </c>
       <c r="B445" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="42">
@@ -11914,10 +12301,10 @@
         <v>5507</v>
       </c>
       <c r="B446" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="42">
@@ -11925,10 +12312,10 @@
         <v>5565</v>
       </c>
       <c r="B447" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="42">
@@ -11936,10 +12323,10 @@
         <v>5682</v>
       </c>
       <c r="B448" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="42">
@@ -11947,10 +12334,10 @@
         <v>5696</v>
       </c>
       <c r="B449" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="42">
@@ -11958,10 +12345,10 @@
         <v>5698</v>
       </c>
       <c r="B450" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="42">
@@ -11969,10 +12356,10 @@
         <v>5710</v>
       </c>
       <c r="B451" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="42">
@@ -11980,10 +12367,10 @@
         <v>5943</v>
       </c>
       <c r="B452" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="42">
@@ -11991,10 +12378,10 @@
         <v>5962</v>
       </c>
       <c r="B453" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="42">
@@ -12002,10 +12389,10 @@
         <v>5999</v>
       </c>
       <c r="B454" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="42">
@@ -12013,10 +12400,10 @@
         <v>6000</v>
       </c>
       <c r="B455" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="42">
@@ -12024,10 +12411,10 @@
         <v>6001</v>
       </c>
       <c r="B456" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="42">
@@ -12035,10 +12422,10 @@
         <v>6144</v>
       </c>
       <c r="B457" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="42">
@@ -12046,10 +12433,10 @@
         <v>6185</v>
       </c>
       <c r="B458" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="42">
@@ -12057,10 +12444,10 @@
         <v>6192</v>
       </c>
       <c r="B459" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="42">
@@ -12068,10 +12455,10 @@
         <v>6193</v>
       </c>
       <c r="B460" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="42">
@@ -12079,10 +12466,10 @@
         <v>6210</v>
       </c>
       <c r="B461" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="42">
@@ -12090,10 +12477,10 @@
         <v>6236</v>
       </c>
       <c r="B462" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="42">
@@ -12101,10 +12488,10 @@
         <v>6238</v>
       </c>
       <c r="B463" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="42">
@@ -12112,10 +12499,10 @@
         <v>6252</v>
       </c>
       <c r="B464" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="42">
@@ -12123,10 +12510,10 @@
         <v>6362</v>
       </c>
       <c r="B465" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="42">
@@ -12134,10 +12521,10 @@
         <v>6475</v>
       </c>
       <c r="B466" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="42">
@@ -12145,10 +12532,10 @@
         <v>6538</v>
       </c>
       <c r="B467" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="42">
@@ -12156,10 +12543,10 @@
         <v>6550</v>
       </c>
       <c r="B468" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="42">
@@ -12167,10 +12554,10 @@
         <v>6674</v>
       </c>
       <c r="B469" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="42">
@@ -12178,10 +12565,10 @@
         <v>6836</v>
       </c>
       <c r="B470" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="42">
@@ -12189,10 +12576,10 @@
         <v>6893</v>
       </c>
       <c r="B471" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="42">
@@ -12200,10 +12587,10 @@
         <v>6894</v>
       </c>
       <c r="B472" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="42">
@@ -12211,10 +12598,10 @@
         <v>6990</v>
       </c>
       <c r="B473" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="42">
@@ -12222,10 +12609,10 @@
         <v>7334</v>
       </c>
       <c r="B474" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="42">
@@ -12233,10 +12620,10 @@
         <v>7347</v>
       </c>
       <c r="B475" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="42">
@@ -12244,10 +12631,10 @@
         <v>7646</v>
       </c>
       <c r="B476" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="42">
@@ -12255,10 +12642,10 @@
         <v>7753</v>
       </c>
       <c r="B477" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F477" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="42">
@@ -12266,10 +12653,10 @@
         <v>7913</v>
       </c>
       <c r="B478" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="42">
@@ -12277,10 +12664,10 @@
         <v>7943</v>
       </c>
       <c r="B479" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F479" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="42">
@@ -12288,10 +12675,10 @@
         <v>7960</v>
       </c>
       <c r="B480" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="42">
@@ -12299,10 +12686,10 @@
         <v>8574</v>
       </c>
       <c r="B481" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F481" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="42">
@@ -12310,10 +12697,10 @@
         <v>8580</v>
       </c>
       <c r="B482" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="42">
@@ -12321,10 +12708,10 @@
         <v>8604</v>
       </c>
       <c r="B483" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="42">
@@ -12332,10 +12719,10 @@
         <v>8608</v>
       </c>
       <c r="B484" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="42">
@@ -12343,10 +12730,10 @@
         <v>8610</v>
       </c>
       <c r="B485" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F485" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="42">
@@ -12354,10 +12741,10 @@
         <v>8845</v>
       </c>
       <c r="B486" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="42">
@@ -12365,10 +12752,10 @@
         <v>9038</v>
       </c>
       <c r="B487" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="42">
@@ -12376,10 +12763,10 @@
         <v>9152</v>
       </c>
       <c r="B488" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="42">
@@ -12387,10 +12774,10 @@
         <v>9580</v>
       </c>
       <c r="B489" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="42">
@@ -12398,10 +12785,10 @@
         <v>9729</v>
       </c>
       <c r="B490" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="42">
@@ -12409,10 +12796,10 @@
         <v>9812</v>
       </c>
       <c r="B491" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F491" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="42">
@@ -12420,10 +12807,10 @@
         <v>9813</v>
       </c>
       <c r="B492" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="42">
@@ -12431,10 +12818,10 @@
         <v>9824</v>
       </c>
       <c r="B493" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="42">
@@ -12442,10 +12829,10 @@
         <v>41</v>
       </c>
       <c r="B494" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="42">
@@ -12453,10 +12840,10 @@
         <v>769</v>
       </c>
       <c r="B495" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F495" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="42">
@@ -12464,10 +12851,10 @@
         <v>891</v>
       </c>
       <c r="B496" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="42">
@@ -12475,10 +12862,10 @@
         <v>1137</v>
       </c>
       <c r="B497" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F497" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="42">
@@ -12486,10 +12873,10 @@
         <v>1257</v>
       </c>
       <c r="B498" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="42">
@@ -12497,10 +12884,10 @@
         <v>1347</v>
       </c>
       <c r="B499" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F499" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="42">
@@ -12508,10 +12895,10 @@
         <v>1595</v>
       </c>
       <c r="B500" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F500" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="42">
@@ -12519,10 +12906,10 @@
         <v>1633</v>
       </c>
       <c r="B501" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F501" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="42">
@@ -12530,10 +12917,10 @@
         <v>1648</v>
       </c>
       <c r="B502" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F502" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="42">
@@ -12541,10 +12928,10 @@
         <v>1650</v>
       </c>
       <c r="B503" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="42">
@@ -12552,10 +12939,10 @@
         <v>1808</v>
       </c>
       <c r="B504" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="42">
@@ -12563,10 +12950,10 @@
         <v>1829</v>
       </c>
       <c r="B505" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="42">
@@ -12574,10 +12961,10 @@
         <v>1914</v>
       </c>
       <c r="B506" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F506" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="42">
@@ -12585,10 +12972,10 @@
         <v>1958</v>
       </c>
       <c r="B507" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F507" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="42">
@@ -12596,10 +12983,10 @@
         <v>1967</v>
       </c>
       <c r="B508" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F508" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="42">
@@ -12607,10 +12994,10 @@
         <v>1976</v>
       </c>
       <c r="B509" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="42">
@@ -12618,10 +13005,10 @@
         <v>2048</v>
       </c>
       <c r="B510" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="42">
@@ -12629,10 +13016,10 @@
         <v>2135</v>
       </c>
       <c r="B511" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F511" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="42">
@@ -12640,10 +13027,10 @@
         <v>2153</v>
       </c>
       <c r="B512" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="42">
@@ -12651,10 +13038,10 @@
         <v>2192</v>
       </c>
       <c r="B513" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="42">
@@ -12662,10 +13049,10 @@
         <v>2217</v>
       </c>
       <c r="B514" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F514" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="42">
@@ -12673,10 +13060,10 @@
         <v>2242</v>
       </c>
       <c r="B515" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="42">
@@ -12684,10 +13071,10 @@
         <v>2243</v>
       </c>
       <c r="B516" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F516" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="42">
@@ -12695,10 +13082,10 @@
         <v>2317</v>
       </c>
       <c r="B517" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="42">
@@ -12706,10 +13093,10 @@
         <v>2318</v>
       </c>
       <c r="B518" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="42">
@@ -12717,10 +13104,10 @@
         <v>2321</v>
       </c>
       <c r="B519" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="42">
@@ -12728,10 +13115,10 @@
         <v>2323</v>
       </c>
       <c r="B520" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="42">
@@ -12739,10 +13126,10 @@
         <v>2404</v>
       </c>
       <c r="B521" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="42">
@@ -12750,10 +13137,10 @@
         <v>2461</v>
       </c>
       <c r="B522" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="42">
@@ -12761,10 +13148,10 @@
         <v>2550</v>
       </c>
       <c r="B523" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="42">
@@ -12772,10 +13159,10 @@
         <v>2552</v>
       </c>
       <c r="B524" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="42">
@@ -12783,10 +13170,10 @@
         <v>2684</v>
       </c>
       <c r="B525" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="42">
@@ -12794,10 +13181,10 @@
         <v>2685</v>
       </c>
       <c r="B526" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="42">
@@ -12805,10 +13192,10 @@
         <v>2688</v>
       </c>
       <c r="B527" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="42">
@@ -12816,10 +13203,10 @@
         <v>2689</v>
       </c>
       <c r="B528" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="42">
@@ -12827,10 +13214,10 @@
         <v>2690</v>
       </c>
       <c r="B529" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="42">
@@ -12838,10 +13225,10 @@
         <v>2694</v>
       </c>
       <c r="B530" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="42">
@@ -12849,10 +13236,10 @@
         <v>2713</v>
       </c>
       <c r="B531" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="42">
@@ -12860,10 +13247,10 @@
         <v>2714</v>
       </c>
       <c r="B532" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="42">
@@ -12871,10 +13258,10 @@
         <v>2715</v>
       </c>
       <c r="B533" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F533" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="42">
@@ -12882,10 +13269,10 @@
         <v>2716</v>
       </c>
       <c r="B534" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="42">
@@ -12893,10 +13280,10 @@
         <v>2717</v>
       </c>
       <c r="B535" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="42">
@@ -12904,10 +13291,10 @@
         <v>2718</v>
       </c>
       <c r="B536" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="42">
@@ -12915,10 +13302,10 @@
         <v>2719</v>
       </c>
       <c r="B537" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="42">
@@ -12926,10 +13313,10 @@
         <v>2720</v>
       </c>
       <c r="B538" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="42">
@@ -12937,10 +13324,10 @@
         <v>2727</v>
       </c>
       <c r="B539" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="42">
@@ -12948,10 +13335,10 @@
         <v>2766</v>
       </c>
       <c r="B540" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="42">
@@ -12959,10 +13346,10 @@
         <v>2853</v>
       </c>
       <c r="B541" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="42">
@@ -12970,10 +13357,10 @@
         <v>2863</v>
       </c>
       <c r="B542" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="42">
@@ -12981,10 +13368,10 @@
         <v>2898</v>
       </c>
       <c r="B543" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F543" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="42">
@@ -12992,10 +13379,10 @@
         <v>2911</v>
       </c>
       <c r="B544" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="42">
@@ -13003,10 +13390,10 @@
         <v>2916</v>
       </c>
       <c r="B545" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F545" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="42">
@@ -13014,10 +13401,10 @@
         <v>3029</v>
       </c>
       <c r="B546" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="42">
@@ -13025,10 +13412,10 @@
         <v>3030</v>
       </c>
       <c r="B547" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="42">
@@ -13036,10 +13423,10 @@
         <v>3304</v>
       </c>
       <c r="B548" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="42">
@@ -13047,10 +13434,10 @@
         <v>3310</v>
       </c>
       <c r="B549" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="42">
@@ -13058,10 +13445,10 @@
         <v>3322</v>
       </c>
       <c r="B550" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="42">
@@ -13069,10 +13456,10 @@
         <v>3333</v>
       </c>
       <c r="B551" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="42">
@@ -13080,10 +13467,10 @@
         <v>2413</v>
       </c>
       <c r="B552" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="42">
@@ -13091,10 +13478,10 @@
         <v>2815</v>
       </c>
       <c r="B553" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="42">
@@ -13102,10 +13489,10 @@
         <v>2834</v>
       </c>
       <c r="B554" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="42">
@@ -13113,10 +13500,10 @@
         <v>2839</v>
       </c>
       <c r="B555" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="42">
@@ -13124,10 +13511,10 @@
         <v>2990</v>
       </c>
       <c r="B556" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="42">
@@ -13135,10 +13522,10 @@
         <v>3079</v>
       </c>
       <c r="B557" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="42">
@@ -13146,10 +13533,10 @@
         <v>3092</v>
       </c>
       <c r="B558" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="42">
@@ -13157,10 +13544,10 @@
         <v>3433</v>
       </c>
       <c r="B559" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="42">
@@ -13168,10 +13555,10 @@
         <v>3467</v>
       </c>
       <c r="B560" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F560" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="42">
@@ -13179,10 +13566,10 @@
         <v>3474</v>
       </c>
       <c r="B561" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F561" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="42">
@@ -13190,10 +13577,10 @@
         <v>3502</v>
       </c>
       <c r="B562" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F562" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="42">
@@ -13201,10 +13588,10 @@
         <v>3511</v>
       </c>
       <c r="B563" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F563" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="42">
@@ -13212,10 +13599,10 @@
         <v>3550</v>
       </c>
       <c r="B564" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F564" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="42">
@@ -13223,10 +13610,10 @@
         <v>3556</v>
       </c>
       <c r="B565" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F565" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="42">
@@ -13234,10 +13621,10 @@
         <v>3656</v>
       </c>
       <c r="B566" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F566" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="42">
@@ -13245,10 +13632,10 @@
         <v>1689</v>
       </c>
       <c r="B567" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F567" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="42">
@@ -13256,10 +13643,10 @@
         <v>1845</v>
       </c>
       <c r="B568" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F568" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="42">
@@ -13267,10 +13654,10 @@
         <v>1846</v>
       </c>
       <c r="B569" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F569" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="42">
@@ -13278,10 +13665,10 @@
         <v>1855</v>
       </c>
       <c r="B570" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="42">
@@ -13289,10 +13676,10 @@
         <v>1863</v>
       </c>
       <c r="B571" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F571" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="42">
@@ -13300,10 +13687,10 @@
         <v>1868</v>
       </c>
       <c r="B572" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F572" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="42">
@@ -13311,10 +13698,10 @@
         <v>1876</v>
       </c>
       <c r="B573" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F573" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="42">
@@ -13322,10 +13709,10 @@
         <v>1937</v>
       </c>
       <c r="B574" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F574" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="42">
@@ -13333,10 +13720,10 @@
         <v>1989</v>
       </c>
       <c r="B575" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F575" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="42">
@@ -13344,10 +13731,10 @@
         <v>1991</v>
       </c>
       <c r="B576" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F576" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="42">
@@ -13355,10 +13742,10 @@
         <v>2019</v>
       </c>
       <c r="B577" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="42">
@@ -13366,10 +13753,10 @@
         <v>2022</v>
       </c>
       <c r="B578" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F578" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="42">
@@ -13377,10 +13764,10 @@
         <v>2049</v>
       </c>
       <c r="B579" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F579" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="42">
@@ -13388,10 +13775,10 @@
         <v>2072</v>
       </c>
       <c r="B580" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F580" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="42">
@@ -13399,10 +13786,10 @@
         <v>2168</v>
       </c>
       <c r="B581" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F581" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="42">
@@ -13410,10 +13797,10 @@
         <v>2178</v>
       </c>
       <c r="B582" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F582" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="42">
@@ -13421,10 +13808,10 @@
         <v>2188</v>
       </c>
       <c r="B583" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F583" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="42">
@@ -13432,10 +13819,10 @@
         <v>2205</v>
       </c>
       <c r="B584" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F584" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="42">
@@ -13443,10 +13830,10 @@
         <v>2232</v>
       </c>
       <c r="B585" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F585" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="42">
@@ -13454,10 +13841,10 @@
         <v>2245</v>
       </c>
       <c r="B586" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="42">
@@ -13465,10 +13852,10 @@
         <v>2255</v>
       </c>
       <c r="B587" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F587" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="42">
@@ -13476,10 +13863,10 @@
         <v>2391</v>
       </c>
       <c r="B588" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F588" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="42">
@@ -13487,10 +13874,10 @@
         <v>2985</v>
       </c>
       <c r="B589" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="42">
@@ -13498,10 +13885,10 @@
         <v>3459</v>
       </c>
       <c r="B590" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F590" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="42">
@@ -13509,10 +13896,10 @@
         <v>1057</v>
       </c>
       <c r="B591" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F591" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="42">
@@ -13520,10 +13907,10 @@
         <v>1102</v>
       </c>
       <c r="B592" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F592" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="42">
@@ -13531,10 +13918,10 @@
         <v>2193</v>
       </c>
       <c r="B593" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F593" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="42">
@@ -13542,10 +13929,10 @@
         <v>2962</v>
       </c>
       <c r="B594" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="42">
@@ -13553,10 +13940,10 @@
         <v>3344</v>
       </c>
       <c r="B595" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F595" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="42">
@@ -13564,10 +13951,10 @@
         <v>3478</v>
       </c>
       <c r="B596" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F596" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="42">
@@ -13575,10 +13962,10 @@
         <v>3550</v>
       </c>
       <c r="B597" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F597" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="42">
@@ -13586,10 +13973,10 @@
         <v>3565</v>
       </c>
       <c r="B598" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F598" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="42">
@@ -13597,10 +13984,10 @@
         <v>3572</v>
       </c>
       <c r="B599" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F599" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="600" spans="1:6" ht="42">
@@ -13608,10 +13995,10 @@
         <v>3686</v>
       </c>
       <c r="B600" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="42">
@@ -13619,10 +14006,10 @@
         <v>3750</v>
       </c>
       <c r="B601" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F601" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="42">
@@ -13630,10 +14017,10 @@
         <v>3802</v>
       </c>
       <c r="B602" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F602" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="42">
@@ -13641,10 +14028,10 @@
         <v>4003</v>
       </c>
       <c r="B603" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F603" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="42">
@@ -13652,10 +14039,10 @@
         <v>4004</v>
       </c>
       <c r="B604" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F604" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="42">
@@ -13663,10 +14050,10 @@
         <v>4012</v>
       </c>
       <c r="B605" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F605" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="606" spans="1:6" ht="42">
@@ -13674,10 +14061,10 @@
         <v>4285</v>
       </c>
       <c r="B606" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F606" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="607" spans="1:6" ht="42">
@@ -13685,10 +14072,10 @@
         <v>4286</v>
       </c>
       <c r="B607" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F607" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="608" spans="1:6" ht="42">
@@ -13696,10 +14083,10 @@
         <v>4292</v>
       </c>
       <c r="B608" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="42">
@@ -13707,10 +14094,10 @@
         <v>4338</v>
       </c>
       <c r="B609" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="610" spans="1:6" ht="42">
@@ -13718,10 +14105,10 @@
         <v>2690</v>
       </c>
       <c r="B610" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="611" spans="1:6" ht="42">
@@ -13729,10 +14116,10 @@
         <v>2892</v>
       </c>
       <c r="B611" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="42">
@@ -13740,10 +14127,10 @@
         <v>2987</v>
       </c>
       <c r="B612" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="42">
@@ -13751,10 +14138,10 @@
         <v>2991</v>
       </c>
       <c r="B613" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="614" spans="1:6" ht="42">
@@ -13762,10 +14149,10 @@
         <v>3016</v>
       </c>
       <c r="B614" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="615" spans="1:6" ht="42">
@@ -13773,10 +14160,10 @@
         <v>3114</v>
       </c>
       <c r="B615" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="616" spans="1:6" ht="42">
@@ -13784,10 +14171,10 @@
         <v>3121</v>
       </c>
       <c r="B616" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="42">
@@ -13795,10 +14182,10 @@
         <v>3132</v>
       </c>
       <c r="B617" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="42">
@@ -13806,10 +14193,10 @@
         <v>3140</v>
       </c>
       <c r="B618" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="42">
@@ -13817,10 +14204,10 @@
         <v>3567</v>
       </c>
       <c r="B619" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F619" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="620" spans="1:6" ht="42">
@@ -13828,10 +14215,10 @@
         <v>4635</v>
       </c>
       <c r="B620" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="42">
@@ -13839,10 +14226,10 @@
         <v>4731</v>
       </c>
       <c r="B621" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F621" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="42">
@@ -13850,10 +14237,10 @@
         <v>4737</v>
       </c>
       <c r="B622" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="42">
@@ -13861,10 +14248,10 @@
         <v>5705</v>
       </c>
       <c r="B623" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8B871346-9438-E94C-B91A-AB0253D10BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96688B67-1F79-0949-A287-48849DDEF065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1674" uniqueCount="928">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1706" uniqueCount="957">
   <si>
     <t>Issue</t>
   </si>
@@ -5141,6 +5141,307 @@
     <rPh sb="18" eb="20">
       <t xml:space="preserve">メイジスル </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CUDA_DEVICE_CALLABLEが複数の場所で定義されている
+[Class]コードの改善</t>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">フクスウノバショデ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">テイギサレテイル </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudaDeviceSynchronizeをlibcudfから全て削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]public headersにnon-public headersが含まれている
+[Class]ヘッダの修正</t>
+    <rPh sb="43" eb="44">
+      <t xml:space="preserve">フクマレテイル </t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]重複した関数の統一
+[Class]関数の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">チョウフクシタ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">トウイツ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]bool8 typeを削除
+[Class]型の変更</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t xml:space="preserve">カタノ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]カスタムビットマスクカーネルでThrustを補完する
+[Class]機能の改善</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ホカンスル </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]NVStrings regexのリファクタリング
+[Class]機能の改善</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CUDA_TRY guardが複数の場所で存在しない
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]従来のlibcudfコードを削除
+[Class]不要なコードの削除</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジュウライノ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]TIMESTAPM型のSUMは使用できない
+[Class]機能の修正</t>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">カタノ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">シヨウデキナイ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]従来のベンチマークをlibcudf++に移行
+[Class]機能の移行</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジュウライノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]RMM_ALLOC/rmm::allocのdirect useを削除
+[Class]不要な機能の削除</t>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudf::transposeを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い NVTX機能を削除
+[Class]不要な機能の削除</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]make_scalar_iterator()とmake_pair_iterator(scalar)を変更
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CSV writerをlibcudf++に移行
+[Class]機能の移行</t>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]mutable_column_viewでnullカウントをキャプチャ
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]column_device_viewからnullカウントを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]binaryops pythonのリファクタリング
+[Class]機能の改善</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuda-memcheckでlibcudfテストが失敗する
+[Class]バグの修正，テストの修正</t>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudf::experimental::reduceに不足しているaggregationsを追加
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]pq_chunked_stateにコンストラクタを追加してRAIL化する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]table concatenateのdetail APIを追加
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]detail APIがstreamの後にMR parameterをorderする
+[Class]機能の修正</t>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIOでマクロの使用を減らす
+[Class]機能の改善</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シヨウヲ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ヘラス </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIOにベンチマークが不足している
+[Class]ベンチマークの追加</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]一般的なCmake機能を一元化
+[Class]機能の改善</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">イッパンテキナ </t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t xml:space="preserve">イチゲンカ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]device_vectorの代わりにdevice_uvectorを使用
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cpp/src/rolling/rolling.cuのテンプレートコードをクリーンアップ
+[Class]コードの改善，テストの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6108,8 +6409,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F416" sqref="F416"/>
+    <sheetView tabSelected="1" topLeftCell="A442" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D446" sqref="D446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11973,8 +12274,11 @@
       <c r="B416" t="s">
         <v>409</v>
       </c>
+      <c r="C416" t="s">
+        <v>621</v>
+      </c>
       <c r="F416" s="2" t="s">
-        <v>620</v>
+        <v>928</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="42">
@@ -11984,8 +12288,11 @@
       <c r="B417" t="s">
         <v>410</v>
       </c>
+      <c r="C417" t="s">
+        <v>621</v>
+      </c>
       <c r="F417" s="2" t="s">
-        <v>620</v>
+        <v>929</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="42">
@@ -11995,8 +12302,11 @@
       <c r="B418" t="s">
         <v>411</v>
       </c>
+      <c r="C418" t="s">
+        <v>621</v>
+      </c>
       <c r="F418" s="2" t="s">
-        <v>620</v>
+        <v>930</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="42">
@@ -12006,8 +12316,11 @@
       <c r="B419" t="s">
         <v>412</v>
       </c>
+      <c r="C419" t="s">
+        <v>621</v>
+      </c>
       <c r="F419" s="2" t="s">
-        <v>620</v>
+        <v>931</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="42">
@@ -12017,8 +12330,11 @@
       <c r="B420" t="s">
         <v>413</v>
       </c>
+      <c r="C420" t="s">
+        <v>621</v>
+      </c>
       <c r="F420" s="2" t="s">
-        <v>620</v>
+        <v>932</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="42">
@@ -12028,8 +12344,11 @@
       <c r="B421" t="s">
         <v>414</v>
       </c>
+      <c r="C421" t="s">
+        <v>621</v>
+      </c>
       <c r="F421" s="2" t="s">
-        <v>620</v>
+        <v>921</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="42">
@@ -12039,8 +12358,11 @@
       <c r="B422" t="s">
         <v>415</v>
       </c>
+      <c r="C422" t="s">
+        <v>621</v>
+      </c>
       <c r="F422" s="2" t="s">
-        <v>620</v>
+        <v>933</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="42">
@@ -12050,8 +12372,11 @@
       <c r="B423" t="s">
         <v>416</v>
       </c>
+      <c r="C423" t="s">
+        <v>621</v>
+      </c>
       <c r="F423" s="2" t="s">
-        <v>620</v>
+        <v>934</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="42">
@@ -12061,8 +12386,11 @@
       <c r="B424" t="s">
         <v>417</v>
       </c>
+      <c r="C424" t="s">
+        <v>621</v>
+      </c>
       <c r="F424" s="2" t="s">
-        <v>620</v>
+        <v>935</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="42">
@@ -12072,8 +12400,11 @@
       <c r="B425" t="s">
         <v>418</v>
       </c>
+      <c r="C425" t="s">
+        <v>621</v>
+      </c>
       <c r="F425" s="2" t="s">
-        <v>620</v>
+        <v>936</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="42">
@@ -12083,8 +12414,11 @@
       <c r="B426" t="s">
         <v>419</v>
       </c>
+      <c r="C426" t="s">
+        <v>621</v>
+      </c>
       <c r="F426" s="2" t="s">
-        <v>620</v>
+        <v>937</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="42">
@@ -12094,8 +12428,11 @@
       <c r="B427" t="s">
         <v>420</v>
       </c>
+      <c r="C427" t="s">
+        <v>621</v>
+      </c>
       <c r="F427" s="2" t="s">
-        <v>620</v>
+        <v>938</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="42">
@@ -12105,8 +12442,11 @@
       <c r="B428" t="s">
         <v>421</v>
       </c>
+      <c r="C428" t="s">
+        <v>621</v>
+      </c>
       <c r="F428" s="2" t="s">
-        <v>620</v>
+        <v>939</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="42">
@@ -12116,8 +12456,11 @@
       <c r="B429" t="s">
         <v>422</v>
       </c>
+      <c r="C429" t="s">
+        <v>621</v>
+      </c>
       <c r="F429" s="2" t="s">
-        <v>620</v>
+        <v>940</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="42">
@@ -12127,8 +12470,11 @@
       <c r="B430" t="s">
         <v>423</v>
       </c>
+      <c r="C430" t="s">
+        <v>621</v>
+      </c>
       <c r="F430" s="2" t="s">
-        <v>620</v>
+        <v>941</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="42">
@@ -12138,8 +12484,11 @@
       <c r="B431" t="s">
         <v>424</v>
       </c>
+      <c r="C431" t="s">
+        <v>621</v>
+      </c>
       <c r="F431" s="2" t="s">
-        <v>620</v>
+        <v>942</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="42">
@@ -12149,8 +12498,11 @@
       <c r="B432" t="s">
         <v>425</v>
       </c>
+      <c r="C432" t="s">
+        <v>621</v>
+      </c>
       <c r="F432" s="2" t="s">
-        <v>620</v>
+        <v>943</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="42">
@@ -12160,8 +12512,11 @@
       <c r="B433" t="s">
         <v>426</v>
       </c>
+      <c r="C433" t="s">
+        <v>621</v>
+      </c>
       <c r="F433" s="2" t="s">
-        <v>620</v>
+        <v>945</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="42">
@@ -12171,8 +12526,11 @@
       <c r="B434" t="s">
         <v>427</v>
       </c>
+      <c r="C434" t="s">
+        <v>621</v>
+      </c>
       <c r="F434" s="2" t="s">
-        <v>620</v>
+        <v>944</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="42">
@@ -12182,8 +12540,11 @@
       <c r="B435" t="s">
         <v>428</v>
       </c>
+      <c r="C435" t="s">
+        <v>621</v>
+      </c>
       <c r="F435" s="2" t="s">
-        <v>620</v>
+        <v>946</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="42">
@@ -12193,8 +12554,14 @@
       <c r="B436" t="s">
         <v>429</v>
       </c>
+      <c r="C436" t="s">
+        <v>624</v>
+      </c>
+      <c r="D436" t="s">
+        <v>621</v>
+      </c>
       <c r="F436" s="2" t="s">
-        <v>620</v>
+        <v>947</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="42">
@@ -12204,8 +12571,11 @@
       <c r="B437" t="s">
         <v>430</v>
       </c>
+      <c r="C437" t="s">
+        <v>621</v>
+      </c>
       <c r="F437" s="2" t="s">
-        <v>620</v>
+        <v>948</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="42">
@@ -12215,8 +12585,11 @@
       <c r="B438" t="s">
         <v>431</v>
       </c>
+      <c r="C438" t="s">
+        <v>621</v>
+      </c>
       <c r="F438" s="2" t="s">
-        <v>620</v>
+        <v>949</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="42">
@@ -12226,8 +12599,11 @@
       <c r="B439" t="s">
         <v>432</v>
       </c>
+      <c r="C439" t="s">
+        <v>621</v>
+      </c>
       <c r="F439" s="2" t="s">
-        <v>620</v>
+        <v>950</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="42">
@@ -12237,8 +12613,11 @@
       <c r="B440" t="s">
         <v>433</v>
       </c>
+      <c r="C440" t="s">
+        <v>621</v>
+      </c>
       <c r="F440" s="2" t="s">
-        <v>620</v>
+        <v>951</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="42">
@@ -12248,8 +12627,11 @@
       <c r="B441" t="s">
         <v>434</v>
       </c>
+      <c r="C441" t="s">
+        <v>621</v>
+      </c>
       <c r="F441" s="2" t="s">
-        <v>620</v>
+        <v>952</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="42">
@@ -12259,8 +12641,11 @@
       <c r="B442" t="s">
         <v>435</v>
       </c>
+      <c r="C442" t="s">
+        <v>621</v>
+      </c>
       <c r="F442" s="2" t="s">
-        <v>620</v>
+        <v>953</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="42">
@@ -12270,8 +12655,11 @@
       <c r="B443" t="s">
         <v>436</v>
       </c>
+      <c r="C443" t="s">
+        <v>621</v>
+      </c>
       <c r="F443" s="2" t="s">
-        <v>620</v>
+        <v>954</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="42">
@@ -12281,8 +12669,11 @@
       <c r="B444" t="s">
         <v>437</v>
       </c>
+      <c r="C444" t="s">
+        <v>621</v>
+      </c>
       <c r="F444" s="2" t="s">
-        <v>620</v>
+        <v>955</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="42">
@@ -12292,8 +12683,14 @@
       <c r="B445" t="s">
         <v>438</v>
       </c>
+      <c r="C445" t="s">
+        <v>621</v>
+      </c>
+      <c r="D445" t="s">
+        <v>624</v>
+      </c>
       <c r="F445" s="2" t="s">
-        <v>620</v>
+        <v>956</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96688B67-1F79-0949-A287-48849DDEF065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D1BC793D-0CC0-C040-99FD-F33BE4C32893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1706" uniqueCount="957">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1740" uniqueCount="988">
   <si>
     <t>Issue</t>
   </si>
@@ -5442,6 +5442,236 @@
   <si>
     <t>[Content]cpp/src/rolling/rolling.cuのテンプレートコードをクリーンアップ
 [Class]コードの改善，テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]libcudacxx依存関係のリーク
+[Class]依存関係の改善</t>
+    <rPh sb="35" eb="39">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]parquet_column_viewはtype_dispatcherを使用する必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nvstrdescをstring_view に置き換え
+[Class]関数の置き換え</t>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nvtext APIのgbenchmarkを作成
+[Class]ベンチマークの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudf strings APIのgbenchmarkを作成
+[Class]ベンチマークの追加</t>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIOカーネルのパラメータを改善
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIOのoutputパラメータの削減
+[Class]機能の改善</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">サクゲン </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIO *_args typesのfluent builder APIを実装
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIOベンチマークのカバレッジを拡大
+[Class]ベンチマークの改善</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カクダイ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]data profileのdeta generationsを実装
+[Class]ベンチマークとテストの改善</t>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIO fuzzテストを実装
+[Class]テストの追加</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudf::detail::drop_duplicates  null_orderパラメータを追加
+[Class]パラメータの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuio: datasourceをリーダ入力引数として使用
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Column binary_operatorの呼び出し回避
+[Class]機能の改善</t>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudf::contains APIの不要なメモリリソースパラメータ
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]parse utilitiesでのsubscript member accessを減らす
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cooperative loading of structsを関数かsimple single thread loadingに置き換え
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIO カーネルからのブロック削減とブロックスキャンの抽象化
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]parse utilitiesでのoff-by-one adjustmentsを排除
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ORCとParquet statisticsの不十分なテストカバレッジ
+[Class]テストの追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]types.hppから#include &lt;thrust/optional.h&gt;を削除
+[Class]不要なコードの削除，ビルドの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ビルドの修正もおおこなっているぽい？</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">シュウセイモオオコナッテイル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudaMemcpyAsync(hostdevice_vector)を全て置き換え
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]例外のアサートにcudf.tests.utils.assert_exceptions_equalを使用
+[Class]機能の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">レイガイノ </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>_x0000_	_x0002__x0006_</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>:_x0002_
+:</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>_x0002__x000E_D_x0002__x0013_</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t/>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIOでのタイムスタンプ処理にstd::chronoを使用
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]多くのCSV writerテストが冗長である
+[Class]テストの改善</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">オオクノ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ジョウチョウ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]parquet writerでcolumn_device_view in EncColumnDescを使用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudf_dtypeを使用してcolumnのデータを認識する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudf::datetime::add_calendrical_monthsへのスカラーの受け渡しを有効化
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]column_device_viewをORC readerとwriter structuresに追加
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuio のstats_column_descをリファクタリング
+[Class]機能の改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6409,8 +6639,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D446" sqref="D446"/>
+    <sheetView tabSelected="1" topLeftCell="A466" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F476" sqref="F476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12700,8 +12930,11 @@
       <c r="B446" t="s">
         <v>439</v>
       </c>
+      <c r="C446" t="s">
+        <v>621</v>
+      </c>
       <c r="F446" s="2" t="s">
-        <v>620</v>
+        <v>957</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="42">
@@ -12711,8 +12944,11 @@
       <c r="B447" t="s">
         <v>440</v>
       </c>
+      <c r="C447" t="s">
+        <v>621</v>
+      </c>
       <c r="F447" s="2" t="s">
-        <v>620</v>
+        <v>958</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="42">
@@ -12722,8 +12958,11 @@
       <c r="B448" t="s">
         <v>441</v>
       </c>
+      <c r="C448" t="s">
+        <v>621</v>
+      </c>
       <c r="F448" s="2" t="s">
-        <v>620</v>
+        <v>959</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="42">
@@ -12733,8 +12972,11 @@
       <c r="B449" t="s">
         <v>442</v>
       </c>
+      <c r="C449" t="s">
+        <v>621</v>
+      </c>
       <c r="F449" s="2" t="s">
-        <v>620</v>
+        <v>960</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="42">
@@ -12744,8 +12986,11 @@
       <c r="B450" t="s">
         <v>443</v>
       </c>
+      <c r="C450" t="s">
+        <v>621</v>
+      </c>
       <c r="F450" s="2" t="s">
-        <v>620</v>
+        <v>961</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="42">
@@ -12755,8 +13000,11 @@
       <c r="B451" t="s">
         <v>444</v>
       </c>
+      <c r="C451" t="s">
+        <v>621</v>
+      </c>
       <c r="F451" s="2" t="s">
-        <v>620</v>
+        <v>962</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="42">
@@ -12766,8 +13014,11 @@
       <c r="B452" t="s">
         <v>445</v>
       </c>
+      <c r="C452" t="s">
+        <v>621</v>
+      </c>
       <c r="F452" s="2" t="s">
-        <v>620</v>
+        <v>963</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="42">
@@ -12777,8 +13028,11 @@
       <c r="B453" t="s">
         <v>446</v>
       </c>
+      <c r="C453" t="s">
+        <v>621</v>
+      </c>
       <c r="F453" s="2" t="s">
-        <v>620</v>
+        <v>964</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="42">
@@ -12788,8 +13042,14 @@
       <c r="B454" t="s">
         <v>447</v>
       </c>
+      <c r="C454" t="s">
+        <v>621</v>
+      </c>
+      <c r="D454" t="s">
+        <v>624</v>
+      </c>
       <c r="F454" s="2" t="s">
-        <v>620</v>
+        <v>965</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="42">
@@ -12799,8 +13059,14 @@
       <c r="B455" t="s">
         <v>448</v>
       </c>
+      <c r="C455" t="s">
+        <v>621</v>
+      </c>
+      <c r="D455" t="s">
+        <v>624</v>
+      </c>
       <c r="F455" s="2" t="s">
-        <v>620</v>
+        <v>966</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="42">
@@ -12810,8 +13076,11 @@
       <c r="B456" t="s">
         <v>449</v>
       </c>
+      <c r="C456" t="s">
+        <v>624</v>
+      </c>
       <c r="F456" s="2" t="s">
-        <v>620</v>
+        <v>967</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="42">
@@ -12821,8 +13090,11 @@
       <c r="B457" t="s">
         <v>450</v>
       </c>
+      <c r="C457" t="s">
+        <v>621</v>
+      </c>
       <c r="F457" s="2" t="s">
-        <v>620</v>
+        <v>968</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="42">
@@ -12832,8 +13104,11 @@
       <c r="B458" t="s">
         <v>451</v>
       </c>
+      <c r="C458" t="s">
+        <v>621</v>
+      </c>
       <c r="F458" s="2" t="s">
-        <v>620</v>
+        <v>969</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="42">
@@ -12843,8 +13118,11 @@
       <c r="B459" t="s">
         <v>452</v>
       </c>
+      <c r="C459" t="s">
+        <v>621</v>
+      </c>
       <c r="F459" s="2" t="s">
-        <v>620</v>
+        <v>970</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="42">
@@ -12854,8 +13132,11 @@
       <c r="B460" t="s">
         <v>453</v>
       </c>
+      <c r="C460" t="s">
+        <v>621</v>
+      </c>
       <c r="F460" s="2" t="s">
-        <v>620</v>
+        <v>971</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="42">
@@ -12865,19 +13146,25 @@
       <c r="B461" t="s">
         <v>454</v>
       </c>
+      <c r="C461" t="s">
+        <v>621</v>
+      </c>
       <c r="F461" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" ht="42">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="63">
       <c r="A462">
         <v>6236</v>
       </c>
       <c r="B462" t="s">
         <v>455</v>
       </c>
+      <c r="C462" t="s">
+        <v>621</v>
+      </c>
       <c r="F462" s="2" t="s">
-        <v>620</v>
+        <v>973</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="42">
@@ -12887,8 +13174,11 @@
       <c r="B463" t="s">
         <v>456</v>
       </c>
+      <c r="C463" t="s">
+        <v>621</v>
+      </c>
       <c r="F463" s="2" t="s">
-        <v>620</v>
+        <v>974</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="42">
@@ -12898,8 +13188,11 @@
       <c r="B464" t="s">
         <v>457</v>
       </c>
+      <c r="C464" t="s">
+        <v>621</v>
+      </c>
       <c r="F464" s="2" t="s">
-        <v>620</v>
+        <v>975</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="42">
@@ -12909,8 +13202,11 @@
       <c r="B465" t="s">
         <v>458</v>
       </c>
+      <c r="C465" t="s">
+        <v>624</v>
+      </c>
       <c r="F465" s="2" t="s">
-        <v>620</v>
+        <v>976</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="42">
@@ -12920,8 +13216,17 @@
       <c r="B466" t="s">
         <v>459</v>
       </c>
+      <c r="C466" t="s">
+        <v>621</v>
+      </c>
+      <c r="D466" t="s">
+        <v>757</v>
+      </c>
+      <c r="E466" t="s">
+        <v>978</v>
+      </c>
       <c r="F466" s="2" t="s">
-        <v>620</v>
+        <v>977</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="42">
@@ -12931,8 +13236,11 @@
       <c r="B467" t="s">
         <v>460</v>
       </c>
+      <c r="C467" t="s">
+        <v>621</v>
+      </c>
       <c r="F467" s="2" t="s">
-        <v>620</v>
+        <v>979</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="42">
@@ -12942,8 +13250,11 @@
       <c r="B468" t="s">
         <v>461</v>
       </c>
+      <c r="C468" t="s">
+        <v>621</v>
+      </c>
       <c r="F468" s="2" t="s">
-        <v>620</v>
+        <v>980</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="42">
@@ -12953,8 +13264,11 @@
       <c r="B469" t="s">
         <v>462</v>
       </c>
+      <c r="C469" t="s">
+        <v>621</v>
+      </c>
       <c r="F469" s="2" t="s">
-        <v>620</v>
+        <v>981</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="42">
@@ -12964,8 +13278,11 @@
       <c r="B470" t="s">
         <v>463</v>
       </c>
+      <c r="C470" t="s">
+        <v>624</v>
+      </c>
       <c r="F470" s="2" t="s">
-        <v>620</v>
+        <v>982</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="42">
@@ -12975,8 +13292,11 @@
       <c r="B471" t="s">
         <v>464</v>
       </c>
+      <c r="C471" t="s">
+        <v>621</v>
+      </c>
       <c r="F471" s="2" t="s">
-        <v>620</v>
+        <v>983</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="42">
@@ -12986,8 +13306,11 @@
       <c r="B472" t="s">
         <v>465</v>
       </c>
+      <c r="C472" t="s">
+        <v>621</v>
+      </c>
       <c r="F472" s="2" t="s">
-        <v>620</v>
+        <v>984</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="42">
@@ -12997,8 +13320,11 @@
       <c r="B473" t="s">
         <v>466</v>
       </c>
+      <c r="C473" t="s">
+        <v>621</v>
+      </c>
       <c r="F473" s="2" t="s">
-        <v>620</v>
+        <v>985</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="42">
@@ -13008,8 +13334,11 @@
       <c r="B474" t="s">
         <v>467</v>
       </c>
+      <c r="C474" t="s">
+        <v>621</v>
+      </c>
       <c r="F474" s="2" t="s">
-        <v>620</v>
+        <v>986</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="42">
@@ -13019,8 +13348,11 @@
       <c r="B475" t="s">
         <v>468</v>
       </c>
+      <c r="C475" t="s">
+        <v>621</v>
+      </c>
       <c r="F475" s="2" t="s">
-        <v>620</v>
+        <v>987</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D1BC793D-0CC0-C040-99FD-F33BE4C32893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F550C319-EFBE-0946-969E-01237BDD7E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1740" uniqueCount="988">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1767" uniqueCount="1014">
   <si>
     <t>Issue</t>
   </si>
@@ -5272,23 +5272,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>[Content]従来のベンチマークをlibcudf++に移行
-[Class]機能の移行</t>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">ジュウライノ </t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t xml:space="preserve">イコウ </t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t xml:space="preserve">キノウノ </t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t xml:space="preserve">イコウ </t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>[Content]RMM_ALLOC/rmm::allocのdirect useを削除
 [Class]不要な機能の削除</t>
     <rPh sb="51" eb="53">
@@ -5672,6 +5655,203 @@
   <si>
     <t>[Content]cuio のstats_column_descをリファクタリング
 [Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]OrderedDict inheritanceの安全ではない使用
+[Class]機能の改善</t>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]unreachable code pathsに__builtin_unreachableを使用
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CUDA 10.xコンパイラのバグ回避策を削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cuIO kernelsのgrid dimensionsを再検討
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいベンチマークにnvbenchを使用する
+[Class]ベンチマークの追加</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">アタラシイ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">シヨウスル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]従来のベンチマークをlibcudf++に移行
+[Class]ベンチマークの移行</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ジュウライノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]string processing APIsのBounds check
+[Class]APIテストの追加</t>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]make_strings_children_with_null_mask utilityを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ser.str.subword_tokenize APIを廃止しcudf.core.subword_tokenizer.SubwordTokenizerを使用する
+[Class]機能の置き換え</t>
+    <rPh sb="98" eb="100">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]label_encodingメソッドを非推奨
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]distributed computingに対応するためのRefactor aggregations
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cudf::strings::detail::make_strings_children が std::function を引数として受け取れるようにリファクタリング
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DataFrameとSeriesFrame間のメソッドを統合
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]row_equality_comparator で bool の代わりに null_equality enum を使用するよう更新
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]row operatorsの動的なhas_nullsを有効にする
+[Class]オプションの変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CIテストにライセンスチェックを追加
+[Class]テストの追加</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]convert_datetime.cuで使用する型の問題
+[Class]型の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]別々のカーネルにディスパッチするべき
+[Class]機能の改善</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ベツベツノ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DataFrame._repr_pandas025_formattingを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メモリの再利用によりOOMが発生する可能性がある
+[Class]メモリ不足への対応</t>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">フソク </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Apple m1 でdocker 経由でredpandaを実行する際のOOM
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Dockerのバグの可能性もある</t>
+    <rPh sb="10" eb="13">
+      <t xml:space="preserve">カノウセイモアル </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]gcc-11でcoroutinesの一時的な寿命の回避策を修正
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]selector functionsを公開
+[Class]機能の追加</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]producer_epochにstrong typesを使用
+[Class]型の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rpk:buildはredpanda dev toolsによってインストールされたGo binsを使用する必要がある
+[Class]機能の改善</t>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">シヨウスルヒツヨウガアル </t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]nodejs のインストールが混在しないようにwasmとv-wasm タスクをリファクタリング
+[Class]コードの改善</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6639,8 +6819,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F476" sqref="F476"/>
+    <sheetView tabSelected="1" topLeftCell="A489" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C501" sqref="C501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -12659,10 +12839,13 @@
         <v>420</v>
       </c>
       <c r="C427" t="s">
+        <v>624</v>
+      </c>
+      <c r="D427" t="s">
         <v>621</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>938</v>
+        <v>992</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="42">
@@ -12676,7 +12859,7 @@
         <v>621</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="42">
@@ -12690,7 +12873,7 @@
         <v>621</v>
       </c>
       <c r="F429" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="42">
@@ -12704,7 +12887,7 @@
         <v>621</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="42">
@@ -12718,7 +12901,7 @@
         <v>621</v>
       </c>
       <c r="F431" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="42">
@@ -12732,7 +12915,7 @@
         <v>621</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="42">
@@ -12746,7 +12929,7 @@
         <v>621</v>
       </c>
       <c r="F433" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="42">
@@ -12760,7 +12943,7 @@
         <v>621</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="42">
@@ -12774,7 +12957,7 @@
         <v>621</v>
       </c>
       <c r="F435" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="42">
@@ -12791,7 +12974,7 @@
         <v>621</v>
       </c>
       <c r="F436" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="42">
@@ -12805,7 +12988,7 @@
         <v>621</v>
       </c>
       <c r="F437" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="42">
@@ -12819,7 +13002,7 @@
         <v>621</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="42">
@@ -12833,7 +13016,7 @@
         <v>621</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="42">
@@ -12847,7 +13030,7 @@
         <v>621</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="42">
@@ -12861,7 +13044,7 @@
         <v>621</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="42">
@@ -12872,10 +13055,10 @@
         <v>435</v>
       </c>
       <c r="C442" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="42">
@@ -12889,7 +13072,7 @@
         <v>621</v>
       </c>
       <c r="F443" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="42">
@@ -12903,7 +13086,7 @@
         <v>621</v>
       </c>
       <c r="F444" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="42">
@@ -12920,7 +13103,7 @@
         <v>624</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="42">
@@ -12934,7 +13117,7 @@
         <v>621</v>
       </c>
       <c r="F446" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="42">
@@ -12948,7 +13131,7 @@
         <v>621</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="42">
@@ -12962,7 +13145,7 @@
         <v>621</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="42">
@@ -12973,10 +13156,10 @@
         <v>442</v>
       </c>
       <c r="C449" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="42">
@@ -12987,10 +13170,10 @@
         <v>443</v>
       </c>
       <c r="C450" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="42">
@@ -13004,7 +13187,7 @@
         <v>621</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="42">
@@ -13018,7 +13201,7 @@
         <v>621</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="42">
@@ -13032,7 +13215,7 @@
         <v>621</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="42">
@@ -13043,13 +13226,10 @@
         <v>447</v>
       </c>
       <c r="C454" t="s">
-        <v>621</v>
-      </c>
-      <c r="D454" t="s">
         <v>624</v>
       </c>
       <c r="F454" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="42">
@@ -13060,13 +13240,10 @@
         <v>448</v>
       </c>
       <c r="C455" t="s">
-        <v>621</v>
-      </c>
-      <c r="D455" t="s">
         <v>624</v>
       </c>
       <c r="F455" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="42">
@@ -13080,7 +13257,7 @@
         <v>624</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="42">
@@ -13094,7 +13271,7 @@
         <v>621</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="42">
@@ -13108,7 +13285,7 @@
         <v>621</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="42">
@@ -13122,7 +13299,7 @@
         <v>621</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="42">
@@ -13136,7 +13313,7 @@
         <v>621</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="42">
@@ -13150,7 +13327,7 @@
         <v>621</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="63">
@@ -13164,7 +13341,7 @@
         <v>621</v>
       </c>
       <c r="F462" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="42">
@@ -13178,7 +13355,7 @@
         <v>621</v>
       </c>
       <c r="F463" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="42">
@@ -13192,7 +13369,7 @@
         <v>621</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="42">
@@ -13206,7 +13383,7 @@
         <v>624</v>
       </c>
       <c r="F465" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="42">
@@ -13223,10 +13400,10 @@
         <v>757</v>
       </c>
       <c r="E466" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F466" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="42">
@@ -13240,7 +13417,7 @@
         <v>621</v>
       </c>
       <c r="F467" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="42">
@@ -13254,7 +13431,7 @@
         <v>621</v>
       </c>
       <c r="F468" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="42">
@@ -13268,7 +13445,7 @@
         <v>621</v>
       </c>
       <c r="F469" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="42">
@@ -13282,7 +13459,7 @@
         <v>624</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="42">
@@ -13296,7 +13473,7 @@
         <v>621</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="42">
@@ -13310,7 +13487,7 @@
         <v>621</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="42">
@@ -13324,7 +13501,7 @@
         <v>621</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="42">
@@ -13338,7 +13515,7 @@
         <v>621</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="42">
@@ -13352,7 +13529,7 @@
         <v>621</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="42">
@@ -13362,8 +13539,11 @@
       <c r="B476" t="s">
         <v>469</v>
       </c>
+      <c r="C476" t="s">
+        <v>621</v>
+      </c>
       <c r="F476" s="2" t="s">
-        <v>620</v>
+        <v>987</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="42">
@@ -13373,8 +13553,11 @@
       <c r="B477" t="s">
         <v>470</v>
       </c>
+      <c r="C477" t="s">
+        <v>621</v>
+      </c>
       <c r="F477" s="2" t="s">
-        <v>620</v>
+        <v>988</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="42">
@@ -13384,8 +13567,11 @@
       <c r="B478" t="s">
         <v>471</v>
       </c>
+      <c r="C478" t="s">
+        <v>621</v>
+      </c>
       <c r="F478" s="2" t="s">
-        <v>620</v>
+        <v>989</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="42">
@@ -13395,8 +13581,11 @@
       <c r="B479" t="s">
         <v>472</v>
       </c>
+      <c r="C479" t="s">
+        <v>621</v>
+      </c>
       <c r="F479" s="2" t="s">
-        <v>620</v>
+        <v>990</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="42">
@@ -13406,8 +13595,11 @@
       <c r="B480" t="s">
         <v>473</v>
       </c>
+      <c r="C480" t="s">
+        <v>624</v>
+      </c>
       <c r="F480" s="2" t="s">
-        <v>620</v>
+        <v>991</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="42">
@@ -13417,8 +13609,11 @@
       <c r="B481" t="s">
         <v>474</v>
       </c>
+      <c r="C481" t="s">
+        <v>624</v>
+      </c>
       <c r="F481" s="2" t="s">
-        <v>620</v>
+        <v>993</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="42">
@@ -13428,19 +13623,25 @@
       <c r="B482" t="s">
         <v>475</v>
       </c>
+      <c r="C482" t="s">
+        <v>621</v>
+      </c>
       <c r="F482" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" ht="42">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" ht="63">
       <c r="A483">
         <v>8604</v>
       </c>
       <c r="B483" t="s">
         <v>476</v>
       </c>
+      <c r="C483" t="s">
+        <v>621</v>
+      </c>
       <c r="F483" s="2" t="s">
-        <v>620</v>
+        <v>995</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="42">
@@ -13450,8 +13651,11 @@
       <c r="B484" t="s">
         <v>477</v>
       </c>
+      <c r="C484" t="s">
+        <v>621</v>
+      </c>
       <c r="F484" s="2" t="s">
-        <v>620</v>
+        <v>996</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="42">
@@ -13461,19 +13665,25 @@
       <c r="B485" t="s">
         <v>478</v>
       </c>
+      <c r="C485" t="s">
+        <v>621</v>
+      </c>
       <c r="F485" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6" ht="42">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" ht="63">
       <c r="A486">
         <v>8845</v>
       </c>
       <c r="B486" t="s">
         <v>479</v>
       </c>
+      <c r="C486" t="s">
+        <v>621</v>
+      </c>
       <c r="F486" s="2" t="s">
-        <v>620</v>
+        <v>998</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="42">
@@ -13483,19 +13693,25 @@
       <c r="B487" t="s">
         <v>480</v>
       </c>
+      <c r="C487" t="s">
+        <v>621</v>
+      </c>
       <c r="F487" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6" ht="42">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" ht="63">
       <c r="A488">
         <v>9152</v>
       </c>
       <c r="B488" t="s">
         <v>481</v>
       </c>
+      <c r="C488" t="s">
+        <v>621</v>
+      </c>
       <c r="F488" s="2" t="s">
-        <v>620</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="42">
@@ -13505,8 +13721,11 @@
       <c r="B489" t="s">
         <v>482</v>
       </c>
+      <c r="C489" t="s">
+        <v>621</v>
+      </c>
       <c r="F489" s="2" t="s">
-        <v>620</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="42">
@@ -13516,8 +13735,11 @@
       <c r="B490" t="s">
         <v>483</v>
       </c>
+      <c r="C490" t="s">
+        <v>624</v>
+      </c>
       <c r="F490" s="2" t="s">
-        <v>620</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="42">
@@ -13527,8 +13749,11 @@
       <c r="B491" t="s">
         <v>484</v>
       </c>
+      <c r="C491" t="s">
+        <v>621</v>
+      </c>
       <c r="F491" s="2" t="s">
-        <v>620</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="42">
@@ -13538,8 +13763,11 @@
       <c r="B492" t="s">
         <v>485</v>
       </c>
+      <c r="C492" t="s">
+        <v>621</v>
+      </c>
       <c r="F492" s="2" t="s">
-        <v>620</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="42">
@@ -13549,8 +13777,11 @@
       <c r="B493" t="s">
         <v>486</v>
       </c>
+      <c r="C493" t="s">
+        <v>621</v>
+      </c>
       <c r="F493" s="2" t="s">
-        <v>620</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="42">
@@ -13560,8 +13791,14 @@
       <c r="B494" t="s">
         <v>487</v>
       </c>
+      <c r="C494" t="s">
+        <v>827</v>
+      </c>
+      <c r="D494" t="s">
+        <v>621</v>
+      </c>
       <c r="F494" s="2" t="s">
-        <v>620</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="42">
@@ -13571,8 +13808,17 @@
       <c r="B495" t="s">
         <v>488</v>
       </c>
+      <c r="C495" t="s">
+        <v>621</v>
+      </c>
+      <c r="D495" t="s">
+        <v>676</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1008</v>
+      </c>
       <c r="F495" s="2" t="s">
-        <v>620</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="42">
@@ -13582,8 +13828,11 @@
       <c r="B496" t="s">
         <v>489</v>
       </c>
+      <c r="C496" t="s">
+        <v>621</v>
+      </c>
       <c r="F496" s="2" t="s">
-        <v>620</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="42">
@@ -13593,8 +13842,11 @@
       <c r="B497" t="s">
         <v>490</v>
       </c>
+      <c r="C497" t="s">
+        <v>621</v>
+      </c>
       <c r="F497" s="2" t="s">
-        <v>620</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="42">
@@ -13604,30 +13856,39 @@
       <c r="B498" t="s">
         <v>491</v>
       </c>
+      <c r="C498" t="s">
+        <v>621</v>
+      </c>
       <c r="F498" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" ht="42">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" ht="63">
       <c r="A499">
         <v>1347</v>
       </c>
       <c r="B499" t="s">
         <v>492</v>
       </c>
+      <c r="C499" t="s">
+        <v>621</v>
+      </c>
       <c r="F499" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6" ht="42">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" ht="63">
       <c r="A500">
         <v>1595</v>
       </c>
       <c r="B500" t="s">
         <v>493</v>
       </c>
+      <c r="C500" t="s">
+        <v>621</v>
+      </c>
       <c r="F500" s="2" t="s">
-        <v>620</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F550C319-EFBE-0946-969E-01237BDD7E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20009_{50935B99-29DD-EE47-A301-9940E2AF7CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="satd_issue_dataset_C++" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -5599,17 +5600,8 @@
       <t xml:space="preserve">レイガイノ </t>
     </rPh>
     <rPh sb="58" eb="60">
-      <t>_x0000_	_x0002__x0006_</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>:_x0002_
-:</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>_x0002__x000E_D_x0002__x0013_</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t/>
+      <t>_x0000_	_x0002__x0006_:_x0002_
+:_x0002__x000E_D_x0002__x0013_</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -6819,8 +6811,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501"/>
+    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E500" sqref="E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20009_{50935B99-29DD-EE47-A301-9940E2AF7CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2DC747B2-367E-0346-8207-5918492FBE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="satd_issue_dataset_C++" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1767" uniqueCount="1014">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1803" uniqueCount="1046">
   <si>
     <t>Issue</t>
   </si>
@@ -5844,6 +5843,325 @@
   <si>
     <t>[Content]nodejs のインストールが混在しないようにwasmとv-wasm タスクをリファクタリング
 [Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]coprocをcluster::partitionに移動
+[Class]機能の移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]無効化されたテストを修正
+[Class]テストの修正</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ムコウカサレタ </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]redpanda upgrade testのためのducktape plumbingを構築
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]FMT_COMPILeでformat stringを使用
+[Class]コンパイルの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]quorum replication code pathを簡素化
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]std::optionalを作成しようとするとクラッシュする
+[Class]バグの修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]起動時の警告への対応
+[Class]警告への対応</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">キドウジノ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ケイコク </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ケイコクヘノ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]rpk container smoke testが失敗する
+[Class]テストの無効化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>関連したissueでテストを無効化しているためTests</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カンレンシタ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ログメッセージの改善
+[Class]ログメッセージの改善</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]follower node再起動時の不安定な動作
+[Class]不安定な動作を修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]single partitionのリカバリが遅い
+[Class]パフォーマンスの改善</t>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CI単体テストでseastar-addr2lineが実行されていない
+[Class]テストの修正</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">タンタイテスト </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ジッコウサレテイナイ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]非推奨のvariable syntaxの使用を停止
+[Class]非推奨への対応</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">テイシ </t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t xml:space="preserve">ヒスイショウ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能の改善
+[Class]機能の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">キノウノカイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]single node systemsでreplication factorを増やしてはいけない
+[Class]機能の改善</t>
+    <rPh sb="65" eb="67">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]single node systemでメッセージを出力しない
+[Class]機能の改善</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シュツリョクシナイ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]wasm nodejsのバージョンdepsを修正 
+[Class]機能の修正</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストKafkaCliTools._executeでエラーが発生する
+[Class]テストの修正</t>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>#2407でテストを修正していた</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">シュウセイシテイタ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストコンテナの制限への対応
+[Class]テストの改善</t>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">セイゲン </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]no-opであっても変更が適用される
+[Class]テストの修正</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ヘンコウガテキヨウサレル </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テスト用Dockerイメージの更新
+[Class]テストの改善</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">コウシン </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストは成功するが危険な警告が出ている
+[Class]警告への対応</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">キケンナケイコクガ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">デテイル </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ケイコクヘノ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>実際は問題なし？</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッサイハ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">モンダイナヂ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]persistent vector of node version/feature flagsを維持する
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]header implからexternal linkageを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]load test automationを作成
+[Class]テストの改善</t>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CIでの障害を修正
+[Class]コードの修正</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ショウガイ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]k8s operator testsを安定化
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]component-level unit testingを拡張
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいserialization formatへの移行
+[Class]機能の移行</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">アタラシイ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -6811,8 +7129,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E500" sqref="E500"/>
+    <sheetView tabSelected="1" topLeftCell="A523" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F531" sqref="F531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -13890,8 +14208,11 @@
       <c r="B501" t="s">
         <v>494</v>
       </c>
+      <c r="C501" t="s">
+        <v>621</v>
+      </c>
       <c r="F501" s="2" t="s">
-        <v>620</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="42">
@@ -13901,8 +14222,11 @@
       <c r="B502" t="s">
         <v>495</v>
       </c>
+      <c r="C502" t="s">
+        <v>624</v>
+      </c>
       <c r="F502" s="2" t="s">
-        <v>620</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="42">
@@ -13912,8 +14236,11 @@
       <c r="B503" t="s">
         <v>496</v>
       </c>
+      <c r="C503" t="s">
+        <v>624</v>
+      </c>
       <c r="F503" s="2" t="s">
-        <v>620</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="42">
@@ -13923,8 +14250,14 @@
       <c r="B504" t="s">
         <v>497</v>
       </c>
+      <c r="C504" t="s">
+        <v>621</v>
+      </c>
+      <c r="D504" t="s">
+        <v>757</v>
+      </c>
       <c r="F504" s="2" t="s">
-        <v>620</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="42">
@@ -13934,8 +14267,11 @@
       <c r="B505" t="s">
         <v>498</v>
       </c>
+      <c r="C505" t="s">
+        <v>621</v>
+      </c>
       <c r="F505" s="2" t="s">
-        <v>620</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="42">
@@ -13945,8 +14281,11 @@
       <c r="B506" t="s">
         <v>499</v>
       </c>
+      <c r="C506" t="s">
+        <v>621</v>
+      </c>
       <c r="F506" s="2" t="s">
-        <v>620</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="42">
@@ -13956,8 +14295,11 @@
       <c r="B507" t="s">
         <v>500</v>
       </c>
+      <c r="C507" t="s">
+        <v>621</v>
+      </c>
       <c r="F507" s="2" t="s">
-        <v>620</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="42">
@@ -13967,8 +14309,14 @@
       <c r="B508" t="s">
         <v>501</v>
       </c>
+      <c r="C508" t="s">
+        <v>624</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1022</v>
+      </c>
       <c r="F508" s="2" t="s">
-        <v>620</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="42">
@@ -13978,8 +14326,11 @@
       <c r="B509" t="s">
         <v>502</v>
       </c>
+      <c r="C509" t="s">
+        <v>621</v>
+      </c>
       <c r="F509" s="2" t="s">
-        <v>620</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="42">
@@ -13989,8 +14340,11 @@
       <c r="B510" t="s">
         <v>503</v>
       </c>
+      <c r="C510" t="s">
+        <v>621</v>
+      </c>
       <c r="F510" s="2" t="s">
-        <v>620</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="42">
@@ -14000,8 +14354,11 @@
       <c r="B511" t="s">
         <v>504</v>
       </c>
+      <c r="C511" t="s">
+        <v>827</v>
+      </c>
       <c r="F511" s="2" t="s">
-        <v>620</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="42">
@@ -14011,8 +14368,11 @@
       <c r="B512" t="s">
         <v>505</v>
       </c>
+      <c r="C512" t="s">
+        <v>624</v>
+      </c>
       <c r="F512" s="2" t="s">
-        <v>620</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="42">
@@ -14022,8 +14382,11 @@
       <c r="B513" t="s">
         <v>506</v>
       </c>
+      <c r="C513" t="s">
+        <v>621</v>
+      </c>
       <c r="F513" s="2" t="s">
-        <v>620</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="42">
@@ -14033,8 +14396,11 @@
       <c r="B514" t="s">
         <v>507</v>
       </c>
+      <c r="C514" t="s">
+        <v>621</v>
+      </c>
       <c r="F514" s="2" t="s">
-        <v>620</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="42">
@@ -14044,8 +14410,11 @@
       <c r="B515" t="s">
         <v>508</v>
       </c>
+      <c r="C515" t="s">
+        <v>621</v>
+      </c>
       <c r="F515" s="2" t="s">
-        <v>620</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="42">
@@ -14055,8 +14424,11 @@
       <c r="B516" t="s">
         <v>509</v>
       </c>
+      <c r="C516" t="s">
+        <v>621</v>
+      </c>
       <c r="F516" s="2" t="s">
-        <v>620</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="42">
@@ -14066,8 +14438,11 @@
       <c r="B517" t="s">
         <v>510</v>
       </c>
+      <c r="C517" t="s">
+        <v>621</v>
+      </c>
       <c r="F517" s="2" t="s">
-        <v>620</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="42">
@@ -14077,8 +14452,14 @@
       <c r="B518" t="s">
         <v>511</v>
       </c>
+      <c r="C518" t="s">
+        <v>624</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1033</v>
+      </c>
       <c r="F518" s="2" t="s">
-        <v>620</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="42">
@@ -14088,8 +14469,11 @@
       <c r="B519" t="s">
         <v>512</v>
       </c>
+      <c r="C519" t="s">
+        <v>624</v>
+      </c>
       <c r="F519" s="2" t="s">
-        <v>620</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="42">
@@ -14099,8 +14483,11 @@
       <c r="B520" t="s">
         <v>513</v>
       </c>
+      <c r="C520" t="s">
+        <v>624</v>
+      </c>
       <c r="F520" s="2" t="s">
-        <v>620</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="42">
@@ -14110,8 +14497,11 @@
       <c r="B521" t="s">
         <v>514</v>
       </c>
+      <c r="C521" t="s">
+        <v>624</v>
+      </c>
       <c r="F521" s="2" t="s">
-        <v>620</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="42">
@@ -14121,8 +14511,17 @@
       <c r="B522" t="s">
         <v>515</v>
       </c>
+      <c r="C522" t="s">
+        <v>621</v>
+      </c>
+      <c r="D522" t="s">
+        <v>624</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1038</v>
+      </c>
       <c r="F522" s="2" t="s">
-        <v>620</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="42">
@@ -14132,8 +14531,11 @@
       <c r="B523" t="s">
         <v>516</v>
       </c>
+      <c r="C523" t="s">
+        <v>621</v>
+      </c>
       <c r="F523" s="2" t="s">
-        <v>620</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="42">
@@ -14143,8 +14545,11 @@
       <c r="B524" t="s">
         <v>517</v>
       </c>
+      <c r="C524" t="s">
+        <v>621</v>
+      </c>
       <c r="F524" s="2" t="s">
-        <v>620</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="42">
@@ -14154,8 +14559,14 @@
       <c r="B525" t="s">
         <v>518</v>
       </c>
+      <c r="C525" t="s">
+        <v>621</v>
+      </c>
+      <c r="D525" t="s">
+        <v>624</v>
+      </c>
       <c r="F525" s="2" t="s">
-        <v>620</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="42">
@@ -14165,8 +14576,11 @@
       <c r="B526" t="s">
         <v>519</v>
       </c>
+      <c r="C526" t="s">
+        <v>624</v>
+      </c>
       <c r="F526" s="2" t="s">
-        <v>620</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="42">
@@ -14176,8 +14590,11 @@
       <c r="B527" t="s">
         <v>520</v>
       </c>
+      <c r="C527" t="s">
+        <v>624</v>
+      </c>
       <c r="F527" s="2" t="s">
-        <v>620</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="42">
@@ -14187,8 +14604,11 @@
       <c r="B528" t="s">
         <v>521</v>
       </c>
+      <c r="C528" t="s">
+        <v>624</v>
+      </c>
       <c r="F528" s="2" t="s">
-        <v>620</v>
+        <v>710</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="42">
@@ -14198,8 +14618,11 @@
       <c r="B529" t="s">
         <v>522</v>
       </c>
+      <c r="C529" t="s">
+        <v>624</v>
+      </c>
       <c r="F529" s="2" t="s">
-        <v>620</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="42">
@@ -14209,8 +14632,11 @@
       <c r="B530" t="s">
         <v>523</v>
       </c>
+      <c r="C530" t="s">
+        <v>621</v>
+      </c>
       <c r="F530" s="2" t="s">
-        <v>620</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2DC747B2-367E-0346-8207-5918492FBE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D5453322-2BE2-7B46-925B-738F9078D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1803" uniqueCount="1046">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1837" uniqueCount="1070">
   <si>
     <t>Issue</t>
   </si>
@@ -6162,6 +6162,213 @@
     <rPh sb="47" eb="49">
       <t xml:space="preserve">イコウ </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]storage: serde fuzzing tests
+[Class]#2694と関連，テスト</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]serdeへの対応
+[Class]機能の変更</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]エラーメッセージの改善
+[Class]エラーメッセージの改善</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]incremental_topic_updatesの無駄なdata_policyプロパティ
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]remote_partitionをcluster::partitionに統合
+[Class]機能の統合</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストを再度有効化する
+[Class]テストの有効化</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">サイド </t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t xml:space="preserve">ユウコウカ </t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t xml:space="preserve">ユウコウカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]remote_partitionおよびremote_segmentの修正をdevに移行 
+[Class]コードの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]バックグラウンド タスクを明示的にする
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]protocol_utils.ccのPossible strict aliasing issues
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]リモートセグメントの中止されたトランザクションIDを取得する
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]新しいノードはjoin_requestを送信すべきではない
+[Class]テストの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ノイズの多いhydrating segmentログメッセージ
+[Class]ログメッセージの改善</t>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">オオイ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トピックのリーダーが変更されたときに生成される警告
+[Class]警告の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]トピック作成に関する警告
+[Class]警告の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]無害なリクエストに対するノイズの多いエラー
+[Class]エラーメッセージの改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ムガイナリクエストニタイス </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]peer handshakeはTLS transparencyに違反する
+[Class]仕様の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]単体テストを異なるディレクトリに移動
+[Class]テストの移動</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">タンタイテスト </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">コトナル </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">イドウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]JSON libraryはtryGetパターンを使用できる
+[Class]機能の改善</t>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">シヨウデキル </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]例外スローがデフォルトではログに記録されない
+[Class]例外処理の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">レイガイスロー </t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t xml:space="preserve">レイガイショリノ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ValidatorSiteのssl関連の設定
+[Class]設定の変更</t>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">カンレンノ </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">セッテイノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]APIの改善
+[Class]APIの改善</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]basic_seconds_clock_main_hookの調査
+[Class]関数の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]std::optionalをboost::optionalに変換
+[Class]機能の置き換え</t>
+    <rPh sb="52" eb="53">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]古い account_tx 呼び出しを取り除く
+[Class]古い機能の削除</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -7129,8 +7336,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F531" sqref="F531"/>
+    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C560" sqref="C560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14646,8 +14853,14 @@
       <c r="B531" t="s">
         <v>524</v>
       </c>
+      <c r="C531" t="s">
+        <v>624</v>
+      </c>
+      <c r="D531" t="s">
+        <v>621</v>
+      </c>
       <c r="F531" s="2" t="s">
-        <v>620</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="42">
@@ -14657,8 +14870,11 @@
       <c r="B532" t="s">
         <v>525</v>
       </c>
+      <c r="C532" t="s">
+        <v>621</v>
+      </c>
       <c r="F532" s="2" t="s">
-        <v>620</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="42">
@@ -14668,8 +14884,11 @@
       <c r="B533" t="s">
         <v>526</v>
       </c>
+      <c r="C533" t="s">
+        <v>621</v>
+      </c>
       <c r="F533" s="2" t="s">
-        <v>620</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="42">
@@ -14679,8 +14898,11 @@
       <c r="B534" t="s">
         <v>527</v>
       </c>
+      <c r="C534" t="s">
+        <v>621</v>
+      </c>
       <c r="F534" s="2" t="s">
-        <v>620</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="42">
@@ -14690,8 +14912,11 @@
       <c r="B535" t="s">
         <v>528</v>
       </c>
+      <c r="C535" t="s">
+        <v>621</v>
+      </c>
       <c r="F535" s="2" t="s">
-        <v>620</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="42">
@@ -14701,8 +14926,11 @@
       <c r="B536" t="s">
         <v>529</v>
       </c>
+      <c r="C536" t="s">
+        <v>621</v>
+      </c>
       <c r="F536" s="2" t="s">
-        <v>620</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="42">
@@ -14712,8 +14940,11 @@
       <c r="B537" t="s">
         <v>530</v>
       </c>
+      <c r="C537" t="s">
+        <v>621</v>
+      </c>
       <c r="F537" s="2" t="s">
-        <v>620</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="42">
@@ -14723,8 +14954,11 @@
       <c r="B538" t="s">
         <v>531</v>
       </c>
+      <c r="C538" t="s">
+        <v>621</v>
+      </c>
       <c r="F538" s="2" t="s">
-        <v>620</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="42">
@@ -14734,8 +14968,11 @@
       <c r="B539" t="s">
         <v>532</v>
       </c>
+      <c r="C539" t="s">
+        <v>621</v>
+      </c>
       <c r="F539" s="2" t="s">
-        <v>620</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="42">
@@ -14745,8 +14982,11 @@
       <c r="B540" t="s">
         <v>533</v>
       </c>
+      <c r="C540" t="s">
+        <v>621</v>
+      </c>
       <c r="F540" s="2" t="s">
-        <v>620</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="42">
@@ -14756,8 +14996,11 @@
       <c r="B541" t="s">
         <v>534</v>
       </c>
+      <c r="C541" t="s">
+        <v>621</v>
+      </c>
       <c r="F541" s="2" t="s">
-        <v>620</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="42">
@@ -14767,8 +15010,11 @@
       <c r="B542" t="s">
         <v>535</v>
       </c>
+      <c r="C542" t="s">
+        <v>624</v>
+      </c>
       <c r="F542" s="2" t="s">
-        <v>620</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="42">
@@ -14778,8 +15024,11 @@
       <c r="B543" t="s">
         <v>536</v>
       </c>
+      <c r="C543" t="s">
+        <v>621</v>
+      </c>
       <c r="F543" s="2" t="s">
-        <v>620</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="42">
@@ -14789,8 +15038,11 @@
       <c r="B544" t="s">
         <v>537</v>
       </c>
+      <c r="C544" t="s">
+        <v>621</v>
+      </c>
       <c r="F544" s="2" t="s">
-        <v>620</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="42">
@@ -14800,8 +15052,11 @@
       <c r="B545" t="s">
         <v>538</v>
       </c>
+      <c r="C545" t="s">
+        <v>621</v>
+      </c>
       <c r="F545" s="2" t="s">
-        <v>620</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="42">
@@ -14811,8 +15066,11 @@
       <c r="B546" t="s">
         <v>539</v>
       </c>
+      <c r="C546" t="s">
+        <v>621</v>
+      </c>
       <c r="F546" s="2" t="s">
-        <v>620</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="42">
@@ -14822,8 +15080,14 @@
       <c r="B547" t="s">
         <v>540</v>
       </c>
+      <c r="C547" t="s">
+        <v>624</v>
+      </c>
+      <c r="D547" t="s">
+        <v>621</v>
+      </c>
       <c r="F547" s="2" t="s">
-        <v>620</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="42">
@@ -14833,8 +15097,11 @@
       <c r="B548" t="s">
         <v>541</v>
       </c>
+      <c r="C548" t="s">
+        <v>621</v>
+      </c>
       <c r="F548" s="2" t="s">
-        <v>620</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="42">
@@ -14844,8 +15111,11 @@
       <c r="B549" t="s">
         <v>542</v>
       </c>
+      <c r="C549" t="s">
+        <v>621</v>
+      </c>
       <c r="F549" s="2" t="s">
-        <v>620</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="42">
@@ -14855,8 +15125,11 @@
       <c r="B550" t="s">
         <v>543</v>
       </c>
+      <c r="C550" t="s">
+        <v>621</v>
+      </c>
       <c r="F550" s="2" t="s">
-        <v>620</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="42">
@@ -14866,8 +15139,11 @@
       <c r="B551" t="s">
         <v>544</v>
       </c>
+      <c r="C551" t="s">
+        <v>621</v>
+      </c>
       <c r="F551" s="2" t="s">
-        <v>620</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="42">
@@ -14877,8 +15153,14 @@
       <c r="B552" t="s">
         <v>545</v>
       </c>
+      <c r="C552" t="s">
+        <v>636</v>
+      </c>
+      <c r="D552" t="s">
+        <v>621</v>
+      </c>
       <c r="F552" s="2" t="s">
-        <v>620</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="42">
@@ -14888,8 +15170,11 @@
       <c r="B553" t="s">
         <v>546</v>
       </c>
+      <c r="C553" t="s">
+        <v>624</v>
+      </c>
       <c r="F553" s="2" t="s">
-        <v>620</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="42">
@@ -14899,8 +15184,11 @@
       <c r="B554" t="s">
         <v>547</v>
       </c>
+      <c r="C554" t="s">
+        <v>621</v>
+      </c>
       <c r="F554" s="2" t="s">
-        <v>620</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="42">
@@ -14910,8 +15198,11 @@
       <c r="B555" t="s">
         <v>548</v>
       </c>
+      <c r="C555" t="s">
+        <v>621</v>
+      </c>
       <c r="F555" s="2" t="s">
-        <v>620</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="42">
@@ -14921,8 +15212,11 @@
       <c r="B556" t="s">
         <v>549</v>
       </c>
+      <c r="C556" t="s">
+        <v>621</v>
+      </c>
       <c r="F556" s="2" t="s">
-        <v>620</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="42">
@@ -14932,8 +15226,11 @@
       <c r="B557" t="s">
         <v>550</v>
       </c>
+      <c r="C557" t="s">
+        <v>621</v>
+      </c>
       <c r="F557" s="2" t="s">
-        <v>620</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="42">
@@ -14943,8 +15240,11 @@
       <c r="B558" t="s">
         <v>551</v>
       </c>
+      <c r="C558" t="s">
+        <v>621</v>
+      </c>
       <c r="F558" s="2" t="s">
-        <v>620</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="42">
@@ -14954,8 +15254,14 @@
       <c r="B559" t="s">
         <v>552</v>
       </c>
+      <c r="C559" t="s">
+        <v>621</v>
+      </c>
+      <c r="D559" t="s">
+        <v>676</v>
+      </c>
       <c r="F559" s="2" t="s">
-        <v>620</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="42">
@@ -14965,8 +15271,11 @@
       <c r="B560" t="s">
         <v>553</v>
       </c>
+      <c r="C560" t="s">
+        <v>621</v>
+      </c>
       <c r="F560" s="2" t="s">
-        <v>620</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="42">

--- a/satd_issue_dataset_C++.xlsx
+++ b/satd_issue_dataset_C++.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D5453322-2BE2-7B46-925B-738F9078D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{25A2512B-64FC-DC4A-8F64-CBE49BD81B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7140" yWindow="-21100" windowWidth="31260" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1837" uniqueCount="1070">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1868" uniqueCount="1100">
   <si>
     <t>Issue</t>
   </si>
@@ -6369,6 +6369,300 @@
   <si>
     <t>[Content]古い account_tx 呼び出しを取り除く
 [Class]古い機能の削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]失敗のはずのテストが成功と出力される
+[Class]テストの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シッパイノハウノテスト </t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">セイコウ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シュツリョクサレル </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ledger nodeのJSON serializationに一貫性がない
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]strict mode Bitcoin address detectionを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]SHAMapから未使用の関数を削除
+[Class]不要な関数の削除</t>
+    <rPh sb="17" eb="20">
+      <t xml:space="preserve">ミシヨウノ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]max_transactionsはハードコードではなくオプションであるべき
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ValidationsとConsensusの時間演算を修正
+[Class]機能の修正</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rapidjsonを削除
+[Class]不要なパッケージの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]不要なnull pointer checkを削除
+[Class]不要な機能の削除</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]smart pointerで例外の安全性を向上
+[Class]機能の改善</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">レイガイ </t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t xml:space="preserve">アンゼンセイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">コウジョウ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]int-based enumをenum classに変更
+[Class]型の変更</t>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">カタノヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]all.pairsとall.triplesの機能あをall.interactionsに統合
+[Class]機能の統合</t>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">トウゴウ </t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t xml:space="preserve">トウゴウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]signed charの使用をunsigned charまたはint8_tに置き換え
+[Class]型の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]io codeのモジュール性と保守性を改善
+[Class]コードの改善</t>
+    <rPh sb="24" eb="27">
+      <t xml:space="preserve">ホシュセイ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]警告とエラーを統合
+[Class]警告の改善</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ケイコク </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">トウゴウ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ケイコク </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]utlをutilに名称変更
+[Class]ディレクトリ名の変更</t>
+    <rPh sb="18" eb="22">
+      <t xml:space="preserve">メイショウヘンコウ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Rapidjsonをexternalディレクトリに移動
+[Class]ファイルの移動</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v_hashmapをstd::unordered_mapに変換
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Setup.pyは正しくmakeを実行する必要がある
+[Class]機能の改善</t>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">タダシク </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">ジッコウスル </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">ヒツヨウガアル </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]cb_explore_adf cover/mtr workflowを調査
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コードベースで必要なプラットフォーム チェックの数を減らす
+[Class]プラットフォームチェックの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VWはメッセージなしで例外をスローすべきでない
+[Class]例外処理の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]shared_dataに対するパーサの依存関係を調査
+[Class]依存関係の調査</t>
+    <rPh sb="28" eb="32">
+      <t xml:space="preserve">イソンカンケイ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">チョウサ </t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t xml:space="preserve">イソンカンケイ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">チョウサ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]deamon modeでのshared_dataの未定義の動作
+[Class]機能の改善</t>
+    <rPh sb="34" eb="37">
+      <t xml:space="preserve">ミテイギノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ドウサ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]v_arrayにはTriviallyCopyable型のみを含める
+[Class]コードの改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]オプション--qを削除
+[Class]不要なオプションの削除</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]LDAはpredict/learnの一部として例をreturns/finishesする
+[Class]機能の修正</t>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]パーサはエラーが発生したコマンドラインの例をスキップする必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]::vwをVW::workspaceに名称変更
+[Class]オブジェクト名の変更</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]VW::io::loggerをインスタンス化されたオブジェクトに変換
+[Class]機能の改善</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コアコードベースの非推奨警告をすべて解決
+[Class]非推奨への対応</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -7336,8 +7630,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C560" sqref="C560"/>
+    <sheetView tabSelected="1" topLeftCell="A581" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E590" sqref="E590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15285,8 +15579,11 @@
       <c r="B561" t="s">
         <v>554</v>
       </c>
+      <c r="C561" t="s">
+        <v>624</v>
+      </c>
       <c r="F561" s="2" t="s">
-        <v>620</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="42">
@@ -15296,8 +15593,11 @@
       <c r="B562" t="s">
         <v>555</v>
       </c>
+      <c r="C562" t="s">
+        <v>621</v>
+      </c>
       <c r="F562" s="2" t="s">
-        <v>620</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="42">
@@ -15307,8 +15607,11 @@
       <c r="B563" t="s">
         <v>556</v>
       </c>
+      <c r="C563" t="s">
+        <v>621</v>
+      </c>
       <c r="F563" s="2" t="s">
-        <v>620</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="42">
@@ -15318,8 +15621,11 @@
       <c r="B564" t="s">
         <v>557</v>
       </c>
+      <c r="C564" t="s">
+        <v>621</v>
+      </c>
       <c r="F564" s="2" t="s">
-        <v>620</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="42">
@@ -15329,8 +15635,11 @@
       <c r="B565" t="s">
         <v>558</v>
       </c>
+      <c r="C565" t="s">
+        <v>621</v>
+      </c>
       <c r="F565" s="2" t="s">
-        <v>620</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="42">
@@ -15340,8 +15649,11 @@
       <c r="B566" t="s">
         <v>559</v>
       </c>
+      <c r="C566" t="s">
+        <v>621</v>
+      </c>
       <c r="F566" s="2" t="s">
-        <v>620</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="42">
@@ -15351,8 +15663,11 @@
       <c r="B567" t="s">
         <v>560</v>
       </c>
+      <c r="C567" t="s">
+        <v>621</v>
+      </c>
       <c r="F567" s="2" t="s">
-        <v>620</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="42">
@@ -15362,8 +15677,11 @@
       <c r="B568" t="s">
         <v>561</v>
       </c>
+      <c r="C568" t="s">
+        <v>621</v>
+      </c>
       <c r="F568" s="2" t="s">
-        <v>620</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="42">
@@ -15373,8 +15691,11 @@
       <c r="B569" t="s">
         <v>562</v>
       </c>
+      <c r="C569" t="s">
+        <v>621</v>
+      </c>
       <c r="F569" s="2" t="s">
-        <v>620</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="42">
@@ -15384,8 +15705,11 @@
       <c r="B570" t="s">
         <v>563</v>
       </c>
+      <c r="C570" t="s">
+        <v>621</v>
+      </c>
       <c r="F570" s="2" t="s">
-        <v>620</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="42">
@@ -15395,8 +15719,11 @@
       <c r="B571" t="s">
         <v>564</v>
       </c>
+      <c r="C571" t="s">
+        <v>621</v>
+      </c>
       <c r="F571" s="2" t="s">
-        <v>620</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="42">
@@ -15406,8 +15733,11 @@
       <c r="B572" t="s">
         <v>565</v>
       </c>
+      <c r="C572" t="s">
+        <v>621</v>
+      </c>
       <c r="F572" s="2" t="s">
-        <v>620</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="42">
@@ -15417,8 +15747,11 @@
       <c r="B573" t="s">
         <v>566</v>
       </c>
+      <c r="C573" t="s">
+        <v>621</v>
+      </c>
       <c r="F573" s="2" t="s">
-        <v>620</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="42">
@@ -15428,8 +15761,11 @@
       <c r="B574" t="s">
         <v>567</v>
       </c>
+      <c r="C574" t="s">
+        <v>621</v>
+      </c>
       <c r="F574" s="2" t="s">
-        <v>620</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="42">
@@ -15439,8 +15775,11 @@
       <c r="B575" t="s">
         <v>568</v>
       </c>
+      <c r="C575" t="s">
+        <v>621</v>
+      </c>
       <c r="F575" s="2" t="s">
-        <v>620</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="42">
@@ -15450,8 +15789,11 @@
       <c r="B576" t="s">
         <v>569</v>
       </c>
+      <c r="C576" t="s">
+        <v>621</v>
+      </c>
       <c r="F576" s="2" t="s">
-        <v>620</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="42">
@@ -15461,8 +15803,11 @@
       <c r="B577" t="s">
         <v>570</v>
       </c>
+      <c r="C577" t="s">
+        <v>621</v>
+      </c>
       <c r="F577" s="2" t="s">
-        <v>620</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="42">
@@ -15472,8 +15817,11 @@
       <c r="B578" t="s">
         <v>571</v>
       </c>
+      <c r="C578" t="s">
+        <v>621</v>
+      </c>
       <c r="F578" s="2" t="s">
-        <v>620</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="42">
@@ -15483,8 +15831,11 @@
       <c r="B579" t="s">
         <v>572</v>
       </c>
+      <c r="C579" t="s">
+        <v>621</v>
+      </c>
       <c r="F579" s="2" t="s">
-        <v>620</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="42">
@@ -15494,8 +15845,11 @@
       <c r="B580" t="s">
         <v>573</v>
       </c>
+      <c r="C580" t="s">
+        <v>624</v>
+      </c>
       <c r="F580" s="2" t="s">
-        <v>620</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="42">
@@ -15505,8 +15859,11 @@
       <c r="B581" t="s">
         <v>574</v>
       </c>
+      <c r="C581" t="s">
+        <v>621</v>
+      </c>
       <c r="F581" s="2" t="s">
-        <v>620</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="42">
@@ -15516,8 +15873,11 @@
       <c r="B582" t="s">
         <v>575</v>
       </c>
+      <c r="C582" t="s">
+        <v>621</v>
+      </c>
       <c r="F582" s="2" t="s">
-        <v>620</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="42">
@@ -15527,8 +15887,11 @@
       <c r="B583" t="s">
         <v>576</v>
       </c>
+      <c r="C583" t="s">
+        <v>621</v>
+      </c>
       <c r="F583" s="2" t="s">
-        <v>620</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="42">
@@ -15538,8 +15901,14 @@
       <c r="B584" t="s">
         <v>577</v>
       </c>
+      <c r="C584" t="s">
+        <v>621</v>
+      </c>
+      <c r="D584" t="s">
+        <v>827</v>
+      </c>
       <c r="F584" s="2" t="s">
-        <v>620</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="42">
@@ -15549,8 +15918,11 @@
       <c r="B585" t="s">
         <v>578</v>
       </c>
+      <c r="C585" t="s">
+        <v>621</v>
+      </c>
       <c r="F585" s="2" t="s">
-        <v>620</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="42">
@@ -15560,8 +15932,11 @@
       <c r="B586" t="s">
         <v>579</v>
       </c>
+      <c r="C586" t="s">
+        <v>621</v>
+      </c>
       <c r="F586" s="2" t="s">
-        <v>620</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="42">
@@ -15571,8 +15946,11 @@
       <c r="B587" t="s">
         <v>580</v>
       </c>
+      <c r="C587" t="s">
+        <v>621</v>
+      </c>
       <c r="F587" s="2" t="s">
-        <v>620</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="42">
@@ -15582,8 +15960,11 @@
       <c r="B588" t="s">
         <v>581</v>
       </c>
+      <c r="C588" t="s">
+        <v>621</v>
+      </c>
       <c r="F588" s="2" t="s">
-        <v>620</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="42">
@@ -15593,8 +15974,11 @@
       <c r="B589" t="s">
         <v>582</v>
       </c>
+      <c r="C589" t="s">
+        <v>621</v>
+      </c>
       <c r="F589" s="2" t="s">
-        <v>620</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="42">
@@ -15604,8 +15988,11 @@
       <c r="B590" t="s">
         <v>583</v>
       </c>
+      <c r="C590" t="s">
+        <v>621</v>
+      </c>
       <c r="F590" s="2" t="s">
-        <v>620</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="42">
